--- a/db/seed_csv/fuel_data.xlsx
+++ b/db/seed_csv/fuel_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12540" windowWidth="28500" windowHeight="11720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="12020" windowWidth="28500" windowHeight="5900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,12 +227,6 @@
     <t>6.9782 </t>
   </si>
   <si>
-    <t>95_BFP</t>
-  </si>
-  <si>
-    <t>95_Coast</t>
-  </si>
-  <si>
     <t>Exchange_Rate</t>
   </si>
   <si>
@@ -275,12 +269,6 @@
     <t>Petroleum_Products_Levy</t>
   </si>
   <si>
-    <t>2ndary_Distribution</t>
-  </si>
-  <si>
-    <t>2ndary_Storage</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -291,6 +279,18 @@
   </si>
   <si>
     <t>http://www.energy.gov.za/files/petroleum_frame.html</t>
+  </si>
+  <si>
+    <t>Full_95_Coast</t>
+  </si>
+  <si>
+    <t>Basic_Fuel_Price</t>
+  </si>
+  <si>
+    <t>Secondary_Storage</t>
+  </si>
+  <si>
+    <t>Secondary_Distribution</t>
   </si>
 </sst>
 </file>
@@ -435,8 +435,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -504,11 +510,17 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,7 +800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,64 +831,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -896,10 +908,10 @@
         <v>17.93</v>
       </c>
       <c r="T2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -919,10 +931,10 @@
         <v>17.79</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -942,10 +954,10 @@
         <v>17.690000000000001</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -965,10 +977,10 @@
         <v>19.46</v>
       </c>
       <c r="T5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -988,10 +1000,10 @@
         <v>20.78</v>
       </c>
       <c r="T6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1011,10 +1023,10 @@
         <v>19.12</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1034,10 +1046,10 @@
         <v>18.559999999999999</v>
       </c>
       <c r="T8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1057,10 +1069,10 @@
         <v>19.559999999999999</v>
       </c>
       <c r="T9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1080,10 +1092,10 @@
         <v>20.190000000000001</v>
       </c>
       <c r="T10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1103,10 +1115,10 @@
         <v>22.14</v>
       </c>
       <c r="T11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1126,10 +1138,10 @@
         <v>23.43</v>
       </c>
       <c r="T12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1149,10 +1161,10 @@
         <v>22.25</v>
       </c>
       <c r="T13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1172,10 +1184,10 @@
         <v>23.51</v>
       </c>
       <c r="T14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1195,10 +1207,10 @@
         <v>23.29</v>
       </c>
       <c r="T15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -1218,10 +1230,10 @@
         <v>20.54</v>
       </c>
       <c r="T16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -1241,10 +1253,10 @@
         <v>19.420000000000002</v>
       </c>
       <c r="T17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -1264,10 +1276,10 @@
         <v>17.98</v>
       </c>
       <c r="T18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -1287,10 +1299,10 @@
         <v>19.47</v>
       </c>
       <c r="T19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -1310,10 +1322,10 @@
         <v>18.02</v>
       </c>
       <c r="T20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -1333,10 +1345,10 @@
         <v>18.45</v>
       </c>
       <c r="T21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -1356,10 +1368,10 @@
         <v>18.79</v>
       </c>
       <c r="T22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -1379,10 +1391,10 @@
         <v>18.73</v>
       </c>
       <c r="T23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -1402,10 +1414,10 @@
         <v>20.12</v>
       </c>
       <c r="T24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -1425,10 +1437,10 @@
         <v>19.16</v>
       </c>
       <c r="T25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -1448,10 +1460,10 @@
         <v>17.239999999999998</v>
       </c>
       <c r="T26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -1471,10 +1483,10 @@
         <v>15.07</v>
       </c>
       <c r="T27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -1494,10 +1506,10 @@
         <v>14.18</v>
       </c>
       <c r="T28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -1517,10 +1529,10 @@
         <v>13.24</v>
       </c>
       <c r="T29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -1540,10 +1552,10 @@
         <v>13.39</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -1563,10 +1575,10 @@
         <v>13.97</v>
       </c>
       <c r="T31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -1586,10 +1598,10 @@
         <v>12.48</v>
       </c>
       <c r="T32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -1609,10 +1621,10 @@
         <v>12.72</v>
       </c>
       <c r="T33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -1632,10 +1644,10 @@
         <v>12.49</v>
       </c>
       <c r="T34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -1655,10 +1667,10 @@
         <v>13.8</v>
       </c>
       <c r="T35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -1678,10 +1690,10 @@
         <v>13.26</v>
       </c>
       <c r="T36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -1701,10 +1713,10 @@
         <v>11.88</v>
       </c>
       <c r="T37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -1724,10 +1736,10 @@
         <v>10.41</v>
       </c>
       <c r="T38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -1747,10 +1759,10 @@
         <v>11.32</v>
       </c>
       <c r="T39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -1770,10 +1782,10 @@
         <v>10.75</v>
       </c>
       <c r="T40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -1793,10 +1805,10 @@
         <v>12.86</v>
       </c>
       <c r="T41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -1816,10 +1828,10 @@
         <v>15.73</v>
       </c>
       <c r="T42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -1839,10 +1851,10 @@
         <v>16.12</v>
       </c>
       <c r="T43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -1862,10 +1874,10 @@
         <v>16.239999999999998</v>
       </c>
       <c r="T44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -1885,10 +1897,10 @@
         <v>18.75</v>
       </c>
       <c r="T45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -1908,10 +1920,10 @@
         <v>20.21</v>
       </c>
       <c r="T46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -1931,10 +1943,10 @@
         <v>22.37</v>
       </c>
       <c r="T47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -1954,10 +1966,10 @@
         <v>22.19</v>
       </c>
       <c r="T48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -1977,10 +1989,10 @@
         <v>24.22</v>
       </c>
       <c r="T49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -2000,10 +2012,10 @@
         <v>25.01</v>
       </c>
       <c r="T50" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -2023,10 +2035,10 @@
         <v>25.21</v>
       </c>
       <c r="T51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -2046,10 +2058,10 @@
         <v>27.15</v>
       </c>
       <c r="T52" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -2069,10 +2081,10 @@
         <v>27.49</v>
       </c>
       <c r="T53" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U53" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -2092,10 +2104,10 @@
         <v>23.45</v>
       </c>
       <c r="T54" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U54" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -2115,10 +2127,10 @@
         <v>27.23</v>
       </c>
       <c r="T55" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U55" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -2138,10 +2150,10 @@
         <v>29.62</v>
       </c>
       <c r="T56" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U56" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -2161,10 +2173,10 @@
         <v>28.16</v>
       </c>
       <c r="T57" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U57" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -2184,10 +2196,10 @@
         <v>29.41</v>
       </c>
       <c r="T58" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -2207,10 +2219,10 @@
         <v>32.08</v>
       </c>
       <c r="T59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U59" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -2230,10 +2242,10 @@
         <v>31.4</v>
       </c>
       <c r="T60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U60" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -2253,10 +2265,10 @@
         <v>32.33</v>
       </c>
       <c r="T61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U61" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -2276,10 +2288,10 @@
         <v>25.28</v>
       </c>
       <c r="T62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U62" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -2299,10 +2311,10 @@
         <v>25.95</v>
       </c>
       <c r="T63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U63" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -2322,10 +2334,10 @@
         <v>27.24</v>
       </c>
       <c r="T64" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U64" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -2345,10 +2357,10 @@
         <v>25.02</v>
       </c>
       <c r="T65" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U65" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -2368,10 +2380,10 @@
         <v>25.66</v>
       </c>
       <c r="T66" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U66" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -2391,10 +2403,10 @@
         <v>27.55</v>
       </c>
       <c r="T67" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U67" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -2414,10 +2426,10 @@
         <v>26.97</v>
       </c>
       <c r="T68" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U68" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -2437,10 +2449,10 @@
         <v>24.8</v>
       </c>
       <c r="T69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -2460,10 +2472,10 @@
         <v>25.81</v>
       </c>
       <c r="T70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -2483,10 +2495,10 @@
         <v>25.03</v>
       </c>
       <c r="T71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -2506,10 +2518,10 @@
         <v>20.73</v>
       </c>
       <c r="T72" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U72" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -2529,10 +2541,10 @@
         <v>18.690000000000001</v>
       </c>
       <c r="T73" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U73" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -2552,10 +2564,10 @@
         <v>18.52</v>
       </c>
       <c r="T74" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U74" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -2575,10 +2587,10 @@
         <v>19.149999999999999</v>
       </c>
       <c r="T75" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U75" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -2598,10 +2610,10 @@
         <v>19.98</v>
       </c>
       <c r="T76" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U76" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
@@ -2621,10 +2633,10 @@
         <v>23.64</v>
       </c>
       <c r="T77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U77" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
@@ -2644,10 +2656,10 @@
         <v>25.43</v>
       </c>
       <c r="T78" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
@@ -2667,10 +2679,10 @@
         <v>25.69</v>
       </c>
       <c r="T79" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U79" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
@@ -2690,10 +2702,10 @@
         <v>24.49</v>
       </c>
       <c r="T80" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U80" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
@@ -2713,10 +2725,10 @@
         <v>25.75</v>
       </c>
       <c r="T81" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U81" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
@@ -2736,10 +2748,10 @@
         <v>26.78</v>
       </c>
       <c r="T82" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U82" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
@@ -2759,10 +2771,10 @@
         <v>28.28</v>
       </c>
       <c r="T83" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U83" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -2782,10 +2794,10 @@
         <v>27.53</v>
       </c>
       <c r="T84" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U84" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
@@ -2805,10 +2817,10 @@
         <v>24.79</v>
       </c>
       <c r="T85" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U85" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -2828,10 +2840,10 @@
         <v>27.89</v>
       </c>
       <c r="T86" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U86" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
@@ -2851,10 +2863,10 @@
         <v>30.77</v>
       </c>
       <c r="T87" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U87" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -2874,10 +2886,10 @@
         <v>32.880000000000003</v>
       </c>
       <c r="T88" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U88" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
@@ -2897,10 +2909,10 @@
         <v>30.36</v>
       </c>
       <c r="T89" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U89" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
@@ -2920,10 +2932,10 @@
         <v>25.49</v>
       </c>
       <c r="T90" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U90" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -2943,10 +2955,10 @@
         <v>26.06</v>
       </c>
       <c r="T91" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U91" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
@@ -2966,10 +2978,10 @@
         <v>27.91</v>
       </c>
       <c r="T92" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U92" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -2989,10 +3001,10 @@
         <v>28.59</v>
       </c>
       <c r="T93" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U93" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
@@ -3012,10 +3024,10 @@
         <v>29.68</v>
       </c>
       <c r="T94" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U94" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
@@ -3035,10 +3047,10 @@
         <v>26.88</v>
       </c>
       <c r="T95" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U95" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
@@ -3058,10 +3070,10 @@
         <v>29.01</v>
       </c>
       <c r="T96" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U96" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
@@ -3081,10 +3093,10 @@
         <v>29.12</v>
       </c>
       <c r="T97" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U97" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
@@ -3104,10 +3116,10 @@
         <v>29.95</v>
       </c>
       <c r="T98" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U98" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
@@ -3127,10 +3139,10 @@
         <v>31.4</v>
       </c>
       <c r="T99" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U99" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
@@ -3150,10 +3162,10 @@
         <v>31.32</v>
       </c>
       <c r="T100" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U100" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
@@ -3173,10 +3185,10 @@
         <v>33.67</v>
       </c>
       <c r="T101" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U101" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
@@ -3196,10 +3208,10 @@
         <v>33.71</v>
       </c>
       <c r="T102" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U102" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
@@ -3219,10 +3231,10 @@
         <v>37.630000000000003</v>
       </c>
       <c r="T103" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U103" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
@@ -3242,10 +3254,10 @@
         <v>35.54</v>
       </c>
       <c r="T104" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U104" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -3265,10 +3277,10 @@
         <v>37.93</v>
       </c>
       <c r="T105" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U105" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -3288,10 +3300,10 @@
         <v>42.08</v>
       </c>
       <c r="T106" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U106" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -3311,10 +3323,10 @@
         <v>41.65</v>
       </c>
       <c r="T107" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U107" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
@@ -3334,10 +3346,10 @@
         <v>46.87</v>
       </c>
       <c r="T108" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U108" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
@@ -3357,10 +3369,10 @@
         <v>42.23</v>
       </c>
       <c r="T109" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U109" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -3380,10 +3392,10 @@
         <v>39.090000000000003</v>
       </c>
       <c r="T110" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U110" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
@@ -3403,10 +3415,10 @@
         <v>42.89</v>
       </c>
       <c r="T111" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U111" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
@@ -3426,10 +3438,10 @@
         <v>44.56</v>
       </c>
       <c r="T112" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U112" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
@@ -3449,10 +3461,10 @@
         <v>50.93</v>
       </c>
       <c r="T113" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U113" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
@@ -3472,10 +3484,10 @@
         <v>50.64</v>
       </c>
       <c r="T114" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U114" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
@@ -3495,10 +3507,10 @@
         <v>47.81</v>
       </c>
       <c r="T115" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U115" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
@@ -3518,10 +3530,10 @@
         <v>53.89</v>
       </c>
       <c r="T116" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U116" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
@@ -3541,10 +3553,10 @@
         <v>56.37</v>
       </c>
       <c r="T117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
@@ -3564,10 +3576,10 @@
         <v>61.87</v>
       </c>
       <c r="T118" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U118" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
@@ -3587,10 +3599,10 @@
         <v>61.65</v>
       </c>
       <c r="T119" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U119" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
@@ -3610,10 +3622,10 @@
         <v>58.19</v>
       </c>
       <c r="T120" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U120" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
@@ -3633,10 +3645,10 @@
         <v>54.98</v>
       </c>
       <c r="T121" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U121" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
@@ -3656,10 +3668,10 @@
         <v>56.47</v>
       </c>
       <c r="T122" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U122" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
@@ -3679,10 +3691,10 @@
         <v>54.46</v>
       </c>
       <c r="T123" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U123" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
@@ -3702,10 +3714,10 @@
         <v>55.49</v>
       </c>
       <c r="T124" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U124" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
@@ -3725,10 +3737,10 @@
         <v>61.08</v>
       </c>
       <c r="T125" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U125" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
@@ -3748,10 +3760,10 @@
         <v>65.66</v>
       </c>
       <c r="T126" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U126" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
@@ -3771,10 +3783,10 @@
         <v>68.8</v>
       </c>
       <c r="T127" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U127" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
@@ -3794,10 +3806,10 @@
         <v>70.11</v>
       </c>
       <c r="T128" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U128" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
@@ -3817,10 +3829,10 @@
         <v>72.209999999999994</v>
       </c>
       <c r="T129" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U129" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.2">
@@ -3840,10 +3852,10 @@
         <v>73.7</v>
       </c>
       <c r="T130" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U130" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.2">
@@ -3863,10 +3875,10 @@
         <v>65.12</v>
       </c>
       <c r="T131" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U131" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.2">
@@ -3886,10 +3898,10 @@
         <v>59.11</v>
       </c>
       <c r="T132" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U132" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.2">
@@ -3909,10 +3921,10 @@
         <v>63.03</v>
       </c>
       <c r="T133" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U133" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.2">
@@ -3932,10 +3944,10 @@
         <v>58.32</v>
       </c>
       <c r="T134" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U134" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.2">
@@ -3955,10 +3967,10 @@
         <v>58.02</v>
       </c>
       <c r="T135" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U135" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.2">
@@ -3978,10 +3990,10 @@
         <v>53.12</v>
       </c>
       <c r="T136" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U136" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
@@ -4001,10 +4013,10 @@
         <v>57.35</v>
       </c>
       <c r="T137" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U137" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.2">
@@ -4024,10 +4036,10 @@
         <v>62.1</v>
       </c>
       <c r="T138" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U138" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.2">
@@ -4047,10 +4059,10 @@
         <v>64.13</v>
       </c>
       <c r="T139" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U139" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
@@ -4070,10 +4082,10 @@
         <v>66.45</v>
       </c>
       <c r="T140" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U140" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.2">
@@ -4093,10 +4105,10 @@
         <v>63.33</v>
       </c>
       <c r="T141" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U141" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.2">
@@ -4116,10 +4128,10 @@
         <v>60.48</v>
       </c>
       <c r="T142" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U142" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.2">
@@ -4139,10 +4151,10 @@
         <v>71.790000000000006</v>
       </c>
       <c r="T143" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U143" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.2">
@@ -4162,10 +4174,10 @@
         <v>76.432000000000002</v>
       </c>
       <c r="T144" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U144" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.2">
@@ -4185,10 +4197,10 @@
         <v>82.78</v>
       </c>
       <c r="T145" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U145" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.2">
@@ -4208,10 +4220,10 @@
         <v>92.91</v>
       </c>
       <c r="T146" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U146" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.2">
@@ -4231,10 +4243,10 @@
         <v>90.37</v>
       </c>
       <c r="T147" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U147" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.2">
@@ -4254,10 +4266,10 @@
         <v>92.16</v>
       </c>
       <c r="T148" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U148" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.2">
@@ -4277,10 +4289,10 @@
         <v>94.74</v>
       </c>
       <c r="T149" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U149" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.2">
@@ -4300,10 +4312,10 @@
         <v>102.4</v>
       </c>
       <c r="T150" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U150" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.2">
@@ -4323,10 +4335,10 @@
         <v>108.37</v>
       </c>
       <c r="T151" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U151" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.2">
@@ -4346,10 +4358,10 @@
         <v>122.25</v>
       </c>
       <c r="T152" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U152" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.2">
@@ -4369,10 +4381,10 @@
         <v>131.54</v>
       </c>
       <c r="T153" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U153" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.2">
@@ -4392,10 +4404,10 @@
         <v>133.63999999999999</v>
       </c>
       <c r="T154" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U154" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
@@ -4415,10 +4427,10 @@
         <v>113</v>
       </c>
       <c r="T155" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U155" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
@@ -4438,10 +4450,10 @@
         <v>99.08</v>
       </c>
       <c r="T156" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U156" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
@@ -4461,10 +4473,10 @@
         <v>75.33</v>
       </c>
       <c r="T157" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U157" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.2">
@@ -4484,10 +4496,10 @@
         <v>53.11</v>
       </c>
       <c r="T158" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U158" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.2">
@@ -4507,10 +4519,10 @@
         <v>39.988999999999997</v>
       </c>
       <c r="T159" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U159" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
@@ -4530,10 +4542,10 @@
         <v>43.548000000000002</v>
       </c>
       <c r="T160" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U160" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
@@ -4553,10 +4565,10 @@
         <v>43.07</v>
       </c>
       <c r="T161" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U161" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
@@ -4576,10 +4588,10 @@
         <v>46.543999999999997</v>
       </c>
       <c r="T162" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U162" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
@@ -4599,10 +4611,10 @@
         <v>50.274000000000001</v>
       </c>
       <c r="T163" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U163" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
@@ -4622,10 +4634,10 @@
         <v>56.576999999999998</v>
       </c>
       <c r="T164" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U164" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
@@ -4645,10 +4657,10 @@
         <v>68.34</v>
       </c>
       <c r="T165" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U165" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
@@ -4668,10 +4680,10 @@
         <v>64.89</v>
       </c>
       <c r="T166" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U166" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
@@ -4691,10 +4703,10 @@
         <v>72.66</v>
       </c>
       <c r="T167" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U167" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
@@ -4714,10 +4726,10 @@
         <v>67.84</v>
       </c>
       <c r="T168" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U168" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
@@ -4737,10 +4749,10 @@
         <v>72.92</v>
       </c>
       <c r="T169" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U169" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
@@ -4760,10 +4772,10 @@
         <v>76.599999999999994</v>
       </c>
       <c r="T170" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U170" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
@@ -4783,10 +4795,10 @@
         <v>74.31</v>
       </c>
       <c r="T171" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U171" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
@@ -4806,10 +4818,10 @@
         <v>76.84</v>
       </c>
       <c r="T172" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U172" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
@@ -4829,10 +4841,10 @@
         <v>73.17</v>
       </c>
       <c r="T173" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U173" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
@@ -4852,10 +4864,10 @@
         <v>78.89</v>
       </c>
       <c r="T174" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U174" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
@@ -4875,10 +4887,10 @@
         <v>85.75</v>
       </c>
       <c r="T175" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U175" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
@@ -4898,10 +4910,10 @@
         <v>76.3</v>
       </c>
       <c r="T176" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U176" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
@@ -4921,10 +4933,10 @@
         <v>74.61</v>
       </c>
       <c r="T177" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U177" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
@@ -4944,10 +4956,10 @@
         <v>78.680000000000007</v>
       </c>
       <c r="T178" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U178" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
@@ -4967,10 +4979,10 @@
         <v>77.39</v>
       </c>
       <c r="T179" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U179" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
@@ -4990,10 +5002,10 @@
         <v>77.37</v>
       </c>
       <c r="T180" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U180" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
@@ -5013,10 +5025,10 @@
         <v>82.73</v>
       </c>
       <c r="T181" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U181" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
@@ -5036,10 +5048,10 @@
         <v>85.15</v>
       </c>
       <c r="T182" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U182" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
@@ -5059,10 +5071,10 @@
         <v>90.77</v>
       </c>
       <c r="T183" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U183" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
@@ -5082,10 +5094,10 @@
         <v>95.97</v>
       </c>
       <c r="T184" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U184" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
@@ -5105,10 +5117,10 @@
         <v>102.37</v>
       </c>
       <c r="T185" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U185" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
@@ -5128,10 +5140,10 @@
         <v>114.41</v>
       </c>
       <c r="T186" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U186" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
@@ -5151,10 +5163,10 @@
         <v>123.49</v>
       </c>
       <c r="T187" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U187" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
@@ -5174,10 +5186,10 @@
         <v>116.15</v>
       </c>
       <c r="T188" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U188" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
@@ -5197,10 +5209,10 @@
         <v>114.19</v>
       </c>
       <c r="T189" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U189" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.2">
@@ -5220,10 +5232,10 @@
         <v>116.88</v>
       </c>
       <c r="T190" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U190" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.2">
@@ -5243,10 +5255,10 @@
         <v>110.67</v>
       </c>
       <c r="T191" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U191" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.2">
@@ -5266,10 +5278,10 @@
         <v>113.61</v>
       </c>
       <c r="T192" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U192" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.2">
@@ -5289,10 +5301,10 @@
         <v>109.28</v>
       </c>
       <c r="T193" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U193" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.2">
@@ -5312,10 +5324,10 @@
         <v>110.51</v>
       </c>
       <c r="T194" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U194" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.2">
@@ -5335,10 +5347,10 @@
         <v>107.96</v>
       </c>
       <c r="T195" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U195" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.2">
@@ -5358,10 +5370,10 @@
         <v>110.42</v>
       </c>
       <c r="T196" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U196" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.2">
@@ -5381,10 +5393,10 @@
         <v>126.39</v>
       </c>
       <c r="T197" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U197" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.2">
@@ -5404,10 +5416,10 @@
         <v>125.42</v>
       </c>
       <c r="T198" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U198" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.2">
@@ -5427,10 +5439,10 @@
         <v>120.18</v>
       </c>
       <c r="T199" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U199" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.2">
@@ -5450,10 +5462,10 @@
         <v>110.27</v>
       </c>
       <c r="T200" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U200" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.2">
@@ -5473,10 +5485,10 @@
         <v>95.22</v>
       </c>
       <c r="T201" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U201" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.2">
@@ -5496,10 +5508,10 @@
         <v>102.04</v>
       </c>
       <c r="T202" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U202" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.2">
@@ -5519,10 +5531,10 @@
         <v>113.51</v>
       </c>
       <c r="T203" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U203" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.2">
@@ -5542,10 +5554,10 @@
         <v>112.96</v>
       </c>
       <c r="T204" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U204" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.2">
@@ -5565,10 +5577,10 @@
         <v>109.05</v>
       </c>
       <c r="T205" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U205" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.2">
@@ -5588,10 +5600,10 @@
         <v>109.04</v>
       </c>
       <c r="T206" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U206" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.2">
@@ -5611,10 +5623,10 @@
         <v>109.13</v>
       </c>
       <c r="T207" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U207" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.2">
@@ -5634,10 +5646,10 @@
         <v>112.88</v>
       </c>
       <c r="T208" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U208" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.2">
@@ -5657,10 +5669,10 @@
         <v>116.28</v>
       </c>
       <c r="T209" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U209" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.2">
@@ -5680,10 +5692,10 @@
         <v>108.44</v>
       </c>
       <c r="T210" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U210" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.2">
@@ -5703,10 +5715,10 @@
         <v>102.16</v>
       </c>
       <c r="T211" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U211" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.2">
@@ -5726,10 +5738,10 @@
         <v>102.62</v>
       </c>
       <c r="T212" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U212" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.2">
@@ -5749,10 +5761,10 @@
         <v>102.84</v>
       </c>
       <c r="T213" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U213" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.2">
@@ -5772,10 +5784,10 @@
         <v>108.05</v>
       </c>
       <c r="T214" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U214" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.2">
@@ -5795,10 +5807,10 @@
         <v>111.07</v>
       </c>
       <c r="T215" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U215" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.2">
@@ -5818,10 +5830,10 @@
         <v>112.23</v>
       </c>
       <c r="T216" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U216" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.2">
@@ -5841,10 +5853,10 @@
         <v>109.12</v>
       </c>
       <c r="T217" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U217" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.2">
@@ -5864,10 +5876,10 @@
         <v>107.82</v>
       </c>
       <c r="T218" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U218" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.2">
@@ -5887,10 +5899,10 @@
         <v>110.73</v>
       </c>
       <c r="T219" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U219" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.2">
@@ -5910,10 +5922,10 @@
         <v>108.35</v>
       </c>
       <c r="T220" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U220" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.2">
@@ -5933,10 +5945,10 @@
         <v>108.87</v>
       </c>
       <c r="T221" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U221" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.2">
@@ -5956,10 +5968,10 @@
         <v>107.67</v>
       </c>
       <c r="T222" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U222" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.2">
@@ -5979,10 +5991,10 @@
         <v>108.31</v>
       </c>
       <c r="T223" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U223" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.2">
@@ -6002,10 +6014,10 @@
         <v>109.69</v>
       </c>
       <c r="T224" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U224" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.2">
@@ -6025,10 +6037,10 @@
         <v>111.62</v>
       </c>
       <c r="T225" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U225" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.2">
@@ -6048,10 +6060,10 @@
         <v>106.64</v>
       </c>
       <c r="T226" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U226" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.2">
@@ -6071,10 +6083,10 @@
         <v>101.57</v>
       </c>
       <c r="T227" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U227" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.2">
@@ -6094,10 +6106,10 @@
         <v>97.73</v>
       </c>
       <c r="T228" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U228" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.2">
@@ -6117,10 +6129,10 @@
         <v>87.54</v>
       </c>
       <c r="T229" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U229" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.2">
@@ -6140,10 +6152,10 @@
         <v>79.75</v>
       </c>
       <c r="T230" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U230" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.2">
@@ -6163,10 +6175,10 @@
         <v>54.98</v>
       </c>
       <c r="T231" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U231" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.2">
@@ -6186,10 +6198,10 @@
         <v>48.2</v>
       </c>
       <c r="T232" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U232" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.2">
@@ -6209,10 +6221,10 @@
         <v>57.93</v>
       </c>
       <c r="T233" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U233" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.2">
@@ -6232,10 +6244,10 @@
         <v>56.11</v>
       </c>
       <c r="T234" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U234" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.2">
@@ -6255,10 +6267,10 @@
         <v>59.01</v>
       </c>
       <c r="T235" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U235" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.2">
@@ -6278,10 +6290,10 @@
         <v>64.36</v>
       </c>
       <c r="T236" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U236" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.2">
@@ -6301,10 +6313,10 @@
         <v>61.94</v>
       </c>
       <c r="T237" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U237" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.2">
@@ -6324,10 +6336,10 @@
         <v>56.72</v>
       </c>
       <c r="T238" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U238" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.2">
@@ -6347,10 +6359,10 @@
         <v>46.56</v>
       </c>
       <c r="T239" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U239" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.2">
@@ -6370,10 +6382,10 @@
         <v>47.79</v>
       </c>
       <c r="T240" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U240" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.2">
@@ -6393,10 +6405,10 @@
         <v>48.58</v>
       </c>
       <c r="T241" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U241" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.2">
@@ -6416,10 +6428,10 @@
         <v>44.33</v>
       </c>
       <c r="T242" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U242" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.2">
@@ -6481,10 +6493,10 @@
         <v>10</v>
       </c>
       <c r="T243" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U243" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.2">
@@ -6546,10 +6558,10 @@
         <v>10</v>
       </c>
       <c r="T244" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U244" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.2">
@@ -6611,10 +6623,10 @@
         <v>10</v>
       </c>
       <c r="T245" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U245" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.2">
@@ -6676,10 +6688,10 @@
         <v>10</v>
       </c>
       <c r="T246" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U246" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.2">
@@ -6741,10 +6753,10 @@
         <v>10</v>
       </c>
       <c r="T247" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U247" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.2">
@@ -6806,10 +6818,10 @@
         <v>10</v>
       </c>
       <c r="T248" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U248" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.2">
@@ -6871,10 +6883,10 @@
         <v>10</v>
       </c>
       <c r="T249" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U249" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.2">
@@ -6936,10 +6948,10 @@
         <v>10</v>
       </c>
       <c r="T250" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U250" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.2">
@@ -7001,10 +7013,10 @@
         <v>10</v>
       </c>
       <c r="T251" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U251" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.2">
@@ -7066,10 +7078,10 @@
         <v>10</v>
       </c>
       <c r="T252" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U252" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.2">
@@ -7131,10 +7143,10 @@
         <v>10</v>
       </c>
       <c r="T253" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U253" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.2">
@@ -7196,10 +7208,10 @@
         <v>10</v>
       </c>
       <c r="T254" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U254" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.2">
@@ -7261,10 +7273,10 @@
         <v>10</v>
       </c>
       <c r="T255" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U255" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.2">

--- a/db/seed_csv/fuel_data.xlsx
+++ b/db/seed_csv/fuel_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -118,7 +118,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -344,16 +344,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5210,11 +5210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684434768"/>
-        <c:axId val="213738528"/>
+        <c:axId val="-1920159232"/>
+        <c:axId val="-1920155488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="684434768"/>
+        <c:axId val="-1920159232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5313,14 +5313,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213738528"/>
+        <c:crossAx val="-1920155488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="213738528"/>
+        <c:axId val="-1920155488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1450.0"/>
@@ -5428,7 +5428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684434768"/>
+        <c:crossAx val="-1920159232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6347,9 +6347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H226" sqref="H226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12828,6 +12828,62 @@
         <v>17</v>
       </c>
     </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A256" s="17">
+        <v>42767</v>
+      </c>
+      <c r="C256">
+        <v>620.87</v>
+      </c>
+      <c r="F256">
+        <v>620.87</v>
+      </c>
+      <c r="G256">
+        <v>285</v>
+      </c>
+      <c r="H256">
+        <v>4</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>154</v>
+      </c>
+      <c r="K256">
+        <v>41</v>
+      </c>
+      <c r="L256">
+        <v>0.33</v>
+      </c>
+      <c r="M256">
+        <v>35.6</v>
+      </c>
+      <c r="N256">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O256">
+        <v>17.3</v>
+      </c>
+      <c r="P256">
+        <v>176.4</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <v>10</v>
+      </c>
+      <c r="T256" t="s">
+        <v>18</v>
+      </c>
+      <c r="U256" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="20"/>
     </row>
@@ -12844,8 +12900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db/seed_csv/fuel_data.xlsx
+++ b/db/seed_csv/fuel_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="1640" yWindow="-17720" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -307,7 +307,6 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -326,7 +325,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -354,6 +352,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -418,7 +422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5210,11 +5213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1920159232"/>
-        <c:axId val="-1920155488"/>
+        <c:axId val="40262304"/>
+        <c:axId val="14811936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1920159232"/>
+        <c:axId val="40262304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5246,7 +5249,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5313,14 +5315,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1920155488"/>
+        <c:crossAx val="14811936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1920155488"/>
+        <c:axId val="14811936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1450.0"/>
@@ -5368,7 +5370,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5428,7 +5429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1920159232"/>
+        <c:crossAx val="40262304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5442,7 +5443,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6348,13 +6348,13 @@
   <dimension ref="A1:U259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H226" sqref="H226"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -6376,7 +6376,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6441,7 +6441,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>35034</v>
       </c>
       <c r="B2" s="3">
@@ -6453,7 +6453,7 @@
       <c r="D2" s="2">
         <v>3.6655000000000002</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="32">
         <v>17.93</v>
       </c>
       <c r="T2" t="s">
@@ -6464,7 +6464,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>35065</v>
       </c>
       <c r="B3" s="3">
@@ -6476,7 +6476,7 @@
       <c r="D3" s="5">
         <v>3.6419000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="32">
         <v>17.79</v>
       </c>
       <c r="T3" t="s">
@@ -6487,7 +6487,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>35096</v>
       </c>
       <c r="B4" s="3">
@@ -6499,7 +6499,7 @@
       <c r="D4" s="5">
         <v>3.7484000000000002</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="32">
         <v>17.690000000000001</v>
       </c>
       <c r="T4" t="s">
@@ -6510,7 +6510,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>35125</v>
       </c>
       <c r="B5" s="3">
@@ -6522,7 +6522,7 @@
       <c r="D5" s="5">
         <v>3.93</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="32">
         <v>19.46</v>
       </c>
       <c r="T5" t="s">
@@ -6533,7 +6533,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>35156</v>
       </c>
       <c r="B6" s="3">
@@ -6545,7 +6545,7 @@
       <c r="D6" s="5">
         <v>4.2176</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="32">
         <v>20.78</v>
       </c>
       <c r="T6" t="s">
@@ -6556,7 +6556,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>35186</v>
       </c>
       <c r="B7" s="3">
@@ -6568,7 +6568,7 @@
       <c r="D7" s="5">
         <v>4.3784000000000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="32">
         <v>19.12</v>
       </c>
       <c r="T7" t="s">
@@ -6579,7 +6579,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>35217</v>
       </c>
       <c r="B8" s="3">
@@ -6591,7 +6591,7 @@
       <c r="D8" s="5">
         <v>4.3517000000000001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="32">
         <v>18.559999999999999</v>
       </c>
       <c r="T8" t="s">
@@ -6602,7 +6602,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>35247</v>
       </c>
       <c r="B9" s="3">
@@ -6614,7 +6614,7 @@
       <c r="D9" s="5">
         <v>4.3891</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="32">
         <v>19.559999999999999</v>
       </c>
       <c r="T9" t="s">
@@ -6625,7 +6625,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>35278</v>
       </c>
       <c r="B10" s="3">
@@ -6637,7 +6637,7 @@
       <c r="D10" s="5">
         <v>4.5263</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="32">
         <v>20.190000000000001</v>
       </c>
       <c r="T10" t="s">
@@ -6648,7 +6648,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>35309</v>
       </c>
       <c r="B11" s="3">
@@ -6660,7 +6660,7 @@
       <c r="D11" s="5">
         <v>4.4996</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="32">
         <v>22.14</v>
       </c>
       <c r="T11" t="s">
@@ -6671,7 +6671,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>35339</v>
       </c>
       <c r="B12" s="3">
@@ -6683,7 +6683,7 @@
       <c r="D12" s="5">
         <v>4.5749000000000004</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="32">
         <v>23.43</v>
       </c>
       <c r="T12" t="s">
@@ -6694,7 +6694,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>35370</v>
       </c>
       <c r="B13" s="3">
@@ -6706,7 +6706,7 @@
       <c r="D13" s="5">
         <v>4.6593999999999998</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="32">
         <v>22.25</v>
       </c>
       <c r="T13" t="s">
@@ -6717,7 +6717,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>35400</v>
       </c>
       <c r="B14" s="3">
@@ -6729,7 +6729,7 @@
       <c r="D14" s="5">
         <v>4.6845999999999997</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="32">
         <v>23.51</v>
       </c>
       <c r="T14" t="s">
@@ -6740,7 +6740,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>35431</v>
       </c>
       <c r="B15" s="3">
@@ -6752,7 +6752,7 @@
       <c r="D15" s="5">
         <v>4.6455000000000002</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="32">
         <v>23.29</v>
       </c>
       <c r="T15" t="s">
@@ -6763,7 +6763,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>35462</v>
       </c>
       <c r="B16" s="3">
@@ -6775,7 +6775,7 @@
       <c r="D16" s="5">
         <v>4.4513999999999996</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="32">
         <v>20.54</v>
       </c>
       <c r="T16" t="s">
@@ -6786,7 +6786,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>35490</v>
       </c>
       <c r="B17" s="3">
@@ -6798,7 +6798,7 @@
       <c r="D17" s="5">
         <v>4.4386999999999999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="32">
         <v>19.420000000000002</v>
       </c>
       <c r="T17" t="s">
@@ -6809,7 +6809,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>35521</v>
       </c>
       <c r="B18" s="3">
@@ -6821,7 +6821,7 @@
       <c r="D18" s="5">
         <v>4.4431000000000003</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="32">
         <v>17.98</v>
       </c>
       <c r="T18" t="s">
@@ -6832,7 +6832,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>35551</v>
       </c>
       <c r="B19" s="3">
@@ -6844,7 +6844,7 @@
       <c r="D19" s="5">
         <v>4.4694000000000003</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="32">
         <v>19.47</v>
       </c>
       <c r="T19" t="s">
@@ -6855,7 +6855,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>35582</v>
       </c>
       <c r="B20" s="3">
@@ -6867,7 +6867,7 @@
       <c r="D20" s="5">
         <v>4.5000999999999998</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="32">
         <v>18.02</v>
       </c>
       <c r="T20" t="s">
@@ -6878,7 +6878,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>35612</v>
       </c>
       <c r="B21" s="3">
@@ -6890,7 +6890,7 @@
       <c r="D21" s="5">
         <v>4.5594000000000001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="32">
         <v>18.45</v>
       </c>
       <c r="T21" t="s">
@@ -6901,7 +6901,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>35643</v>
       </c>
       <c r="B22" s="3">
@@ -6913,7 +6913,7 @@
       <c r="D22" s="5">
         <v>4.6859999999999999</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="32">
         <v>18.79</v>
       </c>
       <c r="T22" t="s">
@@ -6924,7 +6924,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>35674</v>
       </c>
       <c r="B23" s="3">
@@ -6936,7 +6936,7 @@
       <c r="D23" s="5">
         <v>4.6923000000000004</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="32">
         <v>18.73</v>
       </c>
       <c r="T23" t="s">
@@ -6947,7 +6947,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>35704</v>
       </c>
       <c r="B24" s="3">
@@ -6959,7 +6959,7 @@
       <c r="D24" s="5">
         <v>4.7121000000000004</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="32">
         <v>20.12</v>
       </c>
       <c r="T24" t="s">
@@ -6970,7 +6970,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>35735</v>
       </c>
       <c r="B25" s="3">
@@ -6982,7 +6982,7 @@
       <c r="D25" s="5">
         <v>4.8380000000000001</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="32">
         <v>19.16</v>
       </c>
       <c r="T25" t="s">
@@ -6993,7 +6993,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>35765</v>
       </c>
       <c r="B26" s="3">
@@ -7005,7 +7005,7 @@
       <c r="D26" s="5">
         <v>4.8719999999999999</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="32">
         <v>17.239999999999998</v>
       </c>
       <c r="T26" t="s">
@@ -7016,7 +7016,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>35796</v>
       </c>
       <c r="B27" s="3">
@@ -7028,7 +7028,7 @@
       <c r="D27" s="5">
         <v>4.9410999999999996</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="32">
         <v>15.07</v>
       </c>
       <c r="T27" t="s">
@@ -7039,7 +7039,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>35827</v>
       </c>
       <c r="B28" s="3">
@@ -7051,7 +7051,7 @@
       <c r="D28" s="5">
         <v>4.9371999999999998</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="32">
         <v>14.18</v>
       </c>
       <c r="T28" t="s">
@@ -7062,7 +7062,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>35855</v>
       </c>
       <c r="B29" s="3">
@@ -7074,7 +7074,7 @@
       <c r="D29" s="5">
         <v>4.9728000000000003</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="32">
         <v>13.24</v>
       </c>
       <c r="T29" t="s">
@@ -7085,7 +7085,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>35886</v>
       </c>
       <c r="B30" s="3">
@@ -7097,7 +7097,7 @@
       <c r="D30" s="5">
         <v>5.0479000000000003</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="32">
         <v>13.39</v>
       </c>
       <c r="T30" t="s">
@@ -7108,7 +7108,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <v>35916</v>
       </c>
       <c r="B31" s="3">
@@ -7120,7 +7120,7 @@
       <c r="D31" s="5">
         <v>5.0938999999999997</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="32">
         <v>13.97</v>
       </c>
       <c r="T31" t="s">
@@ -7131,7 +7131,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>35947</v>
       </c>
       <c r="B32" s="3">
@@ -7143,7 +7143,7 @@
       <c r="D32" s="5">
         <v>5.3735999999999997</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="32">
         <v>12.48</v>
       </c>
       <c r="T32" t="s">
@@ -7154,7 +7154,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>35977</v>
       </c>
       <c r="B33" s="3">
@@ -7166,7 +7166,7 @@
       <c r="D33" s="5">
         <v>6.2595000000000001</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="32">
         <v>12.72</v>
       </c>
       <c r="T33" t="s">
@@ -7177,7 +7177,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>36008</v>
       </c>
       <c r="B34" s="3">
@@ -7189,7 +7189,7 @@
       <c r="D34" s="5">
         <v>6.3402000000000003</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="32">
         <v>12.49</v>
       </c>
       <c r="T34" t="s">
@@ -7200,7 +7200,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>36039</v>
       </c>
       <c r="B35" s="3">
@@ -7212,7 +7212,7 @@
       <c r="D35" s="5">
         <v>6.1382000000000003</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="32">
         <v>13.8</v>
       </c>
       <c r="T35" t="s">
@@ -7223,7 +7223,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>36069</v>
       </c>
       <c r="B36" s="3">
@@ -7235,7 +7235,7 @@
       <c r="D36" s="5">
         <v>5.8163999999999998</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="32">
         <v>13.26</v>
       </c>
       <c r="T36" t="s">
@@ -7246,7 +7246,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>36100</v>
       </c>
       <c r="B37" s="3">
@@ -7258,7 +7258,7 @@
       <c r="D37" s="5">
         <v>5.6677</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="32">
         <v>11.88</v>
       </c>
       <c r="T37" t="s">
@@ -7269,7 +7269,7 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>36130</v>
       </c>
       <c r="B38" s="3">
@@ -7281,7 +7281,7 @@
       <c r="D38" s="5">
         <v>5.8998999999999997</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="32">
         <v>10.41</v>
       </c>
       <c r="T38" t="s">
@@ -7292,7 +7292,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <v>36161</v>
       </c>
       <c r="B39" s="3">
@@ -7304,7 +7304,7 @@
       <c r="D39" s="6">
         <v>5.9984000000000002</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="32">
         <v>11.32</v>
       </c>
       <c r="T39" t="s">
@@ -7315,7 +7315,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>36192</v>
       </c>
       <c r="B40" s="3">
@@ -7327,7 +7327,7 @@
       <c r="D40" s="7">
         <v>6.1239999999999997</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="32">
         <v>10.75</v>
       </c>
       <c r="T40" t="s">
@@ -7338,7 +7338,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="17">
+      <c r="A41" s="16">
         <v>36220</v>
       </c>
       <c r="B41" s="3">
@@ -7350,7 +7350,7 @@
       <c r="D41" s="7">
         <v>6.2190000000000003</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="32">
         <v>12.86</v>
       </c>
       <c r="T41" t="s">
@@ -7361,7 +7361,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>36251</v>
       </c>
       <c r="B42" s="3">
@@ -7373,7 +7373,7 @@
       <c r="D42" s="7">
         <v>6.1250999999999998</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="32">
         <v>15.73</v>
       </c>
       <c r="T42" t="s">
@@ -7384,7 +7384,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>36281</v>
       </c>
       <c r="B43" s="3">
@@ -7396,7 +7396,7 @@
       <c r="D43" s="7">
         <v>6.1901999999999999</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="32">
         <v>16.12</v>
       </c>
       <c r="T43" t="s">
@@ -7407,7 +7407,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="17">
+      <c r="A44" s="16">
         <v>36312</v>
       </c>
       <c r="B44" s="3">
@@ -7419,7 +7419,7 @@
       <c r="D44" s="7">
         <v>6.0983000000000001</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="32">
         <v>16.239999999999998</v>
       </c>
       <c r="T44" t="s">
@@ -7430,7 +7430,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="17">
+      <c r="A45" s="16">
         <v>36342</v>
       </c>
       <c r="B45" s="3">
@@ -7442,7 +7442,7 @@
       <c r="D45" s="7">
         <v>6.1157000000000004</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="32">
         <v>18.75</v>
       </c>
       <c r="T45" t="s">
@@ -7453,7 +7453,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
+      <c r="A46" s="16">
         <v>36373</v>
       </c>
       <c r="B46" s="3">
@@ -7465,7 +7465,7 @@
       <c r="D46" s="7">
         <v>6.1349999999999998</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="32">
         <v>20.21</v>
       </c>
       <c r="T46" t="s">
@@ -7476,7 +7476,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
+      <c r="A47" s="16">
         <v>36404</v>
       </c>
       <c r="B47" s="3">
@@ -7488,7 +7488,7 @@
       <c r="D47" s="7">
         <v>6.0654000000000003</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="32">
         <v>22.37</v>
       </c>
       <c r="T47" t="s">
@@ -7499,7 +7499,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <v>36434</v>
       </c>
       <c r="B48" s="3">
@@ -7511,7 +7511,7 @@
       <c r="D48" s="7">
         <v>6.0991999999999997</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="32">
         <v>22.19</v>
       </c>
       <c r="T48" t="s">
@@ -7522,7 +7522,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="18">
+      <c r="A49" s="17">
         <v>36465</v>
       </c>
       <c r="B49" s="3">
@@ -7534,7 +7534,7 @@
       <c r="D49" s="8">
         <v>6.1294000000000004</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="32">
         <v>24.22</v>
       </c>
       <c r="T49" t="s">
@@ -7545,7 +7545,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="17">
+      <c r="A50" s="16">
         <v>36495</v>
       </c>
       <c r="B50" s="3">
@@ -7557,7 +7557,7 @@
       <c r="D50" s="7">
         <v>6.1513</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="32">
         <v>25.01</v>
       </c>
       <c r="T50" t="s">
@@ -7568,7 +7568,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="17">
+      <c r="A51" s="16">
         <v>36526</v>
       </c>
       <c r="B51" s="3">
@@ -7580,7 +7580,7 @@
       <c r="D51" s="7">
         <v>6.125</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="32">
         <v>25.21</v>
       </c>
       <c r="T51" t="s">
@@ -7591,7 +7591,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="17">
+      <c r="A52" s="16">
         <v>36557</v>
       </c>
       <c r="B52" s="3">
@@ -7603,7 +7603,7 @@
       <c r="D52" s="7">
         <v>6.3212000000000002</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="32">
         <v>27.15</v>
       </c>
       <c r="T52" t="s">
@@ -7614,7 +7614,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="17">
+      <c r="A53" s="16">
         <v>36586</v>
       </c>
       <c r="B53" s="3">
@@ -7626,7 +7626,7 @@
       <c r="D53" s="7">
         <v>6.4665999999999997</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="32">
         <v>27.49</v>
       </c>
       <c r="T53" t="s">
@@ -7637,7 +7637,7 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="17">
+      <c r="A54" s="16">
         <v>36617</v>
       </c>
       <c r="B54" s="3">
@@ -7649,7 +7649,7 @@
       <c r="D54" s="7">
         <v>6.6182999999999996</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="32">
         <v>23.45</v>
       </c>
       <c r="T54" t="s">
@@ -7660,7 +7660,7 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="17">
+      <c r="A55" s="16">
         <v>36647</v>
       </c>
       <c r="B55" s="3">
@@ -7672,7 +7672,7 @@
       <c r="D55" s="7">
         <v>7.0354000000000001</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="32">
         <v>27.23</v>
       </c>
       <c r="T55" t="s">
@@ -7683,7 +7683,7 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="17">
+      <c r="A56" s="16">
         <v>36678</v>
       </c>
       <c r="B56" s="3">
@@ -7695,7 +7695,7 @@
       <c r="D56" s="7">
         <v>6.9343000000000004</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="32">
         <v>29.62</v>
       </c>
       <c r="T56" t="s">
@@ -7706,7 +7706,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="17">
+      <c r="A57" s="16">
         <v>36708</v>
       </c>
       <c r="B57" s="3">
@@ -7718,7 +7718,7 @@
       <c r="D57" s="7">
         <v>6.8833000000000002</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="32">
         <v>28.16</v>
       </c>
       <c r="T57" t="s">
@@ -7729,7 +7729,7 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="17">
+      <c r="A58" s="16">
         <v>36739</v>
       </c>
       <c r="B58" s="3">
@@ -7741,7 +7741,7 @@
       <c r="D58" s="7">
         <v>6.9577999999999998</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="32">
         <v>29.41</v>
       </c>
       <c r="T58" t="s">
@@ -7752,7 +7752,7 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="17">
+      <c r="A59" s="16">
         <v>36770</v>
       </c>
       <c r="B59" s="3">
@@ -7764,7 +7764,7 @@
       <c r="D59" s="7">
         <v>7.1687000000000003</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="32">
         <v>32.08</v>
       </c>
       <c r="T59" t="s">
@@ -7775,7 +7775,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="17">
+      <c r="A60" s="16">
         <v>36800</v>
       </c>
       <c r="B60" s="3">
@@ -7787,7 +7787,7 @@
       <c r="D60" s="7">
         <v>7.4745999999999997</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="32">
         <v>31.4</v>
       </c>
       <c r="T60" t="s">
@@ -7798,7 +7798,7 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="17">
+      <c r="A61" s="16">
         <v>36831</v>
       </c>
       <c r="B61" s="3">
@@ -7810,7 +7810,7 @@
       <c r="D61" s="7">
         <v>7.6825999999999999</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="32">
         <v>32.33</v>
       </c>
       <c r="T61" t="s">
@@ -7821,7 +7821,7 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="17">
+      <c r="A62" s="16">
         <v>36861</v>
       </c>
       <c r="B62" s="3">
@@ -7833,7 +7833,7 @@
       <c r="D62" s="7">
         <v>7.6501000000000001</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="32">
         <v>25.28</v>
       </c>
       <c r="T62" t="s">
@@ -7844,7 +7844,7 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="17">
+      <c r="A63" s="16">
         <v>36892</v>
       </c>
       <c r="B63" s="3">
@@ -7856,7 +7856,7 @@
       <c r="D63" s="7">
         <v>7.7870999999999997</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="32">
         <v>25.95</v>
       </c>
       <c r="T63" t="s">
@@ -7867,7 +7867,7 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="17">
+      <c r="A64" s="16">
         <v>36923</v>
       </c>
       <c r="B64" s="3">
@@ -7879,7 +7879,7 @@
       <c r="D64" s="7">
         <v>7.8197999999999999</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="32">
         <v>27.24</v>
       </c>
       <c r="T64" t="s">
@@ -7890,7 +7890,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="17">
+      <c r="A65" s="16">
         <v>36951</v>
       </c>
       <c r="B65" s="3">
@@ -7902,7 +7902,7 @@
       <c r="D65" s="7">
         <v>7.8895</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="32">
         <v>25.02</v>
       </c>
       <c r="T65" t="s">
@@ -7913,7 +7913,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="17">
+      <c r="A66" s="16">
         <v>36982</v>
       </c>
       <c r="B66" s="3">
@@ -7925,7 +7925,7 @@
       <c r="D66" s="7">
         <v>8.0969999999999995</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="32">
         <v>25.66</v>
       </c>
       <c r="T66" t="s">
@@ -7936,7 +7936,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="17">
+      <c r="A67" s="16">
         <v>37012</v>
       </c>
       <c r="B67" s="3">
@@ -7948,7 +7948,7 @@
       <c r="D67" s="7">
         <v>7.9766000000000004</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="32">
         <v>27.55</v>
       </c>
       <c r="T67" t="s">
@@ -7959,7 +7959,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="17">
+      <c r="A68" s="16">
         <v>37043</v>
       </c>
       <c r="B68" s="3">
@@ -7971,7 +7971,7 @@
       <c r="D68" s="7">
         <v>8.0610999999999997</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="32">
         <v>26.97</v>
       </c>
       <c r="T68" t="s">
@@ -7982,7 +7982,7 @@
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="17">
+      <c r="A69" s="16">
         <v>37073</v>
       </c>
       <c r="B69" s="3">
@@ -7994,7 +7994,7 @@
       <c r="D69" s="7">
         <v>8.2020999999999997</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="32">
         <v>24.8</v>
       </c>
       <c r="T69" t="s">
@@ -8005,7 +8005,7 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="17">
+      <c r="A70" s="16">
         <v>37104</v>
       </c>
       <c r="B70" s="3">
@@ -8017,7 +8017,7 @@
       <c r="D70" s="7">
         <v>8.3152000000000008</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="32">
         <v>25.81</v>
       </c>
       <c r="T70" t="s">
@@ -8028,7 +8028,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="17">
+      <c r="A71" s="16">
         <v>37135</v>
       </c>
       <c r="B71" s="3">
@@ -8040,7 +8040,7 @@
       <c r="D71" s="7">
         <v>8.6372</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="32">
         <v>25.03</v>
       </c>
       <c r="T71" t="s">
@@ -8051,7 +8051,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="18">
+      <c r="A72" s="17">
         <v>37165</v>
       </c>
       <c r="B72" s="3">
@@ -8063,7 +8063,7 @@
       <c r="D72" s="8">
         <v>9.2388999999999992</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="32">
         <v>20.73</v>
       </c>
       <c r="T72" t="s">
@@ -8074,7 +8074,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="17">
+      <c r="A73" s="16">
         <v>37196</v>
       </c>
       <c r="B73" s="3">
@@ -8086,7 +8086,7 @@
       <c r="D73" s="7">
         <v>9.7263000000000002</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="32">
         <v>18.690000000000001</v>
       </c>
       <c r="T73" t="s">
@@ -8097,7 +8097,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74" s="17">
+      <c r="A74" s="16">
         <v>37226</v>
       </c>
       <c r="B74" s="3">
@@ -8109,7 +8109,7 @@
       <c r="D74" s="7">
         <v>11.6157</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="32">
         <v>18.52</v>
       </c>
       <c r="T74" t="s">
@@ -8120,7 +8120,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="17">
+      <c r="A75" s="16">
         <v>37257</v>
       </c>
       <c r="B75" s="3">
@@ -8132,7 +8132,7 @@
       <c r="D75" s="7">
         <v>11.632899999999999</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="32">
         <v>19.149999999999999</v>
       </c>
       <c r="T75" t="s">
@@ -8143,7 +8143,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="17">
+      <c r="A76" s="16">
         <v>37288</v>
       </c>
       <c r="B76" s="3">
@@ -8155,7 +8155,7 @@
       <c r="D76" s="7">
         <v>11.509600000000001</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="32">
         <v>19.98</v>
       </c>
       <c r="T76" t="s">
@@ -8166,7 +8166,7 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="17">
+      <c r="A77" s="16">
         <v>37316</v>
       </c>
       <c r="B77" s="3">
@@ -8178,7 +8178,7 @@
       <c r="D77" s="7">
         <v>11.533899999999999</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="32">
         <v>23.64</v>
       </c>
       <c r="T77" t="s">
@@ -8189,7 +8189,7 @@
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="17">
+      <c r="A78" s="16">
         <v>37347</v>
       </c>
       <c r="B78" s="3">
@@ -8201,7 +8201,7 @@
       <c r="D78" s="7">
         <v>11.0886</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="32">
         <v>25.43</v>
       </c>
       <c r="T78" t="s">
@@ -8212,7 +8212,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="17">
+      <c r="A79" s="16">
         <v>37377</v>
       </c>
       <c r="B79" s="3">
@@ -8224,7 +8224,7 @@
       <c r="D79" s="7">
         <v>10.159800000000001</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="32">
         <v>25.69</v>
       </c>
       <c r="T79" t="s">
@@ -8235,7 +8235,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="17">
+      <c r="A80" s="16">
         <v>37408</v>
       </c>
       <c r="B80" s="3">
@@ -8247,7 +8247,7 @@
       <c r="D80" s="7">
         <v>10.1496</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="32">
         <v>24.49</v>
       </c>
       <c r="T80" t="s">
@@ -8258,7 +8258,7 @@
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A81" s="17">
+      <c r="A81" s="16">
         <v>37438</v>
       </c>
       <c r="B81" s="3">
@@ -8270,7 +8270,7 @@
       <c r="D81" s="7">
         <v>10.1189</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="32">
         <v>25.75</v>
       </c>
       <c r="T81" t="s">
@@ -8281,7 +8281,7 @@
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A82" s="17">
+      <c r="A82" s="16">
         <v>37469</v>
       </c>
       <c r="B82" s="3">
@@ -8293,7 +8293,7 @@
       <c r="D82" s="7">
         <v>10.6065</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="32">
         <v>26.78</v>
       </c>
       <c r="T82" t="s">
@@ -8304,7 +8304,7 @@
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A83" s="17">
+      <c r="A83" s="16">
         <v>37500</v>
       </c>
       <c r="B83" s="3">
@@ -8316,7 +8316,7 @@
       <c r="D83" s="7">
         <v>10.611599999999999</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="32">
         <v>28.28</v>
       </c>
       <c r="T83" t="s">
@@ -8327,7 +8327,7 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A84" s="17">
+      <c r="A84" s="16">
         <v>37530</v>
       </c>
       <c r="B84" s="3">
@@ -8339,7 +8339,7 @@
       <c r="D84" s="7">
         <v>10.333500000000001</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="32">
         <v>27.53</v>
       </c>
       <c r="T84" t="s">
@@ -8350,7 +8350,7 @@
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85" s="17">
+      <c r="A85" s="16">
         <v>37561</v>
       </c>
       <c r="B85" s="3">
@@ -8362,7 +8362,7 @@
       <c r="D85" s="7">
         <v>9.6580999999999992</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="32">
         <v>24.79</v>
       </c>
       <c r="T85" t="s">
@@ -8373,7 +8373,7 @@
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A86" s="17">
+      <c r="A86" s="16">
         <v>37591</v>
       </c>
       <c r="B86" s="3">
@@ -8385,7 +8385,7 @@
       <c r="D86" s="7">
         <v>8.9741</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="32">
         <v>27.89</v>
       </c>
       <c r="T86" t="s">
@@ -8396,7 +8396,7 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87" s="18">
+      <c r="A87" s="17">
         <v>37622</v>
       </c>
       <c r="B87" s="3">
@@ -8408,7 +8408,7 @@
       <c r="D87" s="8">
         <v>8.6913999999999998</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="32">
         <v>30.77</v>
       </c>
       <c r="T87" t="s">
@@ -8419,7 +8419,7 @@
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <v>37653</v>
       </c>
       <c r="B88" s="3">
@@ -8431,7 +8431,7 @@
       <c r="D88" s="7">
         <v>8.3265999999999991</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="32">
         <v>32.880000000000003</v>
       </c>
       <c r="T88" t="s">
@@ -8442,7 +8442,7 @@
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A89" s="17">
+      <c r="A89" s="16">
         <v>37681</v>
       </c>
       <c r="B89" s="3">
@@ -8454,7 +8454,7 @@
       <c r="D89" s="7">
         <v>8.0680999999999994</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="32">
         <v>30.36</v>
       </c>
       <c r="T89" t="s">
@@ -8465,7 +8465,7 @@
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A90" s="17">
+      <c r="A90" s="16">
         <v>37712</v>
       </c>
       <c r="B90" s="3">
@@ -8477,7 +8477,7 @@
       <c r="D90" s="7">
         <v>7.7380000000000004</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="32">
         <v>25.49</v>
       </c>
       <c r="T90" t="s">
@@ -8488,7 +8488,7 @@
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A91" s="17">
+      <c r="A91" s="16">
         <v>37742</v>
       </c>
       <c r="B91" s="3">
@@ -8500,7 +8500,7 @@
       <c r="D91" s="7">
         <v>7.7009999999999996</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="32">
         <v>26.06</v>
       </c>
       <c r="T91" t="s">
@@ -8511,7 +8511,7 @@
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A92" s="17">
+      <c r="A92" s="16">
         <v>37773</v>
       </c>
       <c r="B92" s="3">
@@ -8523,7 +8523,7 @@
       <c r="D92" s="7">
         <v>7.9340999999999999</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="32">
         <v>27.91</v>
       </c>
       <c r="T92" t="s">
@@ -8534,7 +8534,7 @@
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A93" s="17">
+      <c r="A93" s="16">
         <v>37803</v>
       </c>
       <c r="B93" s="3">
@@ -8546,7 +8546,7 @@
       <c r="D93" s="7">
         <v>7.5724</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="32">
         <v>28.59</v>
       </c>
       <c r="T93" t="s">
@@ -8557,7 +8557,7 @@
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A94" s="17">
+      <c r="A94" s="16">
         <v>37834</v>
       </c>
       <c r="B94" s="3">
@@ -8569,7 +8569,7 @@
       <c r="D94" s="7">
         <v>7.4169</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="32">
         <v>29.68</v>
       </c>
       <c r="T94" t="s">
@@ -8580,7 +8580,7 @@
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A95" s="17">
+      <c r="A95" s="16">
         <v>37865</v>
       </c>
       <c r="B95" s="3">
@@ -8592,7 +8592,7 @@
       <c r="D95" s="7">
         <v>7.3509000000000002</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="32">
         <v>26.88</v>
       </c>
       <c r="T95" t="s">
@@ -8603,7 +8603,7 @@
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A96" s="17">
+      <c r="A96" s="16">
         <v>37895</v>
       </c>
       <c r="B96" s="3">
@@ -8615,7 +8615,7 @@
       <c r="D96" s="7">
         <v>6.9919000000000002</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="32">
         <v>29.01</v>
       </c>
       <c r="T96" t="s">
@@ -8626,7 +8626,7 @@
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A97" s="17">
+      <c r="A97" s="16">
         <v>37926</v>
       </c>
       <c r="B97" s="3">
@@ -8638,7 +8638,7 @@
       <c r="D97" s="7">
         <v>6.7615999999999996</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="32">
         <v>29.12</v>
       </c>
       <c r="T97" t="s">
@@ -8649,7 +8649,7 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="17">
+      <c r="A98" s="16">
         <v>37956</v>
       </c>
       <c r="B98" s="3">
@@ -8661,7 +8661,7 @@
       <c r="D98" s="7">
         <v>6.5415000000000001</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="32">
         <v>29.95</v>
       </c>
       <c r="T98" t="s">
@@ -8672,7 +8672,7 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="17">
+      <c r="A99" s="16">
         <v>37987</v>
       </c>
       <c r="B99" s="3">
@@ -8684,7 +8684,7 @@
       <c r="D99" s="7">
         <v>6.9733999999999998</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="32">
         <v>31.4</v>
       </c>
       <c r="T99" t="s">
@@ -8695,7 +8695,7 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="17">
+      <c r="A100" s="16">
         <v>38018</v>
       </c>
       <c r="B100" s="3">
@@ -8707,7 +8707,7 @@
       <c r="D100" s="7">
         <v>6.7911000000000001</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="32">
         <v>31.32</v>
       </c>
       <c r="T100" t="s">
@@ -8718,7 +8718,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="17">
+      <c r="A101" s="16">
         <v>38047</v>
       </c>
       <c r="B101" s="3">
@@ -8730,7 +8730,7 @@
       <c r="D101" s="7">
         <v>6.6553000000000004</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="32">
         <v>33.67</v>
       </c>
       <c r="T101" t="s">
@@ -8741,7 +8741,7 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="17">
+      <c r="A102" s="16">
         <v>38078</v>
       </c>
       <c r="B102" s="3">
@@ -8753,7 +8753,7 @@
       <c r="D102" s="7">
         <v>6.5616000000000003</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="32">
         <v>33.71</v>
       </c>
       <c r="T102" t="s">
@@ -8764,7 +8764,7 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="17">
+      <c r="A103" s="16">
         <v>38108</v>
       </c>
       <c r="B103" s="3">
@@ -8776,7 +8776,7 @@
       <c r="D103" s="7">
         <v>6.8095999999999997</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="32">
         <v>37.630000000000003</v>
       </c>
       <c r="T103" t="s">
@@ -8787,7 +8787,7 @@
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="17">
+      <c r="A104" s="16">
         <v>38139</v>
       </c>
       <c r="B104" s="3">
@@ -8799,7 +8799,7 @@
       <c r="D104" s="7">
         <v>6.4664999999999999</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="32">
         <v>35.54</v>
       </c>
       <c r="T104" t="s">
@@ -8810,7 +8810,7 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="17">
+      <c r="A105" s="16">
         <v>38169</v>
       </c>
       <c r="B105" s="3">
@@ -8822,7 +8822,7 @@
       <c r="D105" s="7">
         <v>6.1573000000000002</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="32">
         <v>37.93</v>
       </c>
       <c r="T105" t="s">
@@ -8833,7 +8833,7 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="17">
+      <c r="A106" s="16">
         <v>38200</v>
       </c>
       <c r="B106" s="3">
@@ -8845,7 +8845,7 @@
       <c r="D106" s="7">
         <v>6.4760999999999997</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="32">
         <v>42.08</v>
       </c>
       <c r="T106" t="s">
@@ -8856,7 +8856,7 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="17">
+      <c r="A107" s="16">
         <v>38231</v>
       </c>
       <c r="B107" s="3">
@@ -8868,7 +8868,7 @@
       <c r="D107" s="7">
         <v>6.5682999999999998</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="32">
         <v>41.65</v>
       </c>
       <c r="T107" t="s">
@@ -8879,7 +8879,7 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="17">
+      <c r="A108" s="16">
         <v>38261</v>
       </c>
       <c r="B108" s="3">
@@ -8891,7 +8891,7 @@
       <c r="D108" s="7">
         <v>6.4151999999999996</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="32">
         <v>46.87</v>
       </c>
       <c r="T108" t="s">
@@ -8902,7 +8902,7 @@
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A109" s="17">
+      <c r="A109" s="16">
         <v>38292</v>
       </c>
       <c r="B109" s="3">
@@ -8914,7 +8914,7 @@
       <c r="D109" s="7">
         <v>6.0789999999999997</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="32">
         <v>42.23</v>
       </c>
       <c r="T109" t="s">
@@ -8925,7 +8925,7 @@
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="17">
+      <c r="A110" s="16">
         <v>38322</v>
       </c>
       <c r="B110" s="3">
@@ -8937,7 +8937,7 @@
       <c r="D110" s="7">
         <v>5.7510000000000003</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="32">
         <v>39.090000000000003</v>
       </c>
       <c r="T110" t="s">
@@ -8948,7 +8948,7 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="17">
+      <c r="A111" s="16">
         <v>38353</v>
       </c>
       <c r="B111" s="3">
@@ -8960,7 +8960,7 @@
       <c r="D111" s="7">
         <v>5.9923000000000002</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="32">
         <v>42.89</v>
       </c>
       <c r="T111" t="s">
@@ -8971,7 +8971,7 @@
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="17">
+      <c r="A112" s="16">
         <v>38384</v>
       </c>
       <c r="B112" s="3">
@@ -8983,7 +8983,7 @@
       <c r="D112" s="7">
         <v>6.0368000000000004</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="32">
         <v>44.56</v>
       </c>
       <c r="T112" t="s">
@@ -8994,7 +8994,7 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="17">
+      <c r="A113" s="16">
         <v>38412</v>
       </c>
       <c r="B113" s="3">
@@ -9006,7 +9006,7 @@
       <c r="D113" s="7">
         <v>6.0368000000000004</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="32">
         <v>50.93</v>
       </c>
       <c r="T113" t="s">
@@ -9017,7 +9017,7 @@
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="17">
+      <c r="A114" s="16">
         <v>38443</v>
       </c>
       <c r="B114" s="3">
@@ -9029,7 +9029,7 @@
       <c r="D114" s="7">
         <v>6.0442</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="32">
         <v>50.64</v>
       </c>
       <c r="T114" t="s">
@@ -9040,7 +9040,7 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="17">
+      <c r="A115" s="16">
         <v>38473</v>
       </c>
       <c r="B115" s="3">
@@ -9052,7 +9052,7 @@
       <c r="D115" s="7">
         <v>6.1784999999999997</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="32">
         <v>47.81</v>
       </c>
       <c r="T115" t="s">
@@ -9063,7 +9063,7 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="17">
+      <c r="A116" s="16">
         <v>38504</v>
       </c>
       <c r="B116" s="3">
@@ -9075,7 +9075,7 @@
       <c r="D116" s="7">
         <v>6.2792000000000003</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="32">
         <v>53.89</v>
       </c>
       <c r="T116" t="s">
@@ -9086,7 +9086,7 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="17">
+      <c r="A117" s="16">
         <v>38534</v>
       </c>
       <c r="B117" s="3">
@@ -9098,7 +9098,7 @@
       <c r="D117" s="7">
         <v>6.7666000000000004</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="32">
         <v>56.37</v>
       </c>
       <c r="T117" t="s">
@@ -9109,7 +9109,7 @@
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="17">
+      <c r="A118" s="16">
         <v>38565</v>
       </c>
       <c r="B118" s="3">
@@ -9121,7 +9121,7 @@
       <c r="D118" s="7">
         <v>6.7262000000000004</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="32">
         <v>61.87</v>
       </c>
       <c r="T118" t="s">
@@ -9132,7 +9132,7 @@
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A119" s="17">
+      <c r="A119" s="16">
         <v>38596</v>
       </c>
       <c r="B119" s="3">
@@ -9144,7 +9144,7 @@
       <c r="D119" s="7">
         <v>6.4897</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="32">
         <v>61.65</v>
       </c>
       <c r="T119" t="s">
@@ -9155,7 +9155,7 @@
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="17">
+      <c r="A120" s="16">
         <v>38626</v>
       </c>
       <c r="B120" s="3">
@@ -9167,7 +9167,7 @@
       <c r="D120" s="7">
         <v>6.3785999999999996</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="32">
         <v>58.19</v>
       </c>
       <c r="T120" t="s">
@@ -9178,7 +9178,7 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="17">
+      <c r="A121" s="16">
         <v>38657</v>
       </c>
       <c r="B121" s="3">
@@ -9190,7 +9190,7 @@
       <c r="D121" s="7">
         <v>6.5734000000000004</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="32">
         <v>54.98</v>
       </c>
       <c r="T121" t="s">
@@ -9201,7 +9201,7 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="17">
+      <c r="A122" s="16">
         <v>38687</v>
       </c>
       <c r="B122" s="3">
@@ -9213,7 +9213,7 @@
       <c r="D122" s="7">
         <v>6.6750999999999996</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="32">
         <v>56.47</v>
       </c>
       <c r="T122" t="s">
@@ -9224,7 +9224,7 @@
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="17">
+      <c r="A123" s="16">
         <v>38718</v>
       </c>
       <c r="B123" s="3">
@@ -9247,7 +9247,7 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A124" s="17">
+      <c r="A124" s="16">
         <v>38749</v>
       </c>
       <c r="B124" s="3">
@@ -9270,7 +9270,7 @@
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="17">
+      <c r="A125" s="16">
         <v>38777</v>
       </c>
       <c r="B125" s="3">
@@ -9293,7 +9293,7 @@
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="17">
+      <c r="A126" s="16">
         <v>38808</v>
       </c>
       <c r="B126" s="3">
@@ -9316,7 +9316,7 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="17">
+      <c r="A127" s="16">
         <v>38838</v>
       </c>
       <c r="B127" s="3">
@@ -9339,7 +9339,7 @@
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="17">
+      <c r="A128" s="16">
         <v>38869</v>
       </c>
       <c r="B128" s="3">
@@ -9362,7 +9362,7 @@
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A129" s="17">
+      <c r="A129" s="16">
         <v>38899</v>
       </c>
       <c r="B129" s="3">
@@ -9385,7 +9385,7 @@
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A130" s="17">
+      <c r="A130" s="16">
         <v>38930</v>
       </c>
       <c r="B130" s="3">
@@ -9408,7 +9408,7 @@
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A131" s="17">
+      <c r="A131" s="16">
         <v>38961</v>
       </c>
       <c r="B131" s="3">
@@ -9431,7 +9431,7 @@
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A132" s="17">
+      <c r="A132" s="16">
         <v>38991</v>
       </c>
       <c r="B132" s="3">
@@ -9454,7 +9454,7 @@
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A133" s="17">
+      <c r="A133" s="16">
         <v>39022</v>
       </c>
       <c r="B133" s="3">
@@ -9477,19 +9477,19 @@
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A134" s="19">
+      <c r="A134" s="18">
         <v>39052</v>
       </c>
-      <c r="B134" s="14">
+      <c r="B134" s="13">
         <v>566</v>
       </c>
-      <c r="C134" s="15">
+      <c r="C134" s="14">
         <v>311.41300000000001</v>
       </c>
-      <c r="D134" s="16">
+      <c r="D134" s="15">
         <v>7.0224000000000002</v>
       </c>
-      <c r="E134" s="15">
+      <c r="E134" s="14">
         <v>58.32</v>
       </c>
       <c r="T134" t="s">
@@ -9500,7 +9500,7 @@
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A135" s="17">
+      <c r="A135" s="16">
         <v>39083</v>
       </c>
       <c r="B135" s="3">
@@ -9523,7 +9523,7 @@
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A136" s="17">
+      <c r="A136" s="16">
         <v>39114</v>
       </c>
       <c r="B136" s="3">
@@ -9546,7 +9546,7 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A137" s="17">
+      <c r="A137" s="16">
         <v>39142</v>
       </c>
       <c r="B137" s="3">
@@ -9569,7 +9569,7 @@
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A138" s="17">
+      <c r="A138" s="16">
         <v>39173</v>
       </c>
       <c r="B138" s="3">
@@ -9592,7 +9592,7 @@
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A139" s="17">
+      <c r="A139" s="16">
         <v>39203</v>
       </c>
       <c r="B139" s="3">
@@ -9615,7 +9615,7 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A140" s="17">
+      <c r="A140" s="16">
         <v>39234</v>
       </c>
       <c r="B140" s="3">
@@ -9638,7 +9638,7 @@
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A141" s="17">
+      <c r="A141" s="16">
         <v>39264</v>
       </c>
       <c r="B141" s="3">
@@ -9661,7 +9661,7 @@
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A142" s="17">
+      <c r="A142" s="16">
         <v>39295</v>
       </c>
       <c r="B142" s="3">
@@ -9684,7 +9684,7 @@
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A143" s="17">
+      <c r="A143" s="16">
         <v>39326</v>
       </c>
       <c r="B143" s="3">
@@ -9707,7 +9707,7 @@
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A144" s="17">
+      <c r="A144" s="16">
         <v>39356</v>
       </c>
       <c r="B144" s="3">
@@ -9730,7 +9730,7 @@
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A145" s="17">
+      <c r="A145" s="16">
         <v>39387</v>
       </c>
       <c r="B145" s="3">
@@ -9753,7 +9753,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A146" s="17">
+      <c r="A146" s="16">
         <v>39417</v>
       </c>
       <c r="B146" s="3">
@@ -9776,7 +9776,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A147" s="17">
+      <c r="A147" s="16">
         <v>39448</v>
       </c>
       <c r="B147" s="3">
@@ -9799,7 +9799,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A148" s="17">
+      <c r="A148" s="16">
         <v>39479</v>
       </c>
       <c r="B148" s="3">
@@ -9822,7 +9822,7 @@
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A149" s="17">
+      <c r="A149" s="16">
         <v>39508</v>
       </c>
       <c r="B149" s="3">
@@ -9845,7 +9845,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A150" s="17">
+      <c r="A150" s="16">
         <v>39539</v>
       </c>
       <c r="B150" s="3">
@@ -9868,7 +9868,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A151" s="17">
+      <c r="A151" s="16">
         <v>39569</v>
       </c>
       <c r="B151" s="3">
@@ -9891,7 +9891,7 @@
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A152" s="17">
+      <c r="A152" s="16">
         <v>39600</v>
       </c>
       <c r="B152" s="3">
@@ -9914,7 +9914,7 @@
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A153" s="17">
+      <c r="A153" s="16">
         <v>39630</v>
       </c>
       <c r="B153" s="3">
@@ -9937,7 +9937,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A154" s="17">
+      <c r="A154" s="16">
         <v>39661</v>
       </c>
       <c r="B154" s="3">
@@ -9960,7 +9960,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A155" s="17">
+      <c r="A155" s="16">
         <v>39692</v>
       </c>
       <c r="B155" s="3">
@@ -9983,7 +9983,7 @@
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A156" s="17">
+      <c r="A156" s="16">
         <v>39722</v>
       </c>
       <c r="B156" s="3">
@@ -10006,7 +10006,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A157" s="17">
+      <c r="A157" s="16">
         <v>39753</v>
       </c>
       <c r="B157" s="3">
@@ -10029,19 +10029,19 @@
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A158" s="19">
+      <c r="A158" s="18">
         <v>39783</v>
       </c>
-      <c r="B158" s="14">
+      <c r="B158" s="13">
         <v>711</v>
       </c>
-      <c r="C158" s="16">
+      <c r="C158" s="15">
         <v>364.81299999999999</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="14">
         <v>10.1823</v>
       </c>
-      <c r="E158" s="15">
+      <c r="E158" s="14">
         <v>53.11</v>
       </c>
       <c r="T158" t="s">
@@ -10052,7 +10052,7 @@
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A159" s="17">
+      <c r="A159" s="16">
         <v>39814</v>
       </c>
       <c r="B159" s="3">
@@ -10075,7 +10075,7 @@
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A160" s="17">
+      <c r="A160" s="16">
         <v>39845</v>
       </c>
       <c r="B160" s="10">
@@ -10098,7 +10098,7 @@
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A161" s="17">
+      <c r="A161" s="16">
         <v>39873</v>
       </c>
       <c r="B161" s="10">
@@ -10121,7 +10121,7 @@
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A162" s="17">
+      <c r="A162" s="16">
         <v>39904</v>
       </c>
       <c r="B162" s="10">
@@ -10144,7 +10144,7 @@
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A163" s="17">
+      <c r="A163" s="16">
         <v>39934</v>
       </c>
       <c r="B163" s="10">
@@ -10167,7 +10167,7 @@
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A164" s="17">
+      <c r="A164" s="16">
         <v>39965</v>
       </c>
       <c r="B164" s="10">
@@ -10190,7 +10190,7 @@
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A165" s="17">
+      <c r="A165" s="16">
         <v>39995</v>
       </c>
       <c r="B165" s="10">
@@ -10213,7 +10213,7 @@
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A166" s="17">
+      <c r="A166" s="16">
         <v>40026</v>
       </c>
       <c r="B166" s="10">
@@ -10236,7 +10236,7 @@
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A167" s="17">
+      <c r="A167" s="16">
         <v>40057</v>
       </c>
       <c r="B167" s="10">
@@ -10259,7 +10259,7 @@
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A168" s="17">
+      <c r="A168" s="16">
         <v>40087</v>
       </c>
       <c r="B168" s="10">
@@ -10282,7 +10282,7 @@
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A169" s="17">
+      <c r="A169" s="16">
         <v>40118</v>
       </c>
       <c r="B169" s="10">
@@ -10305,7 +10305,7 @@
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A170" s="17">
+      <c r="A170" s="16">
         <v>40148</v>
       </c>
       <c r="B170" s="10">
@@ -10328,7 +10328,7 @@
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A171" s="17">
+      <c r="A171" s="16">
         <v>40179</v>
       </c>
       <c r="B171" s="3">
@@ -10351,7 +10351,7 @@
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A172" s="17">
+      <c r="A172" s="16">
         <v>40210</v>
       </c>
       <c r="B172" s="3">
@@ -10374,7 +10374,7 @@
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A173" s="17">
+      <c r="A173" s="16">
         <v>40238</v>
       </c>
       <c r="B173" s="3">
@@ -10397,7 +10397,7 @@
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A174" s="17">
+      <c r="A174" s="16">
         <v>40269</v>
       </c>
       <c r="B174" s="3">
@@ -10420,7 +10420,7 @@
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A175" s="17">
+      <c r="A175" s="16">
         <v>40299</v>
       </c>
       <c r="B175" s="3">
@@ -10443,7 +10443,7 @@
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A176" s="17">
+      <c r="A176" s="16">
         <v>40330</v>
       </c>
       <c r="B176" s="3">
@@ -10466,7 +10466,7 @@
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A177" s="17">
+      <c r="A177" s="16">
         <v>40360</v>
       </c>
       <c r="B177" s="3">
@@ -10489,7 +10489,7 @@
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A178" s="17">
+      <c r="A178" s="16">
         <v>40391</v>
       </c>
       <c r="B178" s="3">
@@ -10512,7 +10512,7 @@
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A179" s="17">
+      <c r="A179" s="16">
         <v>40422</v>
       </c>
       <c r="B179" s="3">
@@ -10535,7 +10535,7 @@
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A180" s="17">
+      <c r="A180" s="16">
         <v>40452</v>
       </c>
       <c r="B180" s="3">
@@ -10558,7 +10558,7 @@
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A181" s="17">
+      <c r="A181" s="16">
         <v>40483</v>
       </c>
       <c r="B181" s="3">
@@ -10581,7 +10581,7 @@
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A182" s="17">
+      <c r="A182" s="16">
         <v>40513</v>
       </c>
       <c r="B182" s="3">
@@ -10604,7 +10604,7 @@
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A183" s="17">
+      <c r="A183" s="16">
         <v>40544</v>
       </c>
       <c r="B183" s="3">
@@ -10627,7 +10627,7 @@
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A184" s="17">
+      <c r="A184" s="16">
         <v>40575</v>
       </c>
       <c r="B184" s="3">
@@ -10650,7 +10650,7 @@
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A185" s="17">
+      <c r="A185" s="16">
         <v>40603</v>
       </c>
       <c r="B185" s="3">
@@ -10673,7 +10673,7 @@
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A186" s="17">
+      <c r="A186" s="16">
         <v>40634</v>
       </c>
       <c r="B186" s="3">
@@ -10696,7 +10696,7 @@
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A187" s="17">
+      <c r="A187" s="16">
         <v>40664</v>
       </c>
       <c r="B187" s="3">
@@ -10719,7 +10719,7 @@
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A188" s="17">
+      <c r="A188" s="16">
         <v>40695</v>
       </c>
       <c r="B188" s="3">
@@ -10742,7 +10742,7 @@
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A189" s="17">
+      <c r="A189" s="16">
         <v>40725</v>
       </c>
       <c r="B189" s="3">
@@ -10765,7 +10765,7 @@
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A190" s="17">
+      <c r="A190" s="16">
         <v>40756</v>
       </c>
       <c r="B190" s="3">
@@ -10788,7 +10788,7 @@
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A191" s="17">
+      <c r="A191" s="16">
         <v>40787</v>
       </c>
       <c r="B191" s="3">
@@ -10811,7 +10811,7 @@
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A192" s="17">
+      <c r="A192" s="16">
         <v>40817</v>
       </c>
       <c r="B192" s="3">
@@ -10834,7 +10834,7 @@
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A193" s="17">
+      <c r="A193" s="16">
         <v>40848</v>
       </c>
       <c r="B193" s="3">
@@ -10857,7 +10857,7 @@
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A194" s="17">
+      <c r="A194" s="16">
         <v>40878</v>
       </c>
       <c r="B194" s="3">
@@ -10880,7 +10880,7 @@
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A195" s="17">
+      <c r="A195" s="16">
         <v>40909</v>
       </c>
       <c r="B195" s="3">
@@ -10903,7 +10903,7 @@
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A196" s="17">
+      <c r="A196" s="16">
         <v>40940</v>
       </c>
       <c r="B196" s="12">
@@ -10926,7 +10926,7 @@
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A197" s="17">
+      <c r="A197" s="16">
         <v>40969</v>
       </c>
       <c r="B197" s="3">
@@ -10949,7 +10949,7 @@
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A198" s="17">
+      <c r="A198" s="16">
         <v>41000</v>
       </c>
       <c r="B198" s="3">
@@ -10972,7 +10972,7 @@
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A199" s="17">
+      <c r="A199" s="16">
         <v>41030</v>
       </c>
       <c r="B199" s="3">
@@ -10995,7 +10995,7 @@
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A200" s="17">
+      <c r="A200" s="16">
         <v>41061</v>
       </c>
       <c r="B200" s="3">
@@ -11018,7 +11018,7 @@
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A201" s="17">
+      <c r="A201" s="16">
         <v>41091</v>
       </c>
       <c r="B201" s="3">
@@ -11041,7 +11041,7 @@
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A202" s="17">
+      <c r="A202" s="16">
         <v>41122</v>
       </c>
       <c r="B202" s="3">
@@ -11064,7 +11064,7 @@
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A203" s="17">
+      <c r="A203" s="16">
         <v>41153</v>
       </c>
       <c r="B203" s="3">
@@ -11087,7 +11087,7 @@
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A204" s="17">
+      <c r="A204" s="16">
         <v>41183</v>
       </c>
       <c r="B204" s="3">
@@ -11110,7 +11110,7 @@
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A205" s="17">
+      <c r="A205" s="16">
         <v>41214</v>
       </c>
       <c r="B205" s="3">
@@ -11133,7 +11133,7 @@
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A206" s="17">
+      <c r="A206" s="16">
         <v>41244</v>
       </c>
       <c r="B206" s="3">
@@ -11156,7 +11156,7 @@
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A207" s="17">
+      <c r="A207" s="16">
         <v>41275</v>
       </c>
       <c r="B207" s="3">
@@ -11179,7 +11179,7 @@
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A208" s="17">
+      <c r="A208" s="16">
         <v>41306</v>
       </c>
       <c r="B208" s="3">
@@ -11202,7 +11202,7 @@
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A209" s="17">
+      <c r="A209" s="16">
         <v>41334</v>
       </c>
       <c r="B209" s="3">
@@ -11225,7 +11225,7 @@
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A210" s="17">
+      <c r="A210" s="16">
         <v>41365</v>
       </c>
       <c r="B210" s="3">
@@ -11248,7 +11248,7 @@
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A211" s="17">
+      <c r="A211" s="16">
         <v>41395</v>
       </c>
       <c r="B211" s="3">
@@ -11271,7 +11271,7 @@
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A212" s="17">
+      <c r="A212" s="16">
         <v>41426</v>
       </c>
       <c r="B212" s="3">
@@ -11294,7 +11294,7 @@
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A213" s="17">
+      <c r="A213" s="16">
         <v>41456</v>
       </c>
       <c r="B213" s="3">
@@ -11317,7 +11317,7 @@
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A214" s="17">
+      <c r="A214" s="16">
         <v>41487</v>
       </c>
       <c r="B214" s="3">
@@ -11340,7 +11340,7 @@
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A215" s="17">
+      <c r="A215" s="16">
         <v>41518</v>
       </c>
       <c r="B215" s="3">
@@ -11363,7 +11363,7 @@
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A216" s="17">
+      <c r="A216" s="16">
         <v>41548</v>
       </c>
       <c r="B216" s="1">
@@ -11372,7 +11372,7 @@
       <c r="C216" s="2">
         <v>772.09</v>
       </c>
-      <c r="D216" s="13">
+      <c r="D216" s="20">
         <v>10.002700000000001</v>
       </c>
       <c r="E216" s="2">
@@ -11386,7 +11386,7 @@
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A217" s="17">
+      <c r="A217" s="16">
         <v>41579</v>
       </c>
       <c r="B217" s="1">
@@ -11409,7 +11409,7 @@
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A218" s="17">
+      <c r="A218" s="16">
         <v>41609</v>
       </c>
       <c r="B218" s="1">
@@ -11432,13 +11432,13 @@
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A219" s="17">
+      <c r="A219" s="16">
         <v>41640</v>
       </c>
       <c r="B219" s="1">
         <v>1320</v>
       </c>
-      <c r="C219" s="13">
+      <c r="C219" s="20">
         <v>792.19</v>
       </c>
       <c r="D219" s="2">
@@ -11447,6 +11447,42 @@
       <c r="E219" s="2">
         <v>110.73</v>
       </c>
+      <c r="F219">
+        <v>792.19</v>
+      </c>
+      <c r="G219">
+        <v>212.5</v>
+      </c>
+      <c r="H219">
+        <v>4</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>96</v>
+      </c>
+      <c r="K219">
+        <v>28.9</v>
+      </c>
+      <c r="L219">
+        <v>0.15</v>
+      </c>
+      <c r="M219">
+        <v>31</v>
+      </c>
+      <c r="P219">
+        <v>139.1</v>
+      </c>
+      <c r="Q219">
+        <v>10.96</v>
+      </c>
+      <c r="R219">
+        <v>28.8</v>
+      </c>
+      <c r="S219">
+        <v>10</v>
+      </c>
       <c r="T219" t="s">
         <v>18</v>
       </c>
@@ -11455,7 +11491,7 @@
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A220" s="17">
+      <c r="A220" s="16">
         <v>41671</v>
       </c>
       <c r="B220" s="1">
@@ -11470,6 +11506,42 @@
       <c r="E220" s="2">
         <v>108.35</v>
       </c>
+      <c r="F220">
+        <v>828.99</v>
+      </c>
+      <c r="G220">
+        <v>212.5</v>
+      </c>
+      <c r="H220">
+        <v>4</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>96</v>
+      </c>
+      <c r="K220">
+        <v>28.9</v>
+      </c>
+      <c r="L220">
+        <v>0.15</v>
+      </c>
+      <c r="M220">
+        <v>31</v>
+      </c>
+      <c r="P220">
+        <v>139.1</v>
+      </c>
+      <c r="Q220">
+        <v>13.16</v>
+      </c>
+      <c r="R220">
+        <v>28.8</v>
+      </c>
+      <c r="S220">
+        <v>10</v>
+      </c>
       <c r="T220" t="s">
         <v>18</v>
       </c>
@@ -11478,7 +11550,7 @@
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A221" s="17">
+      <c r="A221" s="16">
         <v>41699</v>
       </c>
       <c r="B221" s="1">
@@ -11493,6 +11565,42 @@
       <c r="E221" s="2">
         <v>108.87</v>
       </c>
+      <c r="F221">
+        <v>862.79</v>
+      </c>
+      <c r="G221">
+        <v>212.5</v>
+      </c>
+      <c r="H221">
+        <v>4</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>96</v>
+      </c>
+      <c r="K221">
+        <v>28.9</v>
+      </c>
+      <c r="L221">
+        <v>0.15</v>
+      </c>
+      <c r="M221">
+        <v>31</v>
+      </c>
+      <c r="P221">
+        <v>139.1</v>
+      </c>
+      <c r="Q221">
+        <v>15.36</v>
+      </c>
+      <c r="R221">
+        <v>28.8</v>
+      </c>
+      <c r="S221">
+        <v>10</v>
+      </c>
       <c r="T221" t="s">
         <v>18</v>
       </c>
@@ -11501,7 +11609,7 @@
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A222" s="17">
+      <c r="A222" s="16">
         <v>41730</v>
       </c>
       <c r="B222" s="1">
@@ -11516,6 +11624,42 @@
       <c r="E222" s="2">
         <v>107.67</v>
       </c>
+      <c r="F222">
+        <v>848.59</v>
+      </c>
+      <c r="G222">
+        <v>224.5</v>
+      </c>
+      <c r="H222">
+        <v>4</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>104</v>
+      </c>
+      <c r="K222">
+        <v>28.9</v>
+      </c>
+      <c r="L222">
+        <v>0.15</v>
+      </c>
+      <c r="M222">
+        <v>31</v>
+      </c>
+      <c r="P222">
+        <v>139.1</v>
+      </c>
+      <c r="Q222">
+        <v>15.36</v>
+      </c>
+      <c r="R222">
+        <v>33.1</v>
+      </c>
+      <c r="S222">
+        <v>10</v>
+      </c>
       <c r="T222" t="s">
         <v>18</v>
       </c>
@@ -11524,7 +11668,7 @@
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A223" s="17">
+      <c r="A223" s="16">
         <v>41760</v>
       </c>
       <c r="B223" s="1">
@@ -11539,6 +11683,42 @@
       <c r="E223" s="2">
         <v>108.31</v>
       </c>
+      <c r="F223">
+        <v>842.37</v>
+      </c>
+      <c r="G223">
+        <v>224.5</v>
+      </c>
+      <c r="H223">
+        <v>4</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>104</v>
+      </c>
+      <c r="K223">
+        <v>28.9</v>
+      </c>
+      <c r="L223">
+        <v>0.15</v>
+      </c>
+      <c r="M223">
+        <v>31</v>
+      </c>
+      <c r="P223">
+        <v>139.1</v>
+      </c>
+      <c r="Q223">
+        <v>6.58</v>
+      </c>
+      <c r="R223">
+        <v>33.1</v>
+      </c>
+      <c r="S223">
+        <v>10</v>
+      </c>
       <c r="T223" t="s">
         <v>18</v>
       </c>
@@ -11547,10 +11727,10 @@
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A224" s="17">
+      <c r="A224" s="16">
         <v>41791</v>
       </c>
-      <c r="B224" s="13">
+      <c r="B224" s="19">
         <v>1361</v>
       </c>
       <c r="C224" s="2">
@@ -11562,6 +11742,42 @@
       <c r="E224" s="2">
         <v>109.69</v>
       </c>
+      <c r="F224">
+        <v>826.95</v>
+      </c>
+      <c r="G224">
+        <v>224.5</v>
+      </c>
+      <c r="H224">
+        <v>4</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>104</v>
+      </c>
+      <c r="K224">
+        <v>28.9</v>
+      </c>
+      <c r="L224">
+        <v>0.15</v>
+      </c>
+      <c r="M224">
+        <v>31</v>
+      </c>
+      <c r="P224">
+        <v>139.1</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>33.1</v>
+      </c>
+      <c r="S224">
+        <v>10</v>
+      </c>
       <c r="T224" t="s">
         <v>18</v>
       </c>
@@ -11570,7 +11786,7 @@
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A225" s="17">
+      <c r="A225" s="16">
         <v>41821</v>
       </c>
       <c r="B225" s="1">
@@ -11585,6 +11801,42 @@
       <c r="E225" s="2">
         <v>111.62</v>
       </c>
+      <c r="F225">
+        <v>857.95</v>
+      </c>
+      <c r="G225">
+        <v>224.5</v>
+      </c>
+      <c r="H225">
+        <v>4</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>104</v>
+      </c>
+      <c r="K225">
+        <v>28.9</v>
+      </c>
+      <c r="L225">
+        <v>0.15</v>
+      </c>
+      <c r="M225">
+        <v>31</v>
+      </c>
+      <c r="P225">
+        <v>139.1</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>33.1</v>
+      </c>
+      <c r="S225">
+        <v>10</v>
+      </c>
       <c r="T225" t="s">
         <v>18</v>
       </c>
@@ -11593,7 +11845,7 @@
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A226" s="17">
+      <c r="A226" s="16">
         <v>41852</v>
       </c>
       <c r="B226" s="1">
@@ -11608,6 +11860,42 @@
       <c r="E226" s="2">
         <v>106.64</v>
       </c>
+      <c r="F226">
+        <v>853.57</v>
+      </c>
+      <c r="G226">
+        <v>224.5</v>
+      </c>
+      <c r="H226">
+        <v>4</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>104</v>
+      </c>
+      <c r="K226">
+        <v>28.9</v>
+      </c>
+      <c r="L226">
+        <v>0.15</v>
+      </c>
+      <c r="M226">
+        <v>31</v>
+      </c>
+      <c r="P226">
+        <v>139.1</v>
+      </c>
+      <c r="Q226">
+        <v>4.38</v>
+      </c>
+      <c r="R226">
+        <v>33.1</v>
+      </c>
+      <c r="S226">
+        <v>10</v>
+      </c>
       <c r="T226" t="s">
         <v>18</v>
       </c>
@@ -11616,7 +11904,7 @@
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A227" s="17">
+      <c r="A227" s="16">
         <v>41883</v>
       </c>
       <c r="B227" s="1">
@@ -11631,6 +11919,42 @@
       <c r="E227" s="2">
         <v>101.57</v>
       </c>
+      <c r="F227">
+        <v>786.75</v>
+      </c>
+      <c r="G227">
+        <v>224.5</v>
+      </c>
+      <c r="H227">
+        <v>4</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>104</v>
+      </c>
+      <c r="K227">
+        <v>28.9</v>
+      </c>
+      <c r="L227">
+        <v>0.15</v>
+      </c>
+      <c r="M227">
+        <v>31</v>
+      </c>
+      <c r="P227">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>33.1</v>
+      </c>
+      <c r="S227">
+        <v>10</v>
+      </c>
       <c r="T227" t="s">
         <v>18</v>
       </c>
@@ -11639,7 +11963,7 @@
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A228" s="17">
+      <c r="A228" s="16">
         <v>41913</v>
       </c>
       <c r="B228" s="1">
@@ -11654,6 +11978,42 @@
       <c r="E228" s="2">
         <v>97.73</v>
       </c>
+      <c r="F228">
+        <v>781.75</v>
+      </c>
+      <c r="G228">
+        <v>224.5</v>
+      </c>
+      <c r="H228">
+        <v>4</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>104</v>
+      </c>
+      <c r="K228">
+        <v>28.9</v>
+      </c>
+      <c r="L228">
+        <v>0.15</v>
+      </c>
+      <c r="M228">
+        <v>31</v>
+      </c>
+      <c r="P228">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>33.1</v>
+      </c>
+      <c r="S228">
+        <v>10</v>
+      </c>
       <c r="T228" t="s">
         <v>18</v>
       </c>
@@ -11662,7 +12022,7 @@
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A229" s="17">
+      <c r="A229" s="16">
         <v>41944</v>
       </c>
       <c r="B229" s="1">
@@ -11677,6 +12037,42 @@
       <c r="E229" s="2">
         <v>87.54</v>
       </c>
+      <c r="F229">
+        <v>736.75</v>
+      </c>
+      <c r="G229">
+        <v>224.5</v>
+      </c>
+      <c r="H229">
+        <v>4</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>104</v>
+      </c>
+      <c r="K229">
+        <v>28.9</v>
+      </c>
+      <c r="L229">
+        <v>0.15</v>
+      </c>
+      <c r="M229">
+        <v>31</v>
+      </c>
+      <c r="P229">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>33.1</v>
+      </c>
+      <c r="S229">
+        <v>10</v>
+      </c>
       <c r="T229" t="s">
         <v>18</v>
       </c>
@@ -11685,7 +12081,7 @@
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A230" s="17">
+      <c r="A230" s="16">
         <v>41974</v>
       </c>
       <c r="B230" s="1">
@@ -11700,6 +12096,42 @@
       <c r="E230" s="2">
         <v>79.75</v>
       </c>
+      <c r="F230">
+        <v>656.25</v>
+      </c>
+      <c r="G230">
+        <v>224.5</v>
+      </c>
+      <c r="H230">
+        <v>4</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>104</v>
+      </c>
+      <c r="K230">
+        <v>28.9</v>
+      </c>
+      <c r="L230">
+        <v>0.15</v>
+      </c>
+      <c r="M230">
+        <v>33.5</v>
+      </c>
+      <c r="P230">
+        <v>151.1</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>33.1</v>
+      </c>
+      <c r="S230">
+        <v>10</v>
+      </c>
       <c r="T230" t="s">
         <v>18</v>
       </c>
@@ -11708,7 +12140,7 @@
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A231" s="17">
+      <c r="A231" s="16">
         <v>42005</v>
       </c>
       <c r="B231" s="1">
@@ -11723,6 +12155,48 @@
       <c r="E231" s="2">
         <v>54.98</v>
       </c>
+      <c r="F231">
+        <v>533.25</v>
+      </c>
+      <c r="G231">
+        <v>224.5</v>
+      </c>
+      <c r="H231">
+        <v>4</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>104</v>
+      </c>
+      <c r="K231">
+        <v>33.1</v>
+      </c>
+      <c r="L231">
+        <v>0.15</v>
+      </c>
+      <c r="M231">
+        <v>33.5</v>
+      </c>
+      <c r="N231">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O231">
+        <v>12.6</v>
+      </c>
+      <c r="P231">
+        <v>151.1</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>10</v>
+      </c>
       <c r="T231" t="s">
         <v>18</v>
       </c>
@@ -11731,7 +12205,7 @@
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A232" s="17">
+      <c r="A232" s="16">
         <v>42036</v>
       </c>
       <c r="B232" s="1">
@@ -11746,6 +12220,48 @@
       <c r="E232" s="2">
         <v>48.2</v>
       </c>
+      <c r="F232">
+        <v>440.25</v>
+      </c>
+      <c r="G232">
+        <v>224.5</v>
+      </c>
+      <c r="H232">
+        <v>4</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>104</v>
+      </c>
+      <c r="K232">
+        <v>33.1</v>
+      </c>
+      <c r="L232">
+        <v>0.15</v>
+      </c>
+      <c r="M232">
+        <v>33.5</v>
+      </c>
+      <c r="N232">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O232">
+        <v>12.6</v>
+      </c>
+      <c r="P232">
+        <v>151.1</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>10</v>
+      </c>
       <c r="T232" t="s">
         <v>18</v>
       </c>
@@ -11754,7 +12270,7 @@
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A233" s="17">
+      <c r="A233" s="16">
         <v>42064</v>
       </c>
       <c r="B233" s="1">
@@ -11769,6 +12285,48 @@
       <c r="E233" s="2">
         <v>57.93</v>
       </c>
+      <c r="F233">
+        <v>536.25</v>
+      </c>
+      <c r="G233">
+        <v>224.5</v>
+      </c>
+      <c r="H233">
+        <v>4</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>104</v>
+      </c>
+      <c r="K233">
+        <v>33.1</v>
+      </c>
+      <c r="L233">
+        <v>0.15</v>
+      </c>
+      <c r="M233">
+        <v>33.5</v>
+      </c>
+      <c r="N233">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O233">
+        <v>12.6</v>
+      </c>
+      <c r="P233">
+        <v>151.1</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>10</v>
+      </c>
       <c r="T233" t="s">
         <v>18</v>
       </c>
@@ -11777,7 +12335,7 @@
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A234" s="17">
+      <c r="A234" s="16">
         <v>42095</v>
       </c>
       <c r="B234" s="1">
@@ -11792,6 +12350,48 @@
       <c r="E234" s="2">
         <v>56.11</v>
       </c>
+      <c r="F234">
+        <v>615.65</v>
+      </c>
+      <c r="G234">
+        <v>255</v>
+      </c>
+      <c r="H234">
+        <v>4</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>154</v>
+      </c>
+      <c r="K234">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L234">
+        <v>0.15</v>
+      </c>
+      <c r="M234">
+        <v>33.5</v>
+      </c>
+      <c r="N234">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O234">
+        <v>12.6</v>
+      </c>
+      <c r="P234">
+        <v>151.1</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>10</v>
+      </c>
       <c r="T234" t="s">
         <v>18</v>
       </c>
@@ -11800,7 +12400,7 @@
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A235" s="17">
+      <c r="A235" s="16">
         <v>42125</v>
       </c>
       <c r="B235" s="1">
@@ -11815,6 +12415,48 @@
       <c r="E235" s="2">
         <v>59.01</v>
       </c>
+      <c r="F235">
+        <v>615.65</v>
+      </c>
+      <c r="G235">
+        <v>255</v>
+      </c>
+      <c r="H235">
+        <v>4</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>154</v>
+      </c>
+      <c r="K235">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L235">
+        <v>0.15</v>
+      </c>
+      <c r="M235">
+        <v>33.5</v>
+      </c>
+      <c r="N235">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O235">
+        <v>12.6</v>
+      </c>
+      <c r="P235">
+        <v>151.1</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>10</v>
+      </c>
       <c r="T235" t="s">
         <v>18</v>
       </c>
@@ -11823,7 +12465,7 @@
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A236" s="17">
+      <c r="A236" s="16">
         <v>42156</v>
       </c>
       <c r="B236" s="1">
@@ -11838,6 +12480,48 @@
       <c r="E236" s="2">
         <v>64.36</v>
       </c>
+      <c r="F236">
+        <v>662.65</v>
+      </c>
+      <c r="G236">
+        <v>255</v>
+      </c>
+      <c r="H236">
+        <v>4</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>154</v>
+      </c>
+      <c r="K236">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L236">
+        <v>0.15</v>
+      </c>
+      <c r="M236">
+        <v>33.5</v>
+      </c>
+      <c r="N236">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O236">
+        <v>12.6</v>
+      </c>
+      <c r="P236">
+        <v>151.1</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>10</v>
+      </c>
       <c r="T236" t="s">
         <v>18</v>
       </c>
@@ -11846,7 +12530,7 @@
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A237" s="17">
+      <c r="A237" s="16">
         <v>42186</v>
       </c>
       <c r="B237" s="1">
@@ -11861,6 +12545,48 @@
       <c r="E237" s="2">
         <v>61.94</v>
       </c>
+      <c r="F237">
+        <v>703.65</v>
+      </c>
+      <c r="G237">
+        <v>255</v>
+      </c>
+      <c r="H237">
+        <v>4</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>154</v>
+      </c>
+      <c r="K237">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L237">
+        <v>0.15</v>
+      </c>
+      <c r="M237">
+        <v>33.5</v>
+      </c>
+      <c r="N237">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O237">
+        <v>12.6</v>
+      </c>
+      <c r="P237">
+        <v>151.1</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>10</v>
+      </c>
       <c r="T237" t="s">
         <v>18</v>
       </c>
@@ -11869,7 +12595,7 @@
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A238" s="17">
+      <c r="A238" s="16">
         <v>42217</v>
       </c>
       <c r="B238" s="1">
@@ -11884,6 +12610,48 @@
       <c r="E238" s="2">
         <v>56.72</v>
       </c>
+      <c r="F238">
+        <v>652.47</v>
+      </c>
+      <c r="G238">
+        <v>255</v>
+      </c>
+      <c r="H238">
+        <v>4</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>154</v>
+      </c>
+      <c r="K238">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L238">
+        <v>0.33</v>
+      </c>
+      <c r="M238">
+        <v>33.5</v>
+      </c>
+      <c r="N238">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O238">
+        <v>12.6</v>
+      </c>
+      <c r="P238">
+        <v>151.1</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>10</v>
+      </c>
       <c r="T238" t="s">
         <v>18</v>
       </c>
@@ -11892,7 +12660,7 @@
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A239" s="17">
+      <c r="A239" s="16">
         <v>42248</v>
       </c>
       <c r="B239" s="1">
@@ -11907,6 +12675,48 @@
       <c r="E239" s="2">
         <v>46.56</v>
       </c>
+      <c r="F239">
+        <v>578.87</v>
+      </c>
+      <c r="G239">
+        <v>255</v>
+      </c>
+      <c r="H239">
+        <v>4</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>154</v>
+      </c>
+      <c r="K239">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L239">
+        <v>0.33</v>
+      </c>
+      <c r="M239">
+        <v>33.5</v>
+      </c>
+      <c r="N239">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O239">
+        <v>12.6</v>
+      </c>
+      <c r="P239">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>10</v>
+      </c>
       <c r="T239" t="s">
         <v>18</v>
       </c>
@@ -11915,7 +12725,7 @@
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A240" s="17">
+      <c r="A240" s="16">
         <v>42278</v>
       </c>
       <c r="B240" s="1">
@@ -11930,6 +12740,48 @@
       <c r="E240" s="2">
         <v>47.79</v>
       </c>
+      <c r="F240">
+        <v>582.87</v>
+      </c>
+      <c r="G240">
+        <v>255</v>
+      </c>
+      <c r="H240">
+        <v>4</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>154</v>
+      </c>
+      <c r="K240">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L240">
+        <v>0.33</v>
+      </c>
+      <c r="M240">
+        <v>33.5</v>
+      </c>
+      <c r="N240">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O240">
+        <v>12.6</v>
+      </c>
+      <c r="P240">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <v>10</v>
+      </c>
       <c r="T240" t="s">
         <v>18</v>
       </c>
@@ -11938,7 +12790,7 @@
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A241" s="17">
+      <c r="A241" s="16">
         <v>42309</v>
       </c>
       <c r="B241" s="1">
@@ -11953,6 +12805,48 @@
       <c r="E241" s="2">
         <v>48.58</v>
       </c>
+      <c r="F241">
+        <v>560.87</v>
+      </c>
+      <c r="G241">
+        <v>255</v>
+      </c>
+      <c r="H241">
+        <v>4</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>154</v>
+      </c>
+      <c r="K241">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L241">
+        <v>0.33</v>
+      </c>
+      <c r="M241">
+        <v>33.5</v>
+      </c>
+      <c r="N241">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O241">
+        <v>12.6</v>
+      </c>
+      <c r="P241">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <v>10</v>
+      </c>
       <c r="T241" t="s">
         <v>18</v>
       </c>
@@ -11961,7 +12855,7 @@
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A242" s="17">
+      <c r="A242" s="16">
         <v>42339</v>
       </c>
       <c r="B242" s="1">
@@ -11976,6 +12870,48 @@
       <c r="E242" s="2">
         <v>44.33</v>
       </c>
+      <c r="F242">
+        <v>553.97</v>
+      </c>
+      <c r="G242">
+        <v>255</v>
+      </c>
+      <c r="H242">
+        <v>4</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>154</v>
+      </c>
+      <c r="K242">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L242">
+        <v>0.33</v>
+      </c>
+      <c r="M242">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="N242">
+        <v>18.5</v>
+      </c>
+      <c r="O242">
+        <v>13.7</v>
+      </c>
+      <c r="P242">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>10</v>
+      </c>
       <c r="T242" t="s">
         <v>18</v>
       </c>
@@ -11984,7 +12920,7 @@
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A243" s="17">
+      <c r="A243" s="16">
         <v>42370</v>
       </c>
       <c r="B243" s="1">
@@ -12049,7 +12985,7 @@
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A244" s="17">
+      <c r="A244" s="16">
         <v>42401</v>
       </c>
       <c r="B244" s="1">
@@ -12114,7 +13050,7 @@
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A245" s="17">
+      <c r="A245" s="16">
         <v>42430</v>
       </c>
       <c r="B245" s="1">
@@ -12179,7 +13115,7 @@
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A246" s="17">
+      <c r="A246" s="16">
         <v>42461</v>
       </c>
       <c r="B246" s="1">
@@ -12244,7 +13180,7 @@
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A247" s="17">
+      <c r="A247" s="16">
         <v>42491</v>
       </c>
       <c r="B247" s="1">
@@ -12309,7 +13245,7 @@
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A248" s="17">
+      <c r="A248" s="16">
         <v>42522</v>
       </c>
       <c r="B248" s="1">
@@ -12374,7 +13310,7 @@
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A249" s="17">
+      <c r="A249" s="16">
         <v>42552</v>
       </c>
       <c r="B249" s="1">
@@ -12439,7 +13375,7 @@
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A250" s="17">
+      <c r="A250" s="16">
         <v>42583</v>
       </c>
       <c r="B250" s="1">
@@ -12504,7 +13440,7 @@
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A251" s="17">
+      <c r="A251" s="16">
         <v>42614</v>
       </c>
       <c r="B251" s="1">
@@ -12569,7 +13505,7 @@
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A252" s="17">
+      <c r="A252" s="16">
         <v>42644</v>
       </c>
       <c r="B252" s="1">
@@ -12634,7 +13570,7 @@
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A253" s="17">
+      <c r="A253" s="16">
         <v>42675</v>
       </c>
       <c r="B253" s="1">
@@ -12699,13 +13635,13 @@
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A254" s="17">
+      <c r="A254" s="16">
         <v>42705</v>
       </c>
       <c r="B254" s="1">
         <v>1237</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="21">
         <v>543.87</v>
       </c>
       <c r="D254" s="2">
@@ -12764,7 +13700,7 @@
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A255" s="17">
+      <c r="A255" s="16">
         <v>42736</v>
       </c>
       <c r="B255" s="1">
@@ -12773,8 +13709,8 @@
       <c r="C255" s="2">
         <v>591.87</v>
       </c>
-      <c r="D255" s="2">
-        <v>13.8704</v>
+      <c r="D255" s="31">
+        <v>13.8687</v>
       </c>
       <c r="E255" s="2">
         <v>53.45</v>
@@ -12782,16 +13718,16 @@
       <c r="F255">
         <v>591.87</v>
       </c>
-      <c r="G255" s="1">
+      <c r="G255">
         <v>285</v>
       </c>
-      <c r="H255" s="2">
+      <c r="H255">
         <v>4</v>
       </c>
-      <c r="I255" s="2">
+      <c r="I255">
         <v>0</v>
       </c>
-      <c r="J255" s="2">
+      <c r="J255">
         <v>154</v>
       </c>
       <c r="K255">
@@ -12829,11 +13765,20 @@
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A256" s="17">
+      <c r="A256" s="16">
         <v>42767</v>
       </c>
-      <c r="C256">
+      <c r="B256" s="30">
+        <v>1314</v>
+      </c>
+      <c r="C256" s="31">
         <v>620.87</v>
+      </c>
+      <c r="D256" s="31">
+        <v>13.581300000000001</v>
+      </c>
+      <c r="E256" s="31">
+        <v>54.61</v>
       </c>
       <c r="F256">
         <v>620.87</v>
@@ -12884,11 +13829,200 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="20"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="20"/>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A257" s="16">
+        <v>42795</v>
+      </c>
+      <c r="B257" s="30">
+        <v>1306</v>
+      </c>
+      <c r="C257" s="31">
+        <v>612.87</v>
+      </c>
+      <c r="D257" s="31">
+        <v>13.289899999999999</v>
+      </c>
+      <c r="E257" s="31">
+        <v>51.91</v>
+      </c>
+      <c r="F257">
+        <v>612.87</v>
+      </c>
+      <c r="G257">
+        <v>285</v>
+      </c>
+      <c r="H257">
+        <v>4</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>154</v>
+      </c>
+      <c r="K257">
+        <v>41</v>
+      </c>
+      <c r="L257">
+        <v>0.33</v>
+      </c>
+      <c r="M257">
+        <v>35.6</v>
+      </c>
+      <c r="N257">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O257">
+        <v>17.3</v>
+      </c>
+      <c r="P257">
+        <v>176.4</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>0</v>
+      </c>
+      <c r="S257">
+        <v>10</v>
+      </c>
+      <c r="T257" t="s">
+        <v>18</v>
+      </c>
+      <c r="U257" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A258" s="16">
+        <v>42826</v>
+      </c>
+      <c r="B258" s="30">
+        <v>1281</v>
+      </c>
+      <c r="C258" s="31">
+        <v>548.66999999999996</v>
+      </c>
+      <c r="D258" s="2">
+        <v>12.9148</v>
+      </c>
+      <c r="E258" s="31">
+        <v>51.52</v>
+      </c>
+      <c r="F258">
+        <v>548.66999999999996</v>
+      </c>
+      <c r="G258">
+        <v>315</v>
+      </c>
+      <c r="H258">
+        <v>4</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>163</v>
+      </c>
+      <c r="K258">
+        <v>41.5</v>
+      </c>
+      <c r="L258">
+        <v>0.33</v>
+      </c>
+      <c r="M258">
+        <v>35.6</v>
+      </c>
+      <c r="N258">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O258">
+        <v>17.3</v>
+      </c>
+      <c r="P258">
+        <v>176.4</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>0</v>
+      </c>
+      <c r="S258">
+        <v>10</v>
+      </c>
+      <c r="T258" t="s">
+        <v>18</v>
+      </c>
+      <c r="U258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A259" s="16">
+        <v>42856</v>
+      </c>
+      <c r="B259" s="30">
+        <v>1330</v>
+      </c>
+      <c r="C259" s="31">
+        <v>597.66999999999996</v>
+      </c>
+      <c r="D259" s="31">
+        <v>13.5105</v>
+      </c>
+      <c r="E259" s="31">
+        <v>53.21</v>
+      </c>
+      <c r="F259">
+        <v>597.66999999999996</v>
+      </c>
+      <c r="G259">
+        <v>315</v>
+      </c>
+      <c r="H259">
+        <v>4</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>163</v>
+      </c>
+      <c r="K259">
+        <v>41.5</v>
+      </c>
+      <c r="L259">
+        <v>0.33</v>
+      </c>
+      <c r="M259">
+        <v>35.6</v>
+      </c>
+      <c r="N259">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O259">
+        <v>17.3</v>
+      </c>
+      <c r="P259">
+        <v>176.4</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <v>10</v>
+      </c>
+      <c r="T259" t="s">
+        <v>18</v>
+      </c>
+      <c r="U259" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12906,15 +14040,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="26" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="13.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -12943,7 +14077,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="A2" s="26">
         <v>35034</v>
       </c>
       <c r="B2" s="3">
@@ -12976,7 +14110,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="26">
         <v>35065</v>
       </c>
       <c r="B3" s="3">
@@ -12997,7 +14131,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>35096</v>
       </c>
       <c r="B4" s="3">
@@ -13018,7 +14152,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>35125</v>
       </c>
       <c r="B5" s="3">
@@ -13039,7 +14173,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>35156</v>
       </c>
       <c r="B6" s="3">
@@ -13060,7 +14194,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>35186</v>
       </c>
       <c r="B7" s="3">
@@ -13081,7 +14215,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>35217</v>
       </c>
       <c r="B8" s="3">
@@ -13102,7 +14236,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>35247</v>
       </c>
       <c r="B9" s="3">
@@ -13123,7 +14257,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="26">
         <v>35278</v>
       </c>
       <c r="B10" s="3">
@@ -13144,7 +14278,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>35309</v>
       </c>
       <c r="B11" s="3">
@@ -13165,7 +14299,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>35339</v>
       </c>
       <c r="B12" s="3">
@@ -13186,7 +14320,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>35370</v>
       </c>
       <c r="B13" s="3">
@@ -13207,7 +14341,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="26">
         <v>35400</v>
       </c>
       <c r="B14" s="3">
@@ -13228,7 +14362,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>35431</v>
       </c>
       <c r="B15" s="3">
@@ -13249,7 +14383,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="26">
         <v>35462</v>
       </c>
       <c r="B16" s="3">
@@ -13270,7 +14404,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>35490</v>
       </c>
       <c r="B17" s="3">
@@ -13291,7 +14425,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>35521</v>
       </c>
       <c r="B18" s="3">
@@ -13312,7 +14446,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>35551</v>
       </c>
       <c r="B19" s="3">
@@ -13333,7 +14467,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>35582</v>
       </c>
       <c r="B20" s="3">
@@ -13354,7 +14488,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <v>35612</v>
       </c>
       <c r="B21" s="3">
@@ -13375,7 +14509,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <v>35643</v>
       </c>
       <c r="B22" s="3">
@@ -13396,7 +14530,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <v>35674</v>
       </c>
       <c r="B23" s="3">
@@ -13417,7 +14551,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <v>35704</v>
       </c>
       <c r="B24" s="3">
@@ -13438,7 +14572,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
+      <c r="A25" s="26">
         <v>35735</v>
       </c>
       <c r="B25" s="3">
@@ -13459,7 +14593,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="26">
         <v>35765</v>
       </c>
       <c r="B26" s="3">
@@ -13480,7 +14614,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+      <c r="A27" s="26">
         <v>35796</v>
       </c>
       <c r="B27" s="3">
@@ -13501,7 +14635,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <v>35827</v>
       </c>
       <c r="B28" s="3">
@@ -13522,7 +14656,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="A29" s="26">
         <v>35855</v>
       </c>
       <c r="B29" s="3">
@@ -13543,7 +14677,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+      <c r="A30" s="26">
         <v>35886</v>
       </c>
       <c r="B30" s="3">
@@ -13564,7 +14698,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+      <c r="A31" s="26">
         <v>35916</v>
       </c>
       <c r="B31" s="3">
@@ -13585,7 +14719,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+      <c r="A32" s="26">
         <v>35947</v>
       </c>
       <c r="B32" s="3">
@@ -13606,7 +14740,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
+      <c r="A33" s="26">
         <v>35977</v>
       </c>
       <c r="B33" s="3">
@@ -13627,7 +14761,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
+      <c r="A34" s="26">
         <v>36008</v>
       </c>
       <c r="B34" s="3">
@@ -13648,7 +14782,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
+      <c r="A35" s="26">
         <v>36039</v>
       </c>
       <c r="B35" s="3">
@@ -13669,7 +14803,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
+      <c r="A36" s="26">
         <v>36069</v>
       </c>
       <c r="B36" s="3">
@@ -13690,7 +14824,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="28">
+      <c r="A37" s="26">
         <v>36100</v>
       </c>
       <c r="B37" s="3">
@@ -13711,7 +14845,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
+      <c r="A38" s="26">
         <v>36130</v>
       </c>
       <c r="B38" s="3">
@@ -13732,7 +14866,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
+      <c r="A39" s="26">
         <v>36161</v>
       </c>
       <c r="B39" s="3">
@@ -13753,7 +14887,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="26">
         <v>36192</v>
       </c>
       <c r="B40" s="3">
@@ -13774,7 +14908,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+      <c r="A41" s="26">
         <v>36220</v>
       </c>
       <c r="B41" s="3">
@@ -13795,7 +14929,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="26">
         <v>36251</v>
       </c>
       <c r="B42" s="3">
@@ -13816,7 +14950,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="28">
+      <c r="A43" s="26">
         <v>36281</v>
       </c>
       <c r="B43" s="3">
@@ -13837,7 +14971,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
+      <c r="A44" s="26">
         <v>36312</v>
       </c>
       <c r="B44" s="3">
@@ -13858,7 +14992,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
+      <c r="A45" s="26">
         <v>36342</v>
       </c>
       <c r="B45" s="3">
@@ -13879,7 +15013,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
+      <c r="A46" s="26">
         <v>36373</v>
       </c>
       <c r="B46" s="3">
@@ -13900,7 +15034,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
+      <c r="A47" s="26">
         <v>36404</v>
       </c>
       <c r="B47" s="3">
@@ -13921,7 +15055,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
+      <c r="A48" s="26">
         <v>36434</v>
       </c>
       <c r="B48" s="3">
@@ -13942,7 +15076,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="29">
+      <c r="A49" s="27">
         <v>36465</v>
       </c>
       <c r="B49" s="3">
@@ -13963,7 +15097,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
+      <c r="A50" s="26">
         <v>36495</v>
       </c>
       <c r="B50" s="3">
@@ -13984,7 +15118,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="28">
+      <c r="A51" s="26">
         <v>36526</v>
       </c>
       <c r="B51" s="3">
@@ -14005,7 +15139,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
+      <c r="A52" s="26">
         <v>36557</v>
       </c>
       <c r="B52" s="3">
@@ -14026,7 +15160,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="28">
+      <c r="A53" s="26">
         <v>36586</v>
       </c>
       <c r="B53" s="3">
@@ -14047,7 +15181,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="28">
+      <c r="A54" s="26">
         <v>36617</v>
       </c>
       <c r="B54" s="3">
@@ -14068,7 +15202,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="28">
+      <c r="A55" s="26">
         <v>36647</v>
       </c>
       <c r="B55" s="3">
@@ -14089,7 +15223,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
+      <c r="A56" s="26">
         <v>36678</v>
       </c>
       <c r="B56" s="3">
@@ -14110,7 +15244,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="28">
+      <c r="A57" s="26">
         <v>36708</v>
       </c>
       <c r="B57" s="3">
@@ -14131,7 +15265,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="28">
+      <c r="A58" s="26">
         <v>36739</v>
       </c>
       <c r="B58" s="3">
@@ -14152,7 +15286,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="28">
+      <c r="A59" s="26">
         <v>36770</v>
       </c>
       <c r="B59" s="3">
@@ -14173,7 +15307,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="28">
+      <c r="A60" s="26">
         <v>36800</v>
       </c>
       <c r="B60" s="3">
@@ -14194,7 +15328,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="28">
+      <c r="A61" s="26">
         <v>36831</v>
       </c>
       <c r="B61" s="3">
@@ -14215,7 +15349,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
+      <c r="A62" s="26">
         <v>36861</v>
       </c>
       <c r="B62" s="3">
@@ -14236,7 +15370,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="28">
+      <c r="A63" s="26">
         <v>36892</v>
       </c>
       <c r="B63" s="3">
@@ -14257,7 +15391,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="28">
+      <c r="A64" s="26">
         <v>36923</v>
       </c>
       <c r="B64" s="3">
@@ -14278,7 +15412,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="28">
+      <c r="A65" s="26">
         <v>36951</v>
       </c>
       <c r="B65" s="3">
@@ -14299,7 +15433,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="28">
+      <c r="A66" s="26">
         <v>36982</v>
       </c>
       <c r="B66" s="3">
@@ -14320,7 +15454,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="28">
+      <c r="A67" s="26">
         <v>37012</v>
       </c>
       <c r="B67" s="3">
@@ -14341,7 +15475,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="28">
+      <c r="A68" s="26">
         <v>37043</v>
       </c>
       <c r="B68" s="3">
@@ -14362,7 +15496,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="28">
+      <c r="A69" s="26">
         <v>37073</v>
       </c>
       <c r="B69" s="3">
@@ -14383,7 +15517,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="28">
+      <c r="A70" s="26">
         <v>37104</v>
       </c>
       <c r="B70" s="3">
@@ -14404,7 +15538,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="28">
+      <c r="A71" s="26">
         <v>37135</v>
       </c>
       <c r="B71" s="3">
@@ -14425,7 +15559,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="29">
+      <c r="A72" s="27">
         <v>37165</v>
       </c>
       <c r="B72" s="3">
@@ -14446,7 +15580,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
+      <c r="A73" s="26">
         <v>37196</v>
       </c>
       <c r="B73" s="3">
@@ -14467,7 +15601,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="28">
+      <c r="A74" s="26">
         <v>37226</v>
       </c>
       <c r="B74" s="3">
@@ -14488,7 +15622,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="28">
+      <c r="A75" s="26">
         <v>37257</v>
       </c>
       <c r="B75" s="3">
@@ -14509,7 +15643,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="28">
+      <c r="A76" s="26">
         <v>37288</v>
       </c>
       <c r="B76" s="3">
@@ -14530,7 +15664,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="28">
+      <c r="A77" s="26">
         <v>37316</v>
       </c>
       <c r="B77" s="3">
@@ -14551,7 +15685,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="28">
+      <c r="A78" s="26">
         <v>37347</v>
       </c>
       <c r="B78" s="3">
@@ -14572,7 +15706,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="28">
+      <c r="A79" s="26">
         <v>37377</v>
       </c>
       <c r="B79" s="3">
@@ -14593,7 +15727,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="28">
+      <c r="A80" s="26">
         <v>37408</v>
       </c>
       <c r="B80" s="3">
@@ -14614,7 +15748,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="28">
+      <c r="A81" s="26">
         <v>37438</v>
       </c>
       <c r="B81" s="3">
@@ -14635,7 +15769,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="28">
+      <c r="A82" s="26">
         <v>37469</v>
       </c>
       <c r="B82" s="3">
@@ -14656,7 +15790,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="28">
+      <c r="A83" s="26">
         <v>37500</v>
       </c>
       <c r="B83" s="3">
@@ -14677,7 +15811,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="28">
+      <c r="A84" s="26">
         <v>37530</v>
       </c>
       <c r="B84" s="3">
@@ -14698,7 +15832,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="28">
+      <c r="A85" s="26">
         <v>37561</v>
       </c>
       <c r="B85" s="3">
@@ -14719,7 +15853,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="28">
+      <c r="A86" s="26">
         <v>37591</v>
       </c>
       <c r="B86" s="3">
@@ -14740,7 +15874,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="29">
+      <c r="A87" s="27">
         <v>37622</v>
       </c>
       <c r="B87" s="3">
@@ -14761,7 +15895,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="28">
+      <c r="A88" s="26">
         <v>37653</v>
       </c>
       <c r="B88" s="3">
@@ -14782,7 +15916,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="28">
+      <c r="A89" s="26">
         <v>37681</v>
       </c>
       <c r="B89" s="3">
@@ -14803,7 +15937,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="28">
+      <c r="A90" s="26">
         <v>37712</v>
       </c>
       <c r="B90" s="3">
@@ -14824,7 +15958,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="28">
+      <c r="A91" s="26">
         <v>37742</v>
       </c>
       <c r="B91" s="3">
@@ -14845,7 +15979,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="28">
+      <c r="A92" s="26">
         <v>37773</v>
       </c>
       <c r="B92" s="3">
@@ -14866,7 +16000,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="28">
+      <c r="A93" s="26">
         <v>37803</v>
       </c>
       <c r="B93" s="3">
@@ -14887,7 +16021,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="28">
+      <c r="A94" s="26">
         <v>37834</v>
       </c>
       <c r="B94" s="3">
@@ -14908,7 +16042,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="28">
+      <c r="A95" s="26">
         <v>37865</v>
       </c>
       <c r="B95" s="3">
@@ -14929,7 +16063,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="28">
+      <c r="A96" s="26">
         <v>37895</v>
       </c>
       <c r="B96" s="3">
@@ -14950,7 +16084,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="28">
+      <c r="A97" s="26">
         <v>37926</v>
       </c>
       <c r="B97" s="3">
@@ -14971,7 +16105,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="28">
+      <c r="A98" s="26">
         <v>37956</v>
       </c>
       <c r="B98" s="3">
@@ -14992,7 +16126,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="28">
+      <c r="A99" s="26">
         <v>37987</v>
       </c>
       <c r="B99" s="3">
@@ -15013,7 +16147,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="28">
+      <c r="A100" s="26">
         <v>38018</v>
       </c>
       <c r="B100" s="3">
@@ -15034,7 +16168,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="28">
+      <c r="A101" s="26">
         <v>38047</v>
       </c>
       <c r="B101" s="3">
@@ -15055,7 +16189,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="28">
+      <c r="A102" s="26">
         <v>38078</v>
       </c>
       <c r="B102" s="3">
@@ -15076,7 +16210,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="28">
+      <c r="A103" s="26">
         <v>38108</v>
       </c>
       <c r="B103" s="3">
@@ -15097,7 +16231,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="28">
+      <c r="A104" s="26">
         <v>38139</v>
       </c>
       <c r="B104" s="3">
@@ -15118,7 +16252,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="28">
+      <c r="A105" s="26">
         <v>38169</v>
       </c>
       <c r="B105" s="3">
@@ -15139,7 +16273,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="28">
+      <c r="A106" s="26">
         <v>38200</v>
       </c>
       <c r="B106" s="3">
@@ -15160,7 +16294,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="28">
+      <c r="A107" s="26">
         <v>38231</v>
       </c>
       <c r="B107" s="3">
@@ -15181,7 +16315,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="28">
+      <c r="A108" s="26">
         <v>38261</v>
       </c>
       <c r="B108" s="3">
@@ -15202,7 +16336,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="28">
+      <c r="A109" s="26">
         <v>38292</v>
       </c>
       <c r="B109" s="3">
@@ -15223,7 +16357,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="28">
+      <c r="A110" s="26">
         <v>38322</v>
       </c>
       <c r="B110" s="3">
@@ -15244,7 +16378,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="28">
+      <c r="A111" s="26">
         <v>38353</v>
       </c>
       <c r="B111" s="3">
@@ -15265,7 +16399,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="28">
+      <c r="A112" s="26">
         <v>38384</v>
       </c>
       <c r="B112" s="3">
@@ -15286,7 +16420,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="28">
+      <c r="A113" s="26">
         <v>38412</v>
       </c>
       <c r="B113" s="3">
@@ -15307,7 +16441,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="28">
+      <c r="A114" s="26">
         <v>38443</v>
       </c>
       <c r="B114" s="3">
@@ -15328,7 +16462,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="28">
+      <c r="A115" s="26">
         <v>38473</v>
       </c>
       <c r="B115" s="3">
@@ -15349,7 +16483,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="28">
+      <c r="A116" s="26">
         <v>38504</v>
       </c>
       <c r="B116" s="3">
@@ -15370,7 +16504,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="28">
+      <c r="A117" s="26">
         <v>38534</v>
       </c>
       <c r="B117" s="3">
@@ -15391,7 +16525,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="28">
+      <c r="A118" s="26">
         <v>38565</v>
       </c>
       <c r="B118" s="3">
@@ -15412,7 +16546,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="28">
+      <c r="A119" s="26">
         <v>38596</v>
       </c>
       <c r="B119" s="3">
@@ -15433,7 +16567,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="28">
+      <c r="A120" s="26">
         <v>38626</v>
       </c>
       <c r="B120" s="3">
@@ -15454,7 +16588,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="28">
+      <c r="A121" s="26">
         <v>38657</v>
       </c>
       <c r="B121" s="3">
@@ -15475,7 +16609,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="28">
+      <c r="A122" s="26">
         <v>38687</v>
       </c>
       <c r="B122" s="3">
@@ -15496,7 +16630,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="28">
+      <c r="A123" s="26">
         <v>38718</v>
       </c>
       <c r="B123" s="3">
@@ -15512,12 +16646,12 @@
       <c r="E123" s="7">
         <v>6.3761999999999999</v>
       </c>
-      <c r="F123" s="24">
+      <c r="F123" s="22">
         <v>54.46</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="28">
+      <c r="A124" s="26">
         <v>38749</v>
       </c>
       <c r="B124" s="3">
@@ -15533,12 +16667,12 @@
       <c r="E124" s="7">
         <v>6.1407999999999996</v>
       </c>
-      <c r="F124" s="24">
+      <c r="F124" s="22">
         <v>55.49</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="28">
+      <c r="A125" s="26">
         <v>38777</v>
       </c>
       <c r="B125" s="3">
@@ -15554,12 +16688,12 @@
       <c r="E125" s="7">
         <v>6.1372999999999998</v>
       </c>
-      <c r="F125" s="24">
+      <c r="F125" s="22">
         <v>61.08</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="28">
+      <c r="A126" s="26">
         <v>38808</v>
       </c>
       <c r="B126" s="3">
@@ -15575,12 +16709,12 @@
       <c r="E126" s="7">
         <v>6.26</v>
       </c>
-      <c r="F126" s="24">
+      <c r="F126" s="22">
         <v>65.66</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="28">
+      <c r="A127" s="26">
         <v>38838</v>
       </c>
       <c r="B127" s="3">
@@ -15596,12 +16730,12 @@
       <c r="E127" s="7">
         <v>6.0904999999999996</v>
       </c>
-      <c r="F127" s="24">
+      <c r="F127" s="22">
         <v>68.8</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="28">
+      <c r="A128" s="26">
         <v>38869</v>
       </c>
       <c r="B128" s="3">
@@ -15617,12 +16751,12 @@
       <c r="E128" s="7">
         <v>6.34</v>
       </c>
-      <c r="F128" s="24">
+      <c r="F128" s="22">
         <v>70.11</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="28">
+      <c r="A129" s="26">
         <v>38899</v>
       </c>
       <c r="B129" s="3">
@@ -15638,12 +16772,12 @@
       <c r="E129" s="7">
         <v>6.9859999999999998</v>
       </c>
-      <c r="F129" s="24">
+      <c r="F129" s="22">
         <v>72.209999999999994</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="28">
+      <c r="A130" s="26">
         <v>38930</v>
       </c>
       <c r="B130" s="3">
@@ -15659,12 +16793,12 @@
       <c r="E130" s="7">
         <v>7.1276000000000002</v>
       </c>
-      <c r="F130" s="24">
+      <c r="F130" s="22">
         <v>73.7</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="28">
+      <c r="A131" s="26">
         <v>38961</v>
       </c>
       <c r="B131" s="3">
@@ -15680,12 +16814,12 @@
       <c r="E131" s="7">
         <v>6.9705000000000004</v>
       </c>
-      <c r="F131" s="24">
+      <c r="F131" s="22">
         <v>65.12</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="28">
+      <c r="A132" s="26">
         <v>38991</v>
       </c>
       <c r="B132" s="3">
@@ -15701,12 +16835,12 @@
       <c r="E132" s="7">
         <v>7.4347000000000003</v>
       </c>
-      <c r="F132" s="24">
+      <c r="F132" s="22">
         <v>59.11</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="28">
+      <c r="A133" s="26">
         <v>39022</v>
       </c>
       <c r="B133" s="3">
@@ -15722,33 +16856,33 @@
       <c r="E133" s="7">
         <v>7.7000999999999999</v>
       </c>
-      <c r="F133" s="24">
+      <c r="F133" s="22">
         <v>63.03</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="30">
+      <c r="A134" s="28">
         <v>39052</v>
       </c>
-      <c r="B134" s="14">
+      <c r="B134" s="13">
         <v>566</v>
       </c>
-      <c r="C134" s="15">
+      <c r="C134" s="14">
         <v>311.41300000000001</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" si="2"/>
         <v>409.54636800000003</v>
       </c>
-      <c r="E134" s="16">
+      <c r="E134" s="15">
         <v>7.0224000000000002</v>
       </c>
-      <c r="F134" s="25">
+      <c r="F134" s="23">
         <v>58.32</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="28">
+      <c r="A135" s="26">
         <v>39083</v>
       </c>
       <c r="B135" s="3">
@@ -15764,12 +16898,12 @@
       <c r="E135" s="7">
         <v>7.0609000000000002</v>
       </c>
-      <c r="F135" s="24">
+      <c r="F135" s="22">
         <v>58.02</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="28">
+      <c r="A136" s="26">
         <v>39114</v>
       </c>
       <c r="B136" s="3">
@@ -15785,12 +16919,12 @@
       <c r="E136" s="7">
         <v>7.1928999999999998</v>
       </c>
-      <c r="F136" s="24">
+      <c r="F136" s="22">
         <v>53.12</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="28">
+      <c r="A137" s="26">
         <v>39142</v>
       </c>
       <c r="B137" s="3">
@@ -15806,12 +16940,12 @@
       <c r="E137" s="7">
         <v>7.1955999999999998</v>
       </c>
-      <c r="F137" s="24">
+      <c r="F137" s="22">
         <v>57.35</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="28">
+      <c r="A138" s="26">
         <v>39173</v>
       </c>
       <c r="B138" s="3">
@@ -15827,12 +16961,12 @@
       <c r="E138" s="7">
         <v>7.3841000000000001</v>
       </c>
-      <c r="F138" s="24">
+      <c r="F138" s="22">
         <v>62.1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="28">
+      <c r="A139" s="26">
         <v>39203</v>
       </c>
       <c r="B139" s="3">
@@ -15848,12 +16982,12 @@
       <c r="E139" s="7">
         <v>7.1680000000000001</v>
       </c>
-      <c r="F139" s="24">
+      <c r="F139" s="22">
         <v>64.13</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="28">
+      <c r="A140" s="26">
         <v>39234</v>
       </c>
       <c r="B140" s="3">
@@ -15869,12 +17003,12 @@
       <c r="E140" s="7">
         <v>7.0457000000000001</v>
       </c>
-      <c r="F140" s="24">
+      <c r="F140" s="22">
         <v>66.45</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="28">
+      <c r="A141" s="26">
         <v>39264</v>
       </c>
       <c r="B141" s="3">
@@ -15890,12 +17024,12 @@
       <c r="E141" s="7">
         <v>7.1947999999999999</v>
       </c>
-      <c r="F141" s="24">
+      <c r="F141" s="22">
         <v>63.33</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="28">
+      <c r="A142" s="26">
         <v>39295</v>
       </c>
       <c r="B142" s="3">
@@ -15911,12 +17045,12 @@
       <c r="E142" s="7">
         <v>6.9782000000000002</v>
       </c>
-      <c r="F142" s="24">
+      <c r="F142" s="22">
         <v>60.48</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="28">
+      <c r="A143" s="26">
         <v>39326</v>
       </c>
       <c r="B143" s="3">
@@ -15932,12 +17066,12 @@
       <c r="E143" s="7">
         <v>7.2355999999999998</v>
       </c>
-      <c r="F143" s="24">
+      <c r="F143" s="22">
         <v>71.790000000000006</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="28">
+      <c r="A144" s="26">
         <v>39356</v>
       </c>
       <c r="B144" s="3">
@@ -15953,12 +17087,12 @@
       <c r="E144" s="7">
         <v>7.1580000000000004</v>
       </c>
-      <c r="F144" s="24">
+      <c r="F144" s="22">
         <v>76.432000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="28">
+      <c r="A145" s="26">
         <v>39387</v>
       </c>
       <c r="B145" s="3">
@@ -15974,12 +17108,12 @@
       <c r="E145" s="7">
         <v>6.7877000000000001</v>
       </c>
-      <c r="F145" s="24">
+      <c r="F145" s="22">
         <v>82.78</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="28">
+      <c r="A146" s="26">
         <v>39417</v>
       </c>
       <c r="B146" s="3">
@@ -15995,12 +17129,12 @@
       <c r="E146" s="7">
         <v>6.7243000000000004</v>
       </c>
-      <c r="F146" s="24">
+      <c r="F146" s="22">
         <v>92.91</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="28">
+      <c r="A147" s="26">
         <v>39448</v>
       </c>
       <c r="B147" s="3">
@@ -16016,12 +17150,12 @@
       <c r="E147" s="7">
         <v>6.8433000000000002</v>
       </c>
-      <c r="F147" s="24">
+      <c r="F147" s="22">
         <v>90.37</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="28">
+      <c r="A148" s="26">
         <v>39479</v>
       </c>
       <c r="B148" s="3">
@@ -16037,12 +17171,12 @@
       <c r="E148" s="7">
         <v>6.9837999999999996</v>
       </c>
-      <c r="F148" s="24">
+      <c r="F148" s="22">
         <v>92.16</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="28">
+      <c r="A149" s="26">
         <v>39508</v>
       </c>
       <c r="B149" s="3">
@@ -16058,12 +17192,12 @@
       <c r="E149" s="7">
         <v>7.6645000000000003</v>
       </c>
-      <c r="F149" s="24">
+      <c r="F149" s="22">
         <v>94.74</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="28">
+      <c r="A150" s="26">
         <v>39539</v>
       </c>
       <c r="B150" s="3">
@@ -16079,12 +17213,12 @@
       <c r="E150" s="7">
         <v>7.9884000000000004</v>
       </c>
-      <c r="F150" s="24">
+      <c r="F150" s="22">
         <v>102.4</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="28">
+      <c r="A151" s="26">
         <v>39569</v>
       </c>
       <c r="B151" s="3">
@@ -16100,12 +17234,12 @@
       <c r="E151" s="7">
         <v>7.8445999999999998</v>
       </c>
-      <c r="F151" s="24">
+      <c r="F151" s="22">
         <v>108.37</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="28">
+      <c r="A152" s="26">
         <v>39600</v>
       </c>
       <c r="B152" s="3">
@@ -16121,12 +17255,12 @@
       <c r="E152" s="7">
         <v>7.6433999999999997</v>
       </c>
-      <c r="F152" s="24">
+      <c r="F152" s="22">
         <v>122.25</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="28">
+      <c r="A153" s="26">
         <v>39630</v>
       </c>
       <c r="B153" s="3">
@@ -16142,12 +17276,12 @@
       <c r="E153" s="7">
         <v>7.9352</v>
       </c>
-      <c r="F153" s="24">
+      <c r="F153" s="22">
         <v>131.54</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="28">
+      <c r="A154" s="26">
         <v>39661</v>
       </c>
       <c r="B154" s="3">
@@ -16163,12 +17297,12 @@
       <c r="E154" s="7">
         <v>7.6814</v>
       </c>
-      <c r="F154" s="24">
+      <c r="F154" s="22">
         <v>133.63999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="28">
+      <c r="A155" s="26">
         <v>39692</v>
       </c>
       <c r="B155" s="3">
@@ -16184,12 +17318,12 @@
       <c r="E155" s="7">
         <v>7.6844999999999999</v>
       </c>
-      <c r="F155" s="24">
+      <c r="F155" s="22">
         <v>113</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="28">
+      <c r="A156" s="26">
         <v>39722</v>
       </c>
       <c r="B156" s="3">
@@ -16205,12 +17339,12 @@
       <c r="E156" s="7">
         <v>8.0182000000000002</v>
       </c>
-      <c r="F156" s="24">
+      <c r="F156" s="22">
         <v>99.08</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="28">
+      <c r="A157" s="26">
         <v>39753</v>
       </c>
       <c r="B157" s="3">
@@ -16226,33 +17360,33 @@
       <c r="E157" s="7">
         <v>9.5900999999999996</v>
       </c>
-      <c r="F157" s="24">
+      <c r="F157" s="22">
         <v>75.33</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="30">
+      <c r="A158" s="28">
         <v>39783</v>
       </c>
-      <c r="B158" s="14">
+      <c r="B158" s="13">
         <v>711</v>
       </c>
-      <c r="C158" s="16">
+      <c r="C158" s="15">
         <v>364.81299999999999</v>
       </c>
       <c r="D158" s="2">
         <f t="shared" si="2"/>
         <v>540.78195299999993</v>
       </c>
-      <c r="E158" s="15">
+      <c r="E158" s="14">
         <v>10.1823</v>
       </c>
-      <c r="F158" s="25">
+      <c r="F158" s="23">
         <v>53.11</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="28">
+      <c r="A159" s="26">
         <v>39814</v>
       </c>
       <c r="B159" s="3">
@@ -16268,12 +17402,12 @@
       <c r="E159" s="7">
         <v>9.9518000000000004</v>
       </c>
-      <c r="F159" s="24">
+      <c r="F159" s="22">
         <v>39.988999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="28">
+      <c r="A160" s="26">
         <v>39845</v>
       </c>
       <c r="B160" s="10">
@@ -16289,12 +17423,12 @@
       <c r="E160" s="7">
         <v>9.9331999999999994</v>
       </c>
-      <c r="F160" s="24">
+      <c r="F160" s="22">
         <v>43.548000000000002</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="28">
+      <c r="A161" s="26">
         <v>39873</v>
       </c>
       <c r="B161" s="10">
@@ -16310,12 +17444,12 @@
       <c r="E161" s="7">
         <v>10.0602</v>
       </c>
-      <c r="F161" s="24">
+      <c r="F161" s="22">
         <v>43.07</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="28">
+      <c r="A162" s="26">
         <v>39904</v>
       </c>
       <c r="B162" s="10">
@@ -16331,12 +17465,12 @@
       <c r="E162" s="7">
         <v>10.0655</v>
       </c>
-      <c r="F162" s="24">
+      <c r="F162" s="22">
         <v>46.543999999999997</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="28">
+      <c r="A163" s="26">
         <v>39934</v>
       </c>
       <c r="B163" s="10">
@@ -16352,12 +17486,12 @@
       <c r="E163" s="7">
         <v>9.1531000000000002</v>
       </c>
-      <c r="F163" s="24">
+      <c r="F163" s="22">
         <v>50.274000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="28">
+      <c r="A164" s="26">
         <v>39965</v>
       </c>
       <c r="B164" s="10">
@@ -16373,12 +17507,12 @@
       <c r="E164" s="7">
         <v>8.4370999999999992</v>
       </c>
-      <c r="F164" s="24">
+      <c r="F164" s="22">
         <v>56.576999999999998</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="28">
+      <c r="A165" s="26">
         <v>39995</v>
       </c>
       <c r="B165" s="10">
@@ -16394,12 +17528,12 @@
       <c r="E165" s="7">
         <v>8.1092999999999993</v>
       </c>
-      <c r="F165" s="24">
+      <c r="F165" s="22">
         <v>68.34</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="28">
+      <c r="A166" s="26">
         <v>40026</v>
       </c>
       <c r="B166" s="10">
@@ -16415,12 +17549,12 @@
       <c r="E166" s="7">
         <v>7.984</v>
       </c>
-      <c r="F166" s="24">
+      <c r="F166" s="22">
         <v>64.89</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="28">
+      <c r="A167" s="26">
         <v>40057</v>
       </c>
       <c r="B167" s="10">
@@ -16436,12 +17570,12 @@
       <c r="E167" s="7">
         <v>7.9912999999999998</v>
       </c>
-      <c r="F167" s="24">
+      <c r="F167" s="22">
         <v>72.66</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="28">
+      <c r="A168" s="26">
         <v>40087</v>
       </c>
       <c r="B168" s="10">
@@ -16457,12 +17591,12 @@
       <c r="E168" s="7">
         <v>7.5763999999999996</v>
       </c>
-      <c r="F168" s="24">
+      <c r="F168" s="22">
         <v>67.84</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="28">
+      <c r="A169" s="26">
         <v>40118</v>
       </c>
       <c r="B169" s="10">
@@ -16478,12 +17612,12 @@
       <c r="E169" s="7">
         <v>7.4988000000000001</v>
       </c>
-      <c r="F169" s="24">
+      <c r="F169" s="22">
         <v>72.92</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="28">
+      <c r="A170" s="26">
         <v>40148</v>
       </c>
       <c r="B170" s="10">
@@ -16499,12 +17633,12 @@
       <c r="E170" s="7">
         <v>7.5721999999999996</v>
       </c>
-      <c r="F170" s="24">
+      <c r="F170" s="22">
         <v>76.599999999999994</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="28">
+      <c r="A171" s="26">
         <v>40179</v>
       </c>
       <c r="B171" s="3">
@@ -16520,12 +17654,12 @@
       <c r="E171" s="7">
         <v>7.5246000000000004</v>
       </c>
-      <c r="F171" s="24">
+      <c r="F171" s="22">
         <v>74.31</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="28">
+      <c r="A172" s="26">
         <v>40210</v>
       </c>
       <c r="B172" s="3">
@@ -16541,12 +17675,12 @@
       <c r="E172" s="7">
         <v>7.4734999999999996</v>
       </c>
-      <c r="F172" s="24">
+      <c r="F172" s="22">
         <v>76.84</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="28">
+      <c r="A173" s="26">
         <v>40238</v>
       </c>
       <c r="B173" s="3">
@@ -16562,12 +17696,12 @@
       <c r="E173" s="7">
         <v>7.6901999999999999</v>
       </c>
-      <c r="F173" s="24">
+      <c r="F173" s="22">
         <v>73.17</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="28">
+      <c r="A174" s="26">
         <v>40269</v>
       </c>
       <c r="B174" s="3">
@@ -16583,12 +17717,12 @@
       <c r="E174" s="7">
         <v>7.4752999999999998</v>
       </c>
-      <c r="F174" s="24">
+      <c r="F174" s="22">
         <v>78.89</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="28">
+      <c r="A175" s="26">
         <v>40299</v>
       </c>
       <c r="B175" s="3">
@@ -16604,12 +17738,12 @@
       <c r="E175" s="7">
         <v>7.3749000000000002</v>
       </c>
-      <c r="F175" s="24">
+      <c r="F175" s="22">
         <v>85.75</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="28">
+      <c r="A176" s="26">
         <v>40330</v>
       </c>
       <c r="B176" s="3">
@@ -16625,12 +17759,12 @@
       <c r="E176" s="7">
         <v>7.6574999999999998</v>
       </c>
-      <c r="F176" s="24">
+      <c r="F176" s="22">
         <v>76.3</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="28">
+      <c r="A177" s="26">
         <v>40360</v>
       </c>
       <c r="B177" s="3">
@@ -16646,12 +17780,12 @@
       <c r="E177" s="7">
         <v>7.6707999999999998</v>
       </c>
-      <c r="F177" s="24">
+      <c r="F177" s="22">
         <v>74.61</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="28">
+      <c r="A178" s="26">
         <v>40391</v>
       </c>
       <c r="B178" s="3">
@@ -16667,12 +17801,12 @@
       <c r="E178" s="7">
         <v>7.5757000000000003</v>
       </c>
-      <c r="F178" s="24">
+      <c r="F178" s="22">
         <v>78.680000000000007</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="28">
+      <c r="A179" s="26">
         <v>40422</v>
       </c>
       <c r="B179" s="3">
@@ -16688,12 +17822,12 @@
       <c r="E179" s="7">
         <v>7.3178000000000001</v>
       </c>
-      <c r="F179" s="24">
+      <c r="F179" s="22">
         <v>77.39</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="28">
+      <c r="A180" s="26">
         <v>40452</v>
       </c>
       <c r="B180" s="3">
@@ -16709,12 +17843,12 @@
       <c r="E180" s="7">
         <v>7.1859000000000002</v>
       </c>
-      <c r="F180" s="24">
+      <c r="F180" s="22">
         <v>77.37</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="28">
+      <c r="A181" s="26">
         <v>40483</v>
       </c>
       <c r="B181" s="3">
@@ -16730,12 +17864,12 @@
       <c r="E181" s="7">
         <v>6.9374000000000002</v>
       </c>
-      <c r="F181" s="24">
+      <c r="F181" s="22">
         <v>82.73</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="28">
+      <c r="A182" s="26">
         <v>40513</v>
       </c>
       <c r="B182" s="3">
@@ -16751,12 +17885,12 @@
       <c r="E182" s="7">
         <v>6.9767000000000001</v>
       </c>
-      <c r="F182" s="24">
+      <c r="F182" s="22">
         <v>85.15</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="28">
+      <c r="A183" s="26">
         <v>40544</v>
       </c>
       <c r="B183" s="3">
@@ -16772,12 +17906,12 @@
       <c r="E183" s="2">
         <v>6.9009999999999998</v>
       </c>
-      <c r="F183" s="26">
+      <c r="F183" s="24">
         <v>90.77</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="28">
+      <c r="A184" s="26">
         <v>40575</v>
       </c>
       <c r="B184" s="3">
@@ -16793,12 +17927,12 @@
       <c r="E184" s="2">
         <v>6.8982999999999999</v>
       </c>
-      <c r="F184" s="26">
+      <c r="F184" s="24">
         <v>95.97</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="28">
+      <c r="A185" s="26">
         <v>40603</v>
       </c>
       <c r="B185" s="3">
@@ -16814,12 +17948,12 @@
       <c r="E185" s="2">
         <v>7.2333999999999996</v>
       </c>
-      <c r="F185" s="26">
+      <c r="F185" s="24">
         <v>102.37</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="28">
+      <c r="A186" s="26">
         <v>40634</v>
       </c>
       <c r="B186" s="3">
@@ -16835,12 +17969,12 @@
       <c r="E186" s="2">
         <v>6.9512</v>
       </c>
-      <c r="F186" s="26">
+      <c r="F186" s="24">
         <v>114.41</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="28">
+      <c r="A187" s="26">
         <v>40664</v>
       </c>
       <c r="B187" s="3">
@@ -16856,12 +17990,12 @@
       <c r="E187" s="2">
         <v>6.7701000000000002</v>
       </c>
-      <c r="F187" s="26">
+      <c r="F187" s="24">
         <v>123.49</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="28">
+      <c r="A188" s="26">
         <v>40695</v>
       </c>
       <c r="B188" s="3">
@@ -16877,12 +18011,12 @@
       <c r="E188" s="2">
         <v>6.8516000000000004</v>
       </c>
-      <c r="F188" s="26">
+      <c r="F188" s="24">
         <v>116.15</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="28">
+      <c r="A189" s="26">
         <v>40725</v>
       </c>
       <c r="B189" s="3">
@@ -16898,12 +18032,12 @@
       <c r="E189" s="2">
         <v>6.8353000000000002</v>
       </c>
-      <c r="F189" s="26">
+      <c r="F189" s="24">
         <v>114.19</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="28">
+      <c r="A190" s="26">
         <v>40756</v>
       </c>
       <c r="B190" s="3">
@@ -16919,12 +18053,12 @@
       <c r="E190" s="2">
         <v>6.8133999999999997</v>
       </c>
-      <c r="F190" s="26">
+      <c r="F190" s="24">
         <v>116.88</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="28">
+      <c r="A191" s="26">
         <v>40787</v>
       </c>
       <c r="B191" s="3">
@@ -16940,12 +18074,12 @@
       <c r="E191" s="2">
         <v>7.0590000000000002</v>
       </c>
-      <c r="F191" s="26">
+      <c r="F191" s="24">
         <v>110.67</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="28">
+      <c r="A192" s="26">
         <v>40817</v>
       </c>
       <c r="B192" s="3">
@@ -16961,12 +18095,12 @@
       <c r="E192" s="2">
         <v>7.5656999999999996</v>
       </c>
-      <c r="F192" s="26">
+      <c r="F192" s="24">
         <v>113.61</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="28">
+      <c r="A193" s="26">
         <v>40848</v>
       </c>
       <c r="B193" s="3">
@@ -16982,12 +18116,12 @@
       <c r="E193" s="2">
         <v>8.0012000000000008</v>
       </c>
-      <c r="F193" s="26">
+      <c r="F193" s="24">
         <v>109.28</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="28">
+      <c r="A194" s="26">
         <v>40878</v>
       </c>
       <c r="B194" s="3">
@@ -17003,12 +18137,12 @@
       <c r="E194" s="2">
         <v>8.1397999999999993</v>
       </c>
-      <c r="F194" s="26">
+      <c r="F194" s="24">
         <v>110.51</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="28">
+      <c r="A195" s="26">
         <v>40909</v>
       </c>
       <c r="B195" s="3">
@@ -17024,12 +18158,12 @@
       <c r="E195" s="2">
         <v>8.2121999999999993</v>
       </c>
-      <c r="F195" s="26">
+      <c r="F195" s="24">
         <v>107.96</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="28">
+      <c r="A196" s="26">
         <v>40940</v>
       </c>
       <c r="B196" s="12">
@@ -17045,12 +18179,12 @@
       <c r="E196" s="2">
         <v>8.0840999999999994</v>
       </c>
-      <c r="F196" s="26">
+      <c r="F196" s="24">
         <v>110.42</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="28">
+      <c r="A197" s="26">
         <v>40969</v>
       </c>
       <c r="B197" s="3">
@@ -17066,12 +18200,12 @@
       <c r="E197" s="2">
         <v>7.6790000000000003</v>
       </c>
-      <c r="F197" s="26">
+      <c r="F197" s="24">
         <v>126.39</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="28">
+      <c r="A198" s="26">
         <v>41000</v>
       </c>
       <c r="B198" s="3">
@@ -17087,12 +18221,12 @@
       <c r="E198" s="2">
         <v>7.6193</v>
       </c>
-      <c r="F198" s="26">
+      <c r="F198" s="24">
         <v>125.42</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="28">
+      <c r="A199" s="26">
         <v>41030</v>
       </c>
       <c r="B199" s="3">
@@ -17108,12 +18242,12 @@
       <c r="E199" s="2">
         <v>7.8536000000000001</v>
       </c>
-      <c r="F199" s="26">
+      <c r="F199" s="24">
         <v>120.18</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="28">
+      <c r="A200" s="26">
         <v>41061</v>
       </c>
       <c r="B200" s="3">
@@ -17129,12 +18263,12 @@
       <c r="E200" s="2">
         <v>8.1030999999999995</v>
       </c>
-      <c r="F200" s="26">
+      <c r="F200" s="24">
         <v>110.27</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="28">
+      <c r="A201" s="26">
         <v>41091</v>
       </c>
       <c r="B201" s="3">
@@ -17150,12 +18284,12 @@
       <c r="E201" s="2">
         <v>8.4189000000000007</v>
       </c>
-      <c r="F201" s="26">
+      <c r="F201" s="24">
         <v>95.22</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="28">
+      <c r="A202" s="26">
         <v>41122</v>
       </c>
       <c r="B202" s="3">
@@ -17171,12 +18305,12 @@
       <c r="E202" s="2">
         <v>8.2657000000000007</v>
       </c>
-      <c r="F202" s="26">
+      <c r="F202" s="24">
         <v>102.04</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="28">
+      <c r="A203" s="26">
         <v>41153</v>
       </c>
       <c r="B203" s="3">
@@ -17192,12 +18326,12 @@
       <c r="E203" s="2">
         <v>8.2758000000000003</v>
       </c>
-      <c r="F203" s="26">
+      <c r="F203" s="24">
         <v>113.51</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="28">
+      <c r="A204" s="26">
         <v>41183</v>
       </c>
       <c r="B204" s="3">
@@ -17213,12 +18347,12 @@
       <c r="E204" s="2">
         <v>8.3074999999999992</v>
       </c>
-      <c r="F204" s="26">
+      <c r="F204" s="24">
         <v>112.96</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="28">
+      <c r="A205" s="26">
         <v>41214</v>
       </c>
       <c r="B205" s="3">
@@ -17234,12 +18368,12 @@
       <c r="E205" s="2">
         <v>8.6478999999999999</v>
       </c>
-      <c r="F205" s="26">
+      <c r="F205" s="24">
         <v>109.05</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="28">
+      <c r="A206" s="26">
         <v>41244</v>
       </c>
       <c r="B206" s="3">
@@ -17255,12 +18389,12 @@
       <c r="E206" s="2">
         <v>8.8252000000000006</v>
       </c>
-      <c r="F206" s="26">
+      <c r="F206" s="24">
         <v>109.04</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="28">
+      <c r="A207" s="26">
         <v>41275</v>
       </c>
       <c r="B207" s="3">
@@ -17276,12 +18410,12 @@
       <c r="E207" s="2">
         <v>8.6832999999999991</v>
       </c>
-      <c r="F207" s="26">
+      <c r="F207" s="24">
         <v>109.13</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="28">
+      <c r="A208" s="26">
         <v>41306</v>
       </c>
       <c r="B208" s="3">
@@ -17297,12 +18431,12 @@
       <c r="E208" s="2">
         <v>8.7629000000000001</v>
       </c>
-      <c r="F208" s="26">
+      <c r="F208" s="24">
         <v>112.88</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="28">
+      <c r="A209" s="26">
         <v>41334</v>
       </c>
       <c r="B209" s="3">
@@ -17318,12 +18452,12 @@
       <c r="E209" s="2">
         <v>8.9067000000000007</v>
       </c>
-      <c r="F209" s="26">
+      <c r="F209" s="24">
         <v>116.28</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="28">
+      <c r="A210" s="26">
         <v>41365</v>
       </c>
       <c r="B210" s="3">
@@ -17339,12 +18473,12 @@
       <c r="E210" s="2">
         <v>9.1931999999999992</v>
       </c>
-      <c r="F210" s="26">
+      <c r="F210" s="24">
         <v>108.44</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="28">
+      <c r="A211" s="26">
         <v>41395</v>
       </c>
       <c r="B211" s="3">
@@ -17360,12 +18494,12 @@
       <c r="E211" s="2">
         <v>9.1598000000000006</v>
       </c>
-      <c r="F211" s="26">
+      <c r="F211" s="24">
         <v>102.16</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="28">
+      <c r="A212" s="26">
         <v>41426</v>
       </c>
       <c r="B212" s="3">
@@ -17381,12 +18515,12 @@
       <c r="E212" s="2">
         <v>9.2987000000000002</v>
       </c>
-      <c r="F212" s="26">
+      <c r="F212" s="24">
         <v>102.62</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="28">
+      <c r="A213" s="26">
         <v>41456</v>
       </c>
       <c r="B213" s="3">
@@ -17402,12 +18536,12 @@
       <c r="E213" s="2">
         <v>10.0487</v>
       </c>
-      <c r="F213" s="26">
+      <c r="F213" s="24">
         <v>102.84</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="28">
+      <c r="A214" s="26">
         <v>41487</v>
       </c>
       <c r="B214" s="3">
@@ -17423,12 +18557,12 @@
       <c r="E214" s="2">
         <v>9.9347999999999992</v>
       </c>
-      <c r="F214" s="26">
+      <c r="F214" s="24">
         <v>108.05</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="28">
+      <c r="A215" s="26">
         <v>41518</v>
       </c>
       <c r="B215" s="3">
@@ -17444,12 +18578,12 @@
       <c r="E215" s="2">
         <v>10.0928</v>
       </c>
-      <c r="F215" s="26">
+      <c r="F215" s="24">
         <v>111.07</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="28">
+      <c r="A216" s="26">
         <v>41548</v>
       </c>
       <c r="B216" s="1">
@@ -17462,15 +18596,15 @@
         <f t="shared" si="3"/>
         <v>1122.6030210000001</v>
       </c>
-      <c r="E216" s="22">
+      <c r="E216" s="20">
         <v>10.002700000000001</v>
       </c>
-      <c r="F216" s="27">
+      <c r="F216" s="25">
         <v>112.23</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="28">
+      <c r="A217" s="26">
         <v>41579</v>
       </c>
       <c r="B217" s="1">
@@ -17486,12 +18620,12 @@
       <c r="E217" s="2">
         <v>9.9451999999999998</v>
       </c>
-      <c r="F217" s="27">
+      <c r="F217" s="25">
         <v>109.12</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="28">
+      <c r="A218" s="26">
         <v>41609</v>
       </c>
       <c r="B218" s="1">
@@ -17507,18 +18641,18 @@
       <c r="E218" s="2">
         <v>10.2121</v>
       </c>
-      <c r="F218" s="27">
+      <c r="F218" s="25">
         <v>107.82</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="28">
+      <c r="A219" s="26">
         <v>41640</v>
       </c>
       <c r="B219" s="1">
         <v>1320</v>
       </c>
-      <c r="C219" s="22">
+      <c r="C219" s="20">
         <v>792.19</v>
       </c>
       <c r="D219" s="2">
@@ -17528,12 +18662,12 @@
       <c r="E219" s="2">
         <v>10.3581</v>
       </c>
-      <c r="F219" s="27">
+      <c r="F219" s="25">
         <v>110.73</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="28">
+      <c r="A220" s="26">
         <v>41671</v>
       </c>
       <c r="B220" s="1">
@@ -17549,12 +18683,12 @@
       <c r="E220" s="2">
         <v>10.810499999999999</v>
       </c>
-      <c r="F220" s="27">
+      <c r="F220" s="25">
         <v>108.35</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="28">
+      <c r="A221" s="26">
         <v>41699</v>
       </c>
       <c r="B221" s="1">
@@ -17570,12 +18704,12 @@
       <c r="E221" s="2">
         <v>11.0054</v>
       </c>
-      <c r="F221" s="27">
+      <c r="F221" s="25">
         <v>108.87</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="28">
+      <c r="A222" s="26">
         <v>41730</v>
       </c>
       <c r="B222" s="1">
@@ -17591,12 +18725,12 @@
       <c r="E222" s="2">
         <v>10.769500000000001</v>
       </c>
-      <c r="F222" s="27">
+      <c r="F222" s="25">
         <v>107.67</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="28">
+      <c r="A223" s="26">
         <v>41760</v>
       </c>
       <c r="B223" s="1">
@@ -17612,15 +18746,15 @@
       <c r="E223" s="2">
         <v>10.557600000000001</v>
       </c>
-      <c r="F223" s="27">
+      <c r="F223" s="25">
         <v>108.31</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="28">
+      <c r="A224" s="26">
         <v>41791</v>
       </c>
-      <c r="B224" s="21">
+      <c r="B224" s="19">
         <v>1361</v>
       </c>
       <c r="C224" s="2">
@@ -17633,12 +18767,12 @@
       <c r="E224" s="2">
         <v>10.404199999999999</v>
       </c>
-      <c r="F224" s="27">
+      <c r="F224" s="25">
         <v>109.69</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="28">
+      <c r="A225" s="26">
         <v>41821</v>
       </c>
       <c r="B225" s="1">
@@ -17654,12 +18788,12 @@
       <c r="E225" s="2">
         <v>10.674300000000001</v>
       </c>
-      <c r="F225" s="27">
+      <c r="F225" s="25">
         <v>111.62</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="28">
+      <c r="A226" s="26">
         <v>41852</v>
       </c>
       <c r="B226" s="1">
@@ -17675,12 +18809,12 @@
       <c r="E226" s="2">
         <v>10.6609</v>
       </c>
-      <c r="F226" s="27">
+      <c r="F226" s="25">
         <v>106.64</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="28">
+      <c r="A227" s="26">
         <v>41883</v>
       </c>
       <c r="B227" s="1">
@@ -17696,12 +18830,12 @@
       <c r="E227" s="2">
         <v>10.678100000000001</v>
       </c>
-      <c r="F227" s="27">
+      <c r="F227" s="25">
         <v>101.57</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="28">
+      <c r="A228" s="26">
         <v>41913</v>
       </c>
       <c r="B228" s="1">
@@ -17717,12 +18851,12 @@
       <c r="E228" s="2">
         <v>10.678100000000001</v>
       </c>
-      <c r="F228" s="27">
+      <c r="F228" s="25">
         <v>97.73</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="28">
+      <c r="A229" s="26">
         <v>41944</v>
       </c>
       <c r="B229" s="1">
@@ -17738,12 +18872,12 @@
       <c r="E229" s="2">
         <v>11.1004</v>
       </c>
-      <c r="F229" s="27">
+      <c r="F229" s="25">
         <v>87.54</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="28">
+      <c r="A230" s="26">
         <v>41974</v>
       </c>
       <c r="B230" s="1">
@@ -17759,12 +18893,12 @@
       <c r="E230" s="2">
         <v>11.0969</v>
       </c>
-      <c r="F230" s="27">
+      <c r="F230" s="25">
         <v>79.75</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="28">
+      <c r="A231" s="26">
         <v>42005</v>
       </c>
       <c r="B231" s="1">
@@ -17780,12 +18914,12 @@
       <c r="E231" s="2">
         <v>11.4749</v>
       </c>
-      <c r="F231" s="27">
+      <c r="F231" s="25">
         <v>54.98</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="28">
+      <c r="A232" s="26">
         <v>42036</v>
       </c>
       <c r="B232" s="1">
@@ -17801,12 +18935,12 @@
       <c r="E232" s="2">
         <v>11.5777</v>
       </c>
-      <c r="F232" s="27">
+      <c r="F232" s="25">
         <v>48.2</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="28">
+      <c r="A233" s="26">
         <v>42064</v>
       </c>
       <c r="B233" s="1">
@@ -17822,12 +18956,12 @@
       <c r="E233" s="2">
         <v>11.589</v>
       </c>
-      <c r="F233" s="27">
+      <c r="F233" s="25">
         <v>57.93</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="28">
+      <c r="A234" s="26">
         <v>42095</v>
       </c>
       <c r="B234" s="1">
@@ -17843,12 +18977,12 @@
       <c r="E234" s="2">
         <v>12.042299999999999</v>
       </c>
-      <c r="F234" s="27">
+      <c r="F234" s="25">
         <v>56.11</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="28">
+      <c r="A235" s="26">
         <v>42125</v>
       </c>
       <c r="B235" s="1">
@@ -17864,12 +18998,12 @@
       <c r="E235" s="2">
         <v>12.0459</v>
       </c>
-      <c r="F235" s="27">
+      <c r="F235" s="25">
         <v>59.01</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="28">
+      <c r="A236" s="26">
         <v>42156</v>
       </c>
       <c r="B236" s="1">
@@ -17885,12 +19019,12 @@
       <c r="E236" s="2">
         <v>11.945399999999999</v>
       </c>
-      <c r="F236" s="27">
+      <c r="F236" s="25">
         <v>64.36</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="28">
+      <c r="A237" s="26">
         <v>42186</v>
       </c>
       <c r="B237" s="1">
@@ -17906,12 +19040,12 @@
       <c r="E237" s="2">
         <v>12.319599999999999</v>
       </c>
-      <c r="F237" s="27">
+      <c r="F237" s="25">
         <v>61.94</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="28">
+      <c r="A238" s="26">
         <v>42217</v>
       </c>
       <c r="B238" s="1">
@@ -17927,12 +19061,12 @@
       <c r="E238" s="2">
         <v>12.412800000000001</v>
       </c>
-      <c r="F238" s="27">
+      <c r="F238" s="25">
         <v>56.72</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="28">
+      <c r="A239" s="26">
         <v>42248</v>
       </c>
       <c r="B239" s="1">
@@ -17948,12 +19082,12 @@
       <c r="E239" s="2">
         <v>12.860900000000001</v>
       </c>
-      <c r="F239" s="27">
+      <c r="F239" s="25">
         <v>46.56</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="28">
+      <c r="A240" s="26">
         <v>42278</v>
       </c>
       <c r="B240" s="1">
@@ -17969,12 +19103,12 @@
       <c r="E240" s="2">
         <v>13.788399999999999</v>
       </c>
-      <c r="F240" s="27">
+      <c r="F240" s="25">
         <v>47.79</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="28">
+      <c r="A241" s="26">
         <v>42309</v>
       </c>
       <c r="B241" s="1">
@@ -17990,12 +19124,12 @@
       <c r="E241" s="2">
         <v>13.4734</v>
       </c>
-      <c r="F241" s="27">
+      <c r="F241" s="25">
         <v>48.58</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="28">
+      <c r="A242" s="26">
         <v>42339</v>
       </c>
       <c r="B242" s="1">
@@ -18011,12 +19145,12 @@
       <c r="E242" s="2">
         <v>14.0938</v>
       </c>
-      <c r="F242" s="27">
+      <c r="F242" s="25">
         <v>44.33</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="28">
+      <c r="A243" s="26">
         <v>42370</v>
       </c>
       <c r="B243" s="1">
@@ -18032,12 +19166,12 @@
       <c r="E243" s="2">
         <v>14.8819</v>
       </c>
-      <c r="F243" s="27">
+      <c r="F243" s="25">
         <v>38.22</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="28">
+      <c r="A244" s="26">
         <v>42401</v>
       </c>
       <c r="B244" s="1">
@@ -18053,12 +19187,12 @@
       <c r="E244" s="2">
         <v>16.3276</v>
       </c>
-      <c r="F244" s="27">
+      <c r="F244" s="25">
         <v>30.83</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="28">
+      <c r="A245" s="26">
         <v>42430</v>
       </c>
       <c r="B245" s="1">
@@ -18074,12 +19208,12 @@
       <c r="E245" s="2">
         <v>15.783200000000001</v>
       </c>
-      <c r="F245" s="27">
+      <c r="F245" s="25">
         <v>32.11</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="28">
+      <c r="A246" s="26">
         <v>42461</v>
       </c>
       <c r="B246" s="1">
@@ -18095,12 +19229,12 @@
       <c r="E246" s="2">
         <v>15.4655</v>
       </c>
-      <c r="F246" s="27">
+      <c r="F246" s="25">
         <v>38.49</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="28">
+      <c r="A247" s="26">
         <v>42491</v>
       </c>
       <c r="B247" s="1">
@@ -18116,12 +19250,12 @@
       <c r="E247" s="2">
         <v>14.6477</v>
       </c>
-      <c r="F247" s="27">
+      <c r="F247" s="25">
         <v>41.28</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="28">
+      <c r="A248" s="26">
         <v>42522</v>
       </c>
       <c r="B248" s="1">
@@ -18137,12 +19271,12 @@
       <c r="E248" s="2">
         <v>15.204800000000001</v>
       </c>
-      <c r="F248" s="27">
+      <c r="F248" s="25">
         <v>46.56</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="28">
+      <c r="A249" s="26">
         <v>42552</v>
       </c>
       <c r="B249" s="1">
@@ -18158,12 +19292,12 @@
       <c r="E249" s="2">
         <v>15.1553</v>
       </c>
-      <c r="F249" s="27">
+      <c r="F249" s="25">
         <v>48.34</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="28">
+      <c r="A250" s="26">
         <v>42583</v>
       </c>
       <c r="B250" s="1">
@@ -18179,12 +19313,12 @@
       <c r="E250" s="2">
         <v>14.4407</v>
       </c>
-      <c r="F250" s="27">
+      <c r="F250" s="25">
         <v>45.28</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="28">
+      <c r="A251" s="26">
         <v>42614</v>
       </c>
       <c r="B251" s="1">
@@ -18200,12 +19334,12 @@
       <c r="E251" s="2">
         <v>13.801600000000001</v>
       </c>
-      <c r="F251" s="27">
+      <c r="F251" s="25">
         <v>45.94</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="28">
+      <c r="A252" s="26">
         <v>42644</v>
       </c>
       <c r="B252" s="1">
@@ -18221,12 +19355,12 @@
       <c r="E252" s="2">
         <v>14.005699999999999</v>
       </c>
-      <c r="F252" s="27">
+      <c r="F252" s="25">
         <v>46.6</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="28">
+      <c r="A253" s="26">
         <v>42675</v>
       </c>
       <c r="B253" s="1">
@@ -18242,18 +19376,18 @@
       <c r="E253" s="2">
         <v>13.964600000000001</v>
       </c>
-      <c r="F253" s="27">
+      <c r="F253" s="25">
         <v>49.86</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="28">
+      <c r="A254" s="26">
         <v>42705</v>
       </c>
       <c r="B254" s="1">
         <v>1237</v>
       </c>
-      <c r="C254" s="23">
+      <c r="C254" s="21">
         <v>543.87</v>
       </c>
       <c r="D254" s="2">
@@ -18263,12 +19397,12 @@
       <c r="E254" s="2">
         <v>13.9125</v>
       </c>
-      <c r="F254" s="27">
+      <c r="F254" s="25">
         <v>52.48</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="28">
+      <c r="A255" s="26">
         <v>42736</v>
       </c>
       <c r="B255" s="1">
@@ -18284,15 +19418,15 @@
       <c r="E255" s="2">
         <v>13.8704</v>
       </c>
-      <c r="F255" s="27">
+      <c r="F255" s="25">
         <v>53.45</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="31"/>
+      <c r="A257" s="29"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="31"/>
+      <c r="A259" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/seed_csv/fuel_data.xlsx
+++ b/db/seed_csv/fuel_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="-17720" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="9180" windowWidth="28800" windowHeight="8740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -422,6 +422,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5213,11 +5214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40262304"/>
-        <c:axId val="14811936"/>
+        <c:axId val="1388845440"/>
+        <c:axId val="1488984832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="40262304"/>
+        <c:axId val="1388845440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5249,6 +5250,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5315,14 +5317,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14811936"/>
+        <c:crossAx val="1488984832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="14811936"/>
+        <c:axId val="1488984832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1450.0"/>
@@ -5370,6 +5372,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5429,7 +5432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40262304"/>
+        <c:crossAx val="1388845440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5443,6 +5446,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6345,11 +6349,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U259"/>
+  <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14024,6 +14028,331 @@
         <v>17</v>
       </c>
     </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A260" s="16">
+        <v>42887</v>
+      </c>
+      <c r="B260" s="1">
+        <v>1305</v>
+      </c>
+      <c r="C260">
+        <v>572.66999999999996</v>
+      </c>
+      <c r="D260">
+        <v>13.258699999999999</v>
+      </c>
+      <c r="E260">
+        <v>50.06</v>
+      </c>
+      <c r="F260">
+        <v>572.66999999999996</v>
+      </c>
+      <c r="G260">
+        <v>315</v>
+      </c>
+      <c r="H260">
+        <v>4</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>163</v>
+      </c>
+      <c r="K260">
+        <v>41.5</v>
+      </c>
+      <c r="L260">
+        <v>0.33</v>
+      </c>
+      <c r="M260">
+        <v>35.6</v>
+      </c>
+      <c r="N260">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O260">
+        <v>17.3</v>
+      </c>
+      <c r="P260">
+        <v>176.4</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="S260">
+        <v>10</v>
+      </c>
+      <c r="T260" t="s">
+        <v>18</v>
+      </c>
+      <c r="U260" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A261" s="16">
+        <v>42917</v>
+      </c>
+      <c r="B261" s="1">
+        <v>1237</v>
+      </c>
+      <c r="C261">
+        <v>504.67</v>
+      </c>
+      <c r="D261">
+        <v>12.8756</v>
+      </c>
+      <c r="E261" s="2">
+        <v>46.48</v>
+      </c>
+      <c r="F261">
+        <v>504.67</v>
+      </c>
+      <c r="G261">
+        <v>315</v>
+      </c>
+      <c r="H261">
+        <v>4</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>163</v>
+      </c>
+      <c r="K261">
+        <v>41.5</v>
+      </c>
+      <c r="L261">
+        <v>0.33</v>
+      </c>
+      <c r="M261">
+        <v>35.6</v>
+      </c>
+      <c r="N261">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O261">
+        <v>17.3</v>
+      </c>
+      <c r="P261">
+        <v>176.4</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>0</v>
+      </c>
+      <c r="S261">
+        <v>10</v>
+      </c>
+      <c r="T261" t="s">
+        <v>18</v>
+      </c>
+      <c r="U261" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A262" s="16">
+        <v>42948</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1256</v>
+      </c>
+      <c r="C262">
+        <v>523.66999999999996</v>
+      </c>
+      <c r="D262">
+        <v>13.15</v>
+      </c>
+      <c r="E262" s="2">
+        <v>48.23</v>
+      </c>
+      <c r="F262">
+        <v>523.66999999999996</v>
+      </c>
+      <c r="G262">
+        <v>315</v>
+      </c>
+      <c r="H262">
+        <v>4</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>163</v>
+      </c>
+      <c r="K262">
+        <v>41.5</v>
+      </c>
+      <c r="L262">
+        <v>0.33</v>
+      </c>
+      <c r="M262">
+        <v>35.6</v>
+      </c>
+      <c r="N262">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O262">
+        <v>17.3</v>
+      </c>
+      <c r="P262">
+        <v>176.4</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <v>10</v>
+      </c>
+      <c r="T262" t="s">
+        <v>18</v>
+      </c>
+      <c r="U262" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A263" s="16">
+        <v>42979</v>
+      </c>
+      <c r="B263" s="1">
+        <v>1323</v>
+      </c>
+      <c r="C263">
+        <v>586.07000000000005</v>
+      </c>
+      <c r="D263" s="2">
+        <v>13.215199999999999</v>
+      </c>
+      <c r="E263" s="2">
+        <v>51.66</v>
+      </c>
+      <c r="F263">
+        <v>586.07000000000005</v>
+      </c>
+      <c r="G263">
+        <v>315</v>
+      </c>
+      <c r="H263">
+        <v>4</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>163</v>
+      </c>
+      <c r="K263">
+        <v>41.5</v>
+      </c>
+      <c r="L263">
+        <v>0.33</v>
+      </c>
+      <c r="M263">
+        <v>35.6</v>
+      </c>
+      <c r="N263">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O263">
+        <v>17.3</v>
+      </c>
+      <c r="P263">
+        <v>181</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <v>10</v>
+      </c>
+      <c r="T263" t="s">
+        <v>18</v>
+      </c>
+      <c r="U263" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A264" s="16">
+        <v>43009</v>
+      </c>
+      <c r="B264" s="1">
+        <v>1352</v>
+      </c>
+      <c r="C264">
+        <v>615.07000000000005</v>
+      </c>
+      <c r="D264">
+        <v>13.1317</v>
+      </c>
+      <c r="E264" s="2">
+        <v>55.99</v>
+      </c>
+      <c r="F264">
+        <v>615.07000000000005</v>
+      </c>
+      <c r="G264">
+        <v>315</v>
+      </c>
+      <c r="H264">
+        <v>4</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>163</v>
+      </c>
+      <c r="K264">
+        <v>41.5</v>
+      </c>
+      <c r="L264">
+        <v>0.33</v>
+      </c>
+      <c r="M264">
+        <v>35.6</v>
+      </c>
+      <c r="N264">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O264">
+        <v>17.3</v>
+      </c>
+      <c r="P264">
+        <v>181</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <v>10</v>
+      </c>
+      <c r="T264" t="s">
+        <v>18</v>
+      </c>
+      <c r="U264" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14034,7 +14363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>

--- a/db/seed_csv/fuel_data.xlsx
+++ b/db/seed_csv/fuel_data.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russellkingwill/Projects/Russ/fuel/db/seed_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA0800B-494F-FC46-BF21-E7D1AFBC313A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -120,7 +121,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +174,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="6">
@@ -268,7 +275,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -346,12 +353,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6364,11 +6381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U268"/>
+  <dimension ref="A1:U269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6378,7 +6395,7 @@
     <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -6472,7 +6489,7 @@
       <c r="D2" s="2">
         <v>3.6655000000000002</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="28">
         <v>17.93</v>
       </c>
       <c r="T2" t="s">
@@ -6495,7 +6512,7 @@
       <c r="D3" s="5">
         <v>3.6419000000000001</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="28">
         <v>17.79</v>
       </c>
       <c r="T3" t="s">
@@ -6518,7 +6535,7 @@
       <c r="D4" s="5">
         <v>3.7484000000000002</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>17.690000000000001</v>
       </c>
       <c r="T4" t="s">
@@ -6541,7 +6558,7 @@
       <c r="D5" s="5">
         <v>3.93</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <v>19.46</v>
       </c>
       <c r="T5" t="s">
@@ -6564,7 +6581,7 @@
       <c r="D6" s="5">
         <v>4.2176</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>20.78</v>
       </c>
       <c r="T6" t="s">
@@ -6587,7 +6604,7 @@
       <c r="D7" s="5">
         <v>4.3784000000000001</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>19.12</v>
       </c>
       <c r="T7" t="s">
@@ -6610,7 +6627,7 @@
       <c r="D8" s="5">
         <v>4.3517000000000001</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>18.559999999999999</v>
       </c>
       <c r="T8" t="s">
@@ -6633,7 +6650,7 @@
       <c r="D9" s="5">
         <v>4.3891</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="28">
         <v>19.559999999999999</v>
       </c>
       <c r="T9" t="s">
@@ -6656,7 +6673,7 @@
       <c r="D10" s="5">
         <v>4.5263</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>20.190000000000001</v>
       </c>
       <c r="T10" t="s">
@@ -6679,7 +6696,7 @@
       <c r="D11" s="5">
         <v>4.4996</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="28">
         <v>22.14</v>
       </c>
       <c r="T11" t="s">
@@ -6702,7 +6719,7 @@
       <c r="D12" s="5">
         <v>4.5749000000000004</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>23.43</v>
       </c>
       <c r="T12" t="s">
@@ -6725,7 +6742,7 @@
       <c r="D13" s="5">
         <v>4.6593999999999998</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="28">
         <v>22.25</v>
       </c>
       <c r="T13" t="s">
@@ -6748,7 +6765,7 @@
       <c r="D14" s="5">
         <v>4.6845999999999997</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>23.51</v>
       </c>
       <c r="T14" t="s">
@@ -6771,7 +6788,7 @@
       <c r="D15" s="5">
         <v>4.6455000000000002</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>23.29</v>
       </c>
       <c r="T15" t="s">
@@ -6794,7 +6811,7 @@
       <c r="D16" s="5">
         <v>4.4513999999999996</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>20.54</v>
       </c>
       <c r="T16" t="s">
@@ -6817,7 +6834,7 @@
       <c r="D17" s="5">
         <v>4.4386999999999999</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="28">
         <v>19.420000000000002</v>
       </c>
       <c r="T17" t="s">
@@ -6840,7 +6857,7 @@
       <c r="D18" s="5">
         <v>4.4431000000000003</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="28">
         <v>17.98</v>
       </c>
       <c r="T18" t="s">
@@ -6863,7 +6880,7 @@
       <c r="D19" s="5">
         <v>4.4694000000000003</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="28">
         <v>19.47</v>
       </c>
       <c r="T19" t="s">
@@ -6886,7 +6903,7 @@
       <c r="D20" s="5">
         <v>4.5000999999999998</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="28">
         <v>18.02</v>
       </c>
       <c r="T20" t="s">
@@ -6909,7 +6926,7 @@
       <c r="D21" s="5">
         <v>4.5594000000000001</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="28">
         <v>18.45</v>
       </c>
       <c r="T21" t="s">
@@ -6932,7 +6949,7 @@
       <c r="D22" s="5">
         <v>4.6859999999999999</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>18.79</v>
       </c>
       <c r="T22" t="s">
@@ -6955,7 +6972,7 @@
       <c r="D23" s="5">
         <v>4.6923000000000004</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <v>18.73</v>
       </c>
       <c r="T23" t="s">
@@ -6978,7 +6995,7 @@
       <c r="D24" s="5">
         <v>4.7121000000000004</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <v>20.12</v>
       </c>
       <c r="T24" t="s">
@@ -7001,7 +7018,7 @@
       <c r="D25" s="5">
         <v>4.8380000000000001</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="28">
         <v>19.16</v>
       </c>
       <c r="T25" t="s">
@@ -7024,7 +7041,7 @@
       <c r="D26" s="5">
         <v>4.8719999999999999</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>17.239999999999998</v>
       </c>
       <c r="T26" t="s">
@@ -7047,7 +7064,7 @@
       <c r="D27" s="5">
         <v>4.9410999999999996</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="28">
         <v>15.07</v>
       </c>
       <c r="T27" t="s">
@@ -7070,7 +7087,7 @@
       <c r="D28" s="5">
         <v>4.9371999999999998</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>14.18</v>
       </c>
       <c r="T28" t="s">
@@ -7093,7 +7110,7 @@
       <c r="D29" s="5">
         <v>4.9728000000000003</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <v>13.24</v>
       </c>
       <c r="T29" t="s">
@@ -7116,7 +7133,7 @@
       <c r="D30" s="5">
         <v>5.0479000000000003</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="28">
         <v>13.39</v>
       </c>
       <c r="T30" t="s">
@@ -7139,7 +7156,7 @@
       <c r="D31" s="5">
         <v>5.0938999999999997</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="28">
         <v>13.97</v>
       </c>
       <c r="T31" t="s">
@@ -7162,7 +7179,7 @@
       <c r="D32" s="5">
         <v>5.3735999999999997</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>12.48</v>
       </c>
       <c r="T32" t="s">
@@ -7185,7 +7202,7 @@
       <c r="D33" s="5">
         <v>6.2595000000000001</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="28">
         <v>12.72</v>
       </c>
       <c r="T33" t="s">
@@ -7208,7 +7225,7 @@
       <c r="D34" s="5">
         <v>6.3402000000000003</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="28">
         <v>12.49</v>
       </c>
       <c r="T34" t="s">
@@ -7231,7 +7248,7 @@
       <c r="D35" s="5">
         <v>6.1382000000000003</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="28">
         <v>13.8</v>
       </c>
       <c r="T35" t="s">
@@ -7254,7 +7271,7 @@
       <c r="D36" s="5">
         <v>5.8163999999999998</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="28">
         <v>13.26</v>
       </c>
       <c r="T36" t="s">
@@ -7277,7 +7294,7 @@
       <c r="D37" s="5">
         <v>5.6677</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="28">
         <v>11.88</v>
       </c>
       <c r="T37" t="s">
@@ -7300,7 +7317,7 @@
       <c r="D38" s="5">
         <v>5.8998999999999997</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="28">
         <v>10.41</v>
       </c>
       <c r="T38" t="s">
@@ -7323,7 +7340,7 @@
       <c r="D39" s="6">
         <v>5.9984000000000002</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="28">
         <v>11.32</v>
       </c>
       <c r="T39" t="s">
@@ -7346,7 +7363,7 @@
       <c r="D40" s="7">
         <v>6.1239999999999997</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="28">
         <v>10.75</v>
       </c>
       <c r="T40" t="s">
@@ -7369,7 +7386,7 @@
       <c r="D41" s="7">
         <v>6.2190000000000003</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="28">
         <v>12.86</v>
       </c>
       <c r="T41" t="s">
@@ -7392,7 +7409,7 @@
       <c r="D42" s="7">
         <v>6.1250999999999998</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="28">
         <v>15.73</v>
       </c>
       <c r="T42" t="s">
@@ -7415,7 +7432,7 @@
       <c r="D43" s="7">
         <v>6.1901999999999999</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="28">
         <v>16.12</v>
       </c>
       <c r="T43" t="s">
@@ -7438,7 +7455,7 @@
       <c r="D44" s="7">
         <v>6.0983000000000001</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="28">
         <v>16.239999999999998</v>
       </c>
       <c r="T44" t="s">
@@ -7461,7 +7478,7 @@
       <c r="D45" s="7">
         <v>6.1157000000000004</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="28">
         <v>18.75</v>
       </c>
       <c r="T45" t="s">
@@ -7484,7 +7501,7 @@
       <c r="D46" s="7">
         <v>6.1349999999999998</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="28">
         <v>20.21</v>
       </c>
       <c r="T46" t="s">
@@ -7507,7 +7524,7 @@
       <c r="D47" s="7">
         <v>6.0654000000000003</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="28">
         <v>22.37</v>
       </c>
       <c r="T47" t="s">
@@ -7530,7 +7547,7 @@
       <c r="D48" s="7">
         <v>6.0991999999999997</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="28">
         <v>22.19</v>
       </c>
       <c r="T48" t="s">
@@ -7553,7 +7570,7 @@
       <c r="D49" s="8">
         <v>6.1294000000000004</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="28">
         <v>24.22</v>
       </c>
       <c r="T49" t="s">
@@ -7576,7 +7593,7 @@
       <c r="D50" s="7">
         <v>6.1513</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="28">
         <v>25.01</v>
       </c>
       <c r="T50" t="s">
@@ -7599,7 +7616,7 @@
       <c r="D51" s="7">
         <v>6.125</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <v>25.21</v>
       </c>
       <c r="T51" t="s">
@@ -7622,7 +7639,7 @@
       <c r="D52" s="7">
         <v>6.3212000000000002</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="28">
         <v>27.15</v>
       </c>
       <c r="T52" t="s">
@@ -7645,7 +7662,7 @@
       <c r="D53" s="7">
         <v>6.4665999999999997</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="28">
         <v>27.49</v>
       </c>
       <c r="T53" t="s">
@@ -7668,7 +7685,7 @@
       <c r="D54" s="7">
         <v>6.6182999999999996</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="28">
         <v>23.45</v>
       </c>
       <c r="T54" t="s">
@@ -7691,7 +7708,7 @@
       <c r="D55" s="7">
         <v>7.0354000000000001</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="28">
         <v>27.23</v>
       </c>
       <c r="T55" t="s">
@@ -7714,7 +7731,7 @@
       <c r="D56" s="7">
         <v>6.9343000000000004</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="28">
         <v>29.62</v>
       </c>
       <c r="T56" t="s">
@@ -7737,7 +7754,7 @@
       <c r="D57" s="7">
         <v>6.8833000000000002</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <v>28.16</v>
       </c>
       <c r="T57" t="s">
@@ -7760,7 +7777,7 @@
       <c r="D58" s="7">
         <v>6.9577999999999998</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="28">
         <v>29.41</v>
       </c>
       <c r="T58" t="s">
@@ -7783,7 +7800,7 @@
       <c r="D59" s="7">
         <v>7.1687000000000003</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E59" s="28">
         <v>32.08</v>
       </c>
       <c r="T59" t="s">
@@ -7806,7 +7823,7 @@
       <c r="D60" s="7">
         <v>7.4745999999999997</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="28">
         <v>31.4</v>
       </c>
       <c r="T60" t="s">
@@ -7829,7 +7846,7 @@
       <c r="D61" s="7">
         <v>7.6825999999999999</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="28">
         <v>32.33</v>
       </c>
       <c r="T61" t="s">
@@ -7852,7 +7869,7 @@
       <c r="D62" s="7">
         <v>7.6501000000000001</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="28">
         <v>25.28</v>
       </c>
       <c r="T62" t="s">
@@ -7875,7 +7892,7 @@
       <c r="D63" s="7">
         <v>7.7870999999999997</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <v>25.95</v>
       </c>
       <c r="T63" t="s">
@@ -7898,7 +7915,7 @@
       <c r="D64" s="7">
         <v>7.8197999999999999</v>
       </c>
-      <c r="E64" s="30">
+      <c r="E64" s="28">
         <v>27.24</v>
       </c>
       <c r="T64" t="s">
@@ -7921,7 +7938,7 @@
       <c r="D65" s="7">
         <v>7.8895</v>
       </c>
-      <c r="E65" s="30">
+      <c r="E65" s="28">
         <v>25.02</v>
       </c>
       <c r="T65" t="s">
@@ -7944,7 +7961,7 @@
       <c r="D66" s="7">
         <v>8.0969999999999995</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="28">
         <v>25.66</v>
       </c>
       <c r="T66" t="s">
@@ -7967,7 +7984,7 @@
       <c r="D67" s="7">
         <v>7.9766000000000004</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="28">
         <v>27.55</v>
       </c>
       <c r="T67" t="s">
@@ -7990,7 +8007,7 @@
       <c r="D68" s="7">
         <v>8.0610999999999997</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E68" s="28">
         <v>26.97</v>
       </c>
       <c r="T68" t="s">
@@ -8013,7 +8030,7 @@
       <c r="D69" s="7">
         <v>8.2020999999999997</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <v>24.8</v>
       </c>
       <c r="T69" t="s">
@@ -8036,7 +8053,7 @@
       <c r="D70" s="7">
         <v>8.3152000000000008</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="28">
         <v>25.81</v>
       </c>
       <c r="T70" t="s">
@@ -8059,7 +8076,7 @@
       <c r="D71" s="7">
         <v>8.6372</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="28">
         <v>25.03</v>
       </c>
       <c r="T71" t="s">
@@ -8082,7 +8099,7 @@
       <c r="D72" s="8">
         <v>9.2388999999999992</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="28">
         <v>20.73</v>
       </c>
       <c r="T72" t="s">
@@ -8105,7 +8122,7 @@
       <c r="D73" s="7">
         <v>9.7263000000000002</v>
       </c>
-      <c r="E73" s="30">
+      <c r="E73" s="28">
         <v>18.690000000000001</v>
       </c>
       <c r="T73" t="s">
@@ -8128,7 +8145,7 @@
       <c r="D74" s="7">
         <v>11.6157</v>
       </c>
-      <c r="E74" s="30">
+      <c r="E74" s="28">
         <v>18.52</v>
       </c>
       <c r="T74" t="s">
@@ -8151,7 +8168,7 @@
       <c r="D75" s="7">
         <v>11.632899999999999</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <v>19.149999999999999</v>
       </c>
       <c r="T75" t="s">
@@ -8174,7 +8191,7 @@
       <c r="D76" s="7">
         <v>11.509600000000001</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="28">
         <v>19.98</v>
       </c>
       <c r="T76" t="s">
@@ -8197,7 +8214,7 @@
       <c r="D77" s="7">
         <v>11.533899999999999</v>
       </c>
-      <c r="E77" s="30">
+      <c r="E77" s="28">
         <v>23.64</v>
       </c>
       <c r="T77" t="s">
@@ -8220,7 +8237,7 @@
       <c r="D78" s="7">
         <v>11.0886</v>
       </c>
-      <c r="E78" s="30">
+      <c r="E78" s="28">
         <v>25.43</v>
       </c>
       <c r="T78" t="s">
@@ -8243,7 +8260,7 @@
       <c r="D79" s="7">
         <v>10.159800000000001</v>
       </c>
-      <c r="E79" s="30">
+      <c r="E79" s="28">
         <v>25.69</v>
       </c>
       <c r="T79" t="s">
@@ -8266,7 +8283,7 @@
       <c r="D80" s="7">
         <v>10.1496</v>
       </c>
-      <c r="E80" s="30">
+      <c r="E80" s="28">
         <v>24.49</v>
       </c>
       <c r="T80" t="s">
@@ -8289,7 +8306,7 @@
       <c r="D81" s="7">
         <v>10.1189</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <v>25.75</v>
       </c>
       <c r="T81" t="s">
@@ -8312,7 +8329,7 @@
       <c r="D82" s="7">
         <v>10.6065</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="28">
         <v>26.78</v>
       </c>
       <c r="T82" t="s">
@@ -8335,7 +8352,7 @@
       <c r="D83" s="7">
         <v>10.611599999999999</v>
       </c>
-      <c r="E83" s="30">
+      <c r="E83" s="28">
         <v>28.28</v>
       </c>
       <c r="T83" t="s">
@@ -8358,7 +8375,7 @@
       <c r="D84" s="7">
         <v>10.333500000000001</v>
       </c>
-      <c r="E84" s="30">
+      <c r="E84" s="28">
         <v>27.53</v>
       </c>
       <c r="T84" t="s">
@@ -8381,7 +8398,7 @@
       <c r="D85" s="7">
         <v>9.6580999999999992</v>
       </c>
-      <c r="E85" s="30">
+      <c r="E85" s="28">
         <v>24.79</v>
       </c>
       <c r="T85" t="s">
@@ -8404,7 +8421,7 @@
       <c r="D86" s="7">
         <v>8.9741</v>
       </c>
-      <c r="E86" s="30">
+      <c r="E86" s="28">
         <v>27.89</v>
       </c>
       <c r="T86" t="s">
@@ -8427,7 +8444,7 @@
       <c r="D87" s="8">
         <v>8.6913999999999998</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <v>30.77</v>
       </c>
       <c r="T87" t="s">
@@ -8450,7 +8467,7 @@
       <c r="D88" s="7">
         <v>8.3265999999999991</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="28">
         <v>32.880000000000003</v>
       </c>
       <c r="T88" t="s">
@@ -8473,7 +8490,7 @@
       <c r="D89" s="7">
         <v>8.0680999999999994</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="28">
         <v>30.36</v>
       </c>
       <c r="T89" t="s">
@@ -8496,7 +8513,7 @@
       <c r="D90" s="7">
         <v>7.7380000000000004</v>
       </c>
-      <c r="E90" s="30">
+      <c r="E90" s="28">
         <v>25.49</v>
       </c>
       <c r="T90" t="s">
@@ -8519,7 +8536,7 @@
       <c r="D91" s="7">
         <v>7.7009999999999996</v>
       </c>
-      <c r="E91" s="30">
+      <c r="E91" s="28">
         <v>26.06</v>
       </c>
       <c r="T91" t="s">
@@ -8542,7 +8559,7 @@
       <c r="D92" s="7">
         <v>7.9340999999999999</v>
       </c>
-      <c r="E92" s="30">
+      <c r="E92" s="28">
         <v>27.91</v>
       </c>
       <c r="T92" t="s">
@@ -8565,7 +8582,7 @@
       <c r="D93" s="7">
         <v>7.5724</v>
       </c>
-      <c r="E93" s="30">
+      <c r="E93" s="28">
         <v>28.59</v>
       </c>
       <c r="T93" t="s">
@@ -8588,7 +8605,7 @@
       <c r="D94" s="7">
         <v>7.4169</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="28">
         <v>29.68</v>
       </c>
       <c r="T94" t="s">
@@ -8611,7 +8628,7 @@
       <c r="D95" s="7">
         <v>7.3509000000000002</v>
       </c>
-      <c r="E95" s="30">
+      <c r="E95" s="28">
         <v>26.88</v>
       </c>
       <c r="T95" t="s">
@@ -8634,7 +8651,7 @@
       <c r="D96" s="7">
         <v>6.9919000000000002</v>
       </c>
-      <c r="E96" s="30">
+      <c r="E96" s="28">
         <v>29.01</v>
       </c>
       <c r="T96" t="s">
@@ -8657,7 +8674,7 @@
       <c r="D97" s="7">
         <v>6.7615999999999996</v>
       </c>
-      <c r="E97" s="30">
+      <c r="E97" s="28">
         <v>29.12</v>
       </c>
       <c r="T97" t="s">
@@ -8680,7 +8697,7 @@
       <c r="D98" s="7">
         <v>6.5415000000000001</v>
       </c>
-      <c r="E98" s="30">
+      <c r="E98" s="28">
         <v>29.95</v>
       </c>
       <c r="T98" t="s">
@@ -8703,7 +8720,7 @@
       <c r="D99" s="7">
         <v>6.9733999999999998</v>
       </c>
-      <c r="E99" s="30">
+      <c r="E99" s="28">
         <v>31.4</v>
       </c>
       <c r="T99" t="s">
@@ -8726,7 +8743,7 @@
       <c r="D100" s="7">
         <v>6.7911000000000001</v>
       </c>
-      <c r="E100" s="30">
+      <c r="E100" s="28">
         <v>31.32</v>
       </c>
       <c r="T100" t="s">
@@ -8749,7 +8766,7 @@
       <c r="D101" s="7">
         <v>6.6553000000000004</v>
       </c>
-      <c r="E101" s="30">
+      <c r="E101" s="28">
         <v>33.67</v>
       </c>
       <c r="T101" t="s">
@@ -8772,7 +8789,7 @@
       <c r="D102" s="7">
         <v>6.5616000000000003</v>
       </c>
-      <c r="E102" s="30">
+      <c r="E102" s="28">
         <v>33.71</v>
       </c>
       <c r="T102" t="s">
@@ -8795,7 +8812,7 @@
       <c r="D103" s="7">
         <v>6.8095999999999997</v>
       </c>
-      <c r="E103" s="30">
+      <c r="E103" s="28">
         <v>37.630000000000003</v>
       </c>
       <c r="T103" t="s">
@@ -8818,7 +8835,7 @@
       <c r="D104" s="7">
         <v>6.4664999999999999</v>
       </c>
-      <c r="E104" s="30">
+      <c r="E104" s="28">
         <v>35.54</v>
       </c>
       <c r="T104" t="s">
@@ -8841,7 +8858,7 @@
       <c r="D105" s="7">
         <v>6.1573000000000002</v>
       </c>
-      <c r="E105" s="30">
+      <c r="E105" s="28">
         <v>37.93</v>
       </c>
       <c r="T105" t="s">
@@ -8864,7 +8881,7 @@
       <c r="D106" s="7">
         <v>6.4760999999999997</v>
       </c>
-      <c r="E106" s="30">
+      <c r="E106" s="28">
         <v>42.08</v>
       </c>
       <c r="T106" t="s">
@@ -8887,7 +8904,7 @@
       <c r="D107" s="7">
         <v>6.5682999999999998</v>
       </c>
-      <c r="E107" s="30">
+      <c r="E107" s="28">
         <v>41.65</v>
       </c>
       <c r="T107" t="s">
@@ -8910,7 +8927,7 @@
       <c r="D108" s="7">
         <v>6.4151999999999996</v>
       </c>
-      <c r="E108" s="30">
+      <c r="E108" s="28">
         <v>46.87</v>
       </c>
       <c r="T108" t="s">
@@ -8933,7 +8950,7 @@
       <c r="D109" s="7">
         <v>6.0789999999999997</v>
       </c>
-      <c r="E109" s="30">
+      <c r="E109" s="28">
         <v>42.23</v>
       </c>
       <c r="T109" t="s">
@@ -8956,7 +8973,7 @@
       <c r="D110" s="7">
         <v>5.7510000000000003</v>
       </c>
-      <c r="E110" s="30">
+      <c r="E110" s="28">
         <v>39.090000000000003</v>
       </c>
       <c r="T110" t="s">
@@ -8979,7 +8996,7 @@
       <c r="D111" s="7">
         <v>5.9923000000000002</v>
       </c>
-      <c r="E111" s="30">
+      <c r="E111" s="28">
         <v>42.89</v>
       </c>
       <c r="T111" t="s">
@@ -9002,7 +9019,7 @@
       <c r="D112" s="7">
         <v>6.0368000000000004</v>
       </c>
-      <c r="E112" s="30">
+      <c r="E112" s="28">
         <v>44.56</v>
       </c>
       <c r="T112" t="s">
@@ -9025,7 +9042,7 @@
       <c r="D113" s="7">
         <v>6.0368000000000004</v>
       </c>
-      <c r="E113" s="30">
+      <c r="E113" s="28">
         <v>50.93</v>
       </c>
       <c r="T113" t="s">
@@ -9048,7 +9065,7 @@
       <c r="D114" s="7">
         <v>6.0442</v>
       </c>
-      <c r="E114" s="30">
+      <c r="E114" s="28">
         <v>50.64</v>
       </c>
       <c r="T114" t="s">
@@ -9071,7 +9088,7 @@
       <c r="D115" s="7">
         <v>6.1784999999999997</v>
       </c>
-      <c r="E115" s="30">
+      <c r="E115" s="28">
         <v>47.81</v>
       </c>
       <c r="T115" t="s">
@@ -9094,7 +9111,7 @@
       <c r="D116" s="7">
         <v>6.2792000000000003</v>
       </c>
-      <c r="E116" s="30">
+      <c r="E116" s="28">
         <v>53.89</v>
       </c>
       <c r="T116" t="s">
@@ -9117,7 +9134,7 @@
       <c r="D117" s="7">
         <v>6.7666000000000004</v>
       </c>
-      <c r="E117" s="30">
+      <c r="E117" s="28">
         <v>56.37</v>
       </c>
       <c r="T117" t="s">
@@ -9140,7 +9157,7 @@
       <c r="D118" s="7">
         <v>6.7262000000000004</v>
       </c>
-      <c r="E118" s="30">
+      <c r="E118" s="28">
         <v>61.87</v>
       </c>
       <c r="T118" t="s">
@@ -9163,7 +9180,7 @@
       <c r="D119" s="7">
         <v>6.4897</v>
       </c>
-      <c r="E119" s="30">
+      <c r="E119" s="28">
         <v>61.65</v>
       </c>
       <c r="T119" t="s">
@@ -9186,7 +9203,7 @@
       <c r="D120" s="7">
         <v>6.3785999999999996</v>
       </c>
-      <c r="E120" s="30">
+      <c r="E120" s="28">
         <v>58.19</v>
       </c>
       <c r="T120" t="s">
@@ -9209,7 +9226,7 @@
       <c r="D121" s="7">
         <v>6.5734000000000004</v>
       </c>
-      <c r="E121" s="30">
+      <c r="E121" s="28">
         <v>54.98</v>
       </c>
       <c r="T121" t="s">
@@ -9232,7 +9249,7 @@
       <c r="D122" s="7">
         <v>6.6750999999999996</v>
       </c>
-      <c r="E122" s="30">
+      <c r="E122" s="28">
         <v>56.47</v>
       </c>
       <c r="T122" t="s">
@@ -13718,913 +13735,978 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A255" s="16">
+    <row r="255" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="29">
         <v>42738</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255" s="30">
         <v>1285</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="31">
         <v>591.87</v>
       </c>
-      <c r="D255" s="29">
+      <c r="D255" s="32">
         <v>13.8687</v>
       </c>
-      <c r="E255" s="2">
+      <c r="E255" s="31">
         <v>53.45</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="33">
         <v>591.87</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="33">
         <v>285</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="33">
         <v>4</v>
       </c>
-      <c r="I255">
+      <c r="I255" s="33">
         <v>0</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="33">
         <v>154</v>
       </c>
-      <c r="K255">
+      <c r="K255" s="33">
         <v>41</v>
       </c>
-      <c r="L255">
+      <c r="L255" s="33">
         <v>0.33</v>
       </c>
-      <c r="M255">
+      <c r="M255" s="33">
         <v>35.6</v>
       </c>
-      <c r="N255">
+      <c r="N255" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O255">
+      <c r="O255" s="33">
         <v>17.3</v>
       </c>
-      <c r="P255">
+      <c r="P255" s="33">
         <v>176.4</v>
       </c>
-      <c r="Q255">
+      <c r="Q255" s="33">
         <v>0</v>
       </c>
-      <c r="R255">
+      <c r="R255" s="33">
         <v>0</v>
       </c>
-      <c r="S255">
+      <c r="S255" s="33">
         <v>10</v>
       </c>
-      <c r="T255" t="s">
-        <v>18</v>
-      </c>
-      <c r="U255" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A256" s="16">
+      <c r="T255" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U255" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="29">
         <v>42769</v>
       </c>
-      <c r="B256" s="28">
+      <c r="B256" s="34">
         <v>1314</v>
       </c>
-      <c r="C256" s="29">
+      <c r="C256" s="32">
         <v>620.87</v>
       </c>
-      <c r="D256" s="29">
+      <c r="D256" s="32">
         <v>13.581300000000001</v>
       </c>
-      <c r="E256" s="29">
+      <c r="E256" s="32">
         <v>54.61</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="33">
         <v>620.87</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="33">
         <v>285</v>
       </c>
-      <c r="H256">
+      <c r="H256" s="33">
         <v>4</v>
       </c>
-      <c r="I256">
+      <c r="I256" s="33">
         <v>0</v>
       </c>
-      <c r="J256">
+      <c r="J256" s="33">
         <v>154</v>
       </c>
-      <c r="K256">
+      <c r="K256" s="33">
         <v>41</v>
       </c>
-      <c r="L256">
+      <c r="L256" s="33">
         <v>0.33</v>
       </c>
-      <c r="M256">
+      <c r="M256" s="33">
         <v>35.6</v>
       </c>
-      <c r="N256">
+      <c r="N256" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O256">
+      <c r="O256" s="33">
         <v>17.3</v>
       </c>
-      <c r="P256">
+      <c r="P256" s="33">
         <v>176.4</v>
       </c>
-      <c r="Q256">
+      <c r="Q256" s="33">
         <v>0</v>
       </c>
-      <c r="R256">
+      <c r="R256" s="33">
         <v>0</v>
       </c>
-      <c r="S256">
+      <c r="S256" s="33">
         <v>10</v>
       </c>
-      <c r="T256" t="s">
-        <v>18</v>
-      </c>
-      <c r="U256" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A257" s="16">
+      <c r="T256" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U256" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="29">
         <v>42797</v>
       </c>
-      <c r="B257" s="28">
+      <c r="B257" s="34">
         <v>1306</v>
       </c>
-      <c r="C257" s="29">
+      <c r="C257" s="32">
         <v>612.87</v>
       </c>
-      <c r="D257" s="29">
+      <c r="D257" s="32">
         <v>13.289899999999999</v>
       </c>
-      <c r="E257" s="29">
+      <c r="E257" s="32">
         <v>51.91</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="33">
         <v>612.87</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="33">
         <v>285</v>
       </c>
-      <c r="H257">
+      <c r="H257" s="33">
         <v>4</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="33">
         <v>0</v>
       </c>
-      <c r="J257">
+      <c r="J257" s="33">
         <v>154</v>
       </c>
-      <c r="K257">
+      <c r="K257" s="33">
         <v>41</v>
       </c>
-      <c r="L257">
+      <c r="L257" s="33">
         <v>0.33</v>
       </c>
-      <c r="M257">
+      <c r="M257" s="33">
         <v>35.6</v>
       </c>
-      <c r="N257">
+      <c r="N257" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O257">
+      <c r="O257" s="33">
         <v>17.3</v>
       </c>
-      <c r="P257">
+      <c r="P257" s="33">
         <v>176.4</v>
       </c>
-      <c r="Q257">
+      <c r="Q257" s="33">
         <v>0</v>
       </c>
-      <c r="R257">
+      <c r="R257" s="33">
         <v>0</v>
       </c>
-      <c r="S257">
+      <c r="S257" s="33">
         <v>10</v>
       </c>
-      <c r="T257" t="s">
-        <v>18</v>
-      </c>
-      <c r="U257" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A258" s="16">
+      <c r="T257" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U257" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="29">
         <v>42828</v>
       </c>
-      <c r="B258" s="28">
+      <c r="B258" s="34">
         <v>1281</v>
       </c>
-      <c r="C258" s="29">
+      <c r="C258" s="32">
         <v>548.66999999999996</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="31">
         <v>12.9148</v>
       </c>
-      <c r="E258" s="29">
+      <c r="E258" s="32">
         <v>51.52</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="33">
         <v>548.66999999999996</v>
       </c>
-      <c r="G258">
+      <c r="G258" s="33">
         <v>315</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="33">
         <v>4</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="33">
         <v>0</v>
       </c>
-      <c r="J258">
+      <c r="J258" s="33">
         <v>163</v>
       </c>
-      <c r="K258">
+      <c r="K258" s="33">
         <v>41.5</v>
       </c>
-      <c r="L258">
+      <c r="L258" s="33">
         <v>0.33</v>
       </c>
-      <c r="M258">
+      <c r="M258" s="33">
         <v>35.6</v>
       </c>
-      <c r="N258">
+      <c r="N258" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O258">
+      <c r="O258" s="33">
         <v>17.3</v>
       </c>
-      <c r="P258">
+      <c r="P258" s="33">
         <v>176.4</v>
       </c>
-      <c r="Q258">
+      <c r="Q258" s="33">
         <v>0</v>
       </c>
-      <c r="R258">
+      <c r="R258" s="33">
         <v>0</v>
       </c>
-      <c r="S258">
+      <c r="S258" s="33">
         <v>10</v>
       </c>
-      <c r="T258" t="s">
-        <v>18</v>
-      </c>
-      <c r="U258" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A259" s="16">
+      <c r="T258" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U258" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="29">
         <v>42858</v>
       </c>
-      <c r="B259" s="28">
+      <c r="B259" s="34">
         <v>1330</v>
       </c>
-      <c r="C259" s="29">
+      <c r="C259" s="32">
         <v>597.66999999999996</v>
       </c>
-      <c r="D259" s="29">
+      <c r="D259" s="32">
         <v>13.5105</v>
       </c>
-      <c r="E259" s="29">
+      <c r="E259" s="32">
         <v>53.21</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="33">
         <v>597.66999999999996</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="33">
         <v>315</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="33">
         <v>4</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="33">
         <v>0</v>
       </c>
-      <c r="J259">
+      <c r="J259" s="33">
         <v>163</v>
       </c>
-      <c r="K259">
+      <c r="K259" s="33">
         <v>41.5</v>
       </c>
-      <c r="L259">
+      <c r="L259" s="33">
         <v>0.33</v>
       </c>
-      <c r="M259">
+      <c r="M259" s="33">
         <v>35.6</v>
       </c>
-      <c r="N259">
+      <c r="N259" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O259">
+      <c r="O259" s="33">
         <v>17.3</v>
       </c>
-      <c r="P259">
+      <c r="P259" s="33">
         <v>176.4</v>
       </c>
-      <c r="Q259">
+      <c r="Q259" s="33">
         <v>0</v>
       </c>
-      <c r="R259">
+      <c r="R259" s="33">
         <v>0</v>
       </c>
-      <c r="S259">
+      <c r="S259" s="33">
         <v>10</v>
       </c>
-      <c r="T259" t="s">
-        <v>18</v>
-      </c>
-      <c r="U259" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A260" s="16">
+      <c r="T259" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U259" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="29">
         <v>42889</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="30">
         <v>1305</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="33">
         <v>572.66999999999996</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="33">
         <v>13.258699999999999</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="33">
         <v>50.06</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="33">
         <v>572.66999999999996</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="33">
         <v>315</v>
       </c>
-      <c r="H260">
+      <c r="H260" s="33">
         <v>4</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="33">
         <v>0</v>
       </c>
-      <c r="J260">
+      <c r="J260" s="33">
         <v>163</v>
       </c>
-      <c r="K260">
+      <c r="K260" s="33">
         <v>41.5</v>
       </c>
-      <c r="L260">
+      <c r="L260" s="33">
         <v>0.33</v>
       </c>
-      <c r="M260">
+      <c r="M260" s="33">
         <v>35.6</v>
       </c>
-      <c r="N260">
+      <c r="N260" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O260">
+      <c r="O260" s="33">
         <v>17.3</v>
       </c>
-      <c r="P260">
+      <c r="P260" s="33">
         <v>176.4</v>
       </c>
-      <c r="Q260">
+      <c r="Q260" s="33">
         <v>0</v>
       </c>
-      <c r="R260">
+      <c r="R260" s="33">
         <v>0</v>
       </c>
-      <c r="S260">
+      <c r="S260" s="33">
         <v>10</v>
       </c>
-      <c r="T260" t="s">
-        <v>18</v>
-      </c>
-      <c r="U260" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A261" s="16">
+      <c r="T260" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U260" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="29">
         <v>42919</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="30">
         <v>1237</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="33">
         <v>504.67</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="33">
         <v>12.8756</v>
       </c>
-      <c r="E261" s="2">
+      <c r="E261" s="31">
         <v>46.48</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="33">
         <v>504.67</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="33">
         <v>315</v>
       </c>
-      <c r="H261">
+      <c r="H261" s="33">
         <v>4</v>
       </c>
-      <c r="I261">
+      <c r="I261" s="33">
         <v>0</v>
       </c>
-      <c r="J261">
+      <c r="J261" s="33">
         <v>163</v>
       </c>
-      <c r="K261">
+      <c r="K261" s="33">
         <v>41.5</v>
       </c>
-      <c r="L261">
+      <c r="L261" s="33">
         <v>0.33</v>
       </c>
-      <c r="M261">
+      <c r="M261" s="33">
         <v>35.6</v>
       </c>
-      <c r="N261">
+      <c r="N261" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O261">
+      <c r="O261" s="33">
         <v>17.3</v>
       </c>
-      <c r="P261">
+      <c r="P261" s="33">
         <v>176.4</v>
       </c>
-      <c r="Q261">
+      <c r="Q261" s="33">
         <v>0</v>
       </c>
-      <c r="R261">
+      <c r="R261" s="33">
         <v>0</v>
       </c>
-      <c r="S261">
+      <c r="S261" s="33">
         <v>10</v>
       </c>
-      <c r="T261" t="s">
-        <v>18</v>
-      </c>
-      <c r="U261" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A262" s="16">
+      <c r="T261" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U261" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="29">
         <v>42950</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="30">
         <v>1256</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="33">
         <v>523.66999999999996</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="33">
         <v>13.15</v>
       </c>
-      <c r="E262" s="2">
+      <c r="E262" s="31">
         <v>48.23</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="33">
         <v>523.66999999999996</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="33">
         <v>315</v>
       </c>
-      <c r="H262">
+      <c r="H262" s="33">
         <v>4</v>
       </c>
-      <c r="I262">
+      <c r="I262" s="33">
         <v>0</v>
       </c>
-      <c r="J262">
+      <c r="J262" s="33">
         <v>163</v>
       </c>
-      <c r="K262">
+      <c r="K262" s="33">
         <v>41.5</v>
       </c>
-      <c r="L262">
+      <c r="L262" s="33">
         <v>0.33</v>
       </c>
-      <c r="M262">
+      <c r="M262" s="33">
         <v>35.6</v>
       </c>
-      <c r="N262">
+      <c r="N262" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O262">
+      <c r="O262" s="33">
         <v>17.3</v>
       </c>
-      <c r="P262">
+      <c r="P262" s="33">
         <v>176.4</v>
       </c>
-      <c r="Q262">
+      <c r="Q262" s="33">
         <v>0</v>
       </c>
-      <c r="R262">
+      <c r="R262" s="33">
         <v>0</v>
       </c>
-      <c r="S262">
+      <c r="S262" s="33">
         <v>10</v>
       </c>
-      <c r="T262" t="s">
-        <v>18</v>
-      </c>
-      <c r="U262" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A263" s="16">
+      <c r="T262" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U262" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="29">
         <v>42981</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="30">
         <v>1323</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="33">
         <v>586.07000000000005</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="31">
         <v>13.215199999999999</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263" s="31">
         <v>51.66</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="33">
         <v>586.07000000000005</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="33">
         <v>315</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="33">
         <v>4</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="33">
         <v>0</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="33">
         <v>163</v>
       </c>
-      <c r="K263">
+      <c r="K263" s="33">
         <v>41.5</v>
       </c>
-      <c r="L263">
+      <c r="L263" s="33">
         <v>0.33</v>
       </c>
-      <c r="M263">
+      <c r="M263" s="33">
         <v>35.6</v>
       </c>
-      <c r="N263">
+      <c r="N263" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O263">
+      <c r="O263" s="33">
         <v>17.3</v>
       </c>
-      <c r="P263">
+      <c r="P263" s="33">
         <v>181</v>
       </c>
-      <c r="Q263">
+      <c r="Q263" s="33">
         <v>0</v>
       </c>
-      <c r="R263">
+      <c r="R263" s="33">
         <v>0</v>
       </c>
-      <c r="S263">
+      <c r="S263" s="33">
         <v>10</v>
       </c>
-      <c r="T263" t="s">
-        <v>18</v>
-      </c>
-      <c r="U263" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A264" s="16">
+      <c r="T263" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U263" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="29">
         <v>43011</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="30">
         <v>1352</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="33">
         <v>615.07000000000005</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="33">
         <v>13.1317</v>
       </c>
-      <c r="E264" s="2">
+      <c r="E264" s="31">
         <v>55.99</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="33">
         <v>615.07000000000005</v>
       </c>
-      <c r="G264">
+      <c r="G264" s="33">
         <v>315</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="33">
         <v>4</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="33">
         <v>0</v>
       </c>
-      <c r="J264">
+      <c r="J264" s="33">
         <v>163</v>
       </c>
-      <c r="K264">
+      <c r="K264" s="33">
         <v>41.5</v>
       </c>
-      <c r="L264">
+      <c r="L264" s="33">
         <v>0.33</v>
       </c>
-      <c r="M264">
+      <c r="M264" s="33">
         <v>35.6</v>
       </c>
-      <c r="N264">
+      <c r="N264" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O264">
+      <c r="O264" s="33">
         <v>17.3</v>
       </c>
-      <c r="P264">
+      <c r="P264" s="33">
         <v>181</v>
       </c>
-      <c r="Q264">
+      <c r="Q264" s="33">
         <v>0</v>
       </c>
-      <c r="R264">
+      <c r="R264" s="33">
         <v>0</v>
       </c>
-      <c r="S264">
+      <c r="S264" s="33">
         <v>10</v>
       </c>
-      <c r="T264" t="s">
-        <v>18</v>
-      </c>
-      <c r="U264" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A265" s="16">
+      <c r="T264" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U264" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="29">
         <v>43042</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="33">
         <v>1356</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="33">
         <v>619.07000000000005</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="33">
         <v>13.621</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="33">
         <v>56.86</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="33">
         <v>619.07000000000005</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="33">
         <v>315</v>
       </c>
-      <c r="H265">
+      <c r="H265" s="33">
         <v>4</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="33">
         <v>0</v>
       </c>
-      <c r="J265">
+      <c r="J265" s="33">
         <v>163</v>
       </c>
-      <c r="K265">
+      <c r="K265" s="33">
         <v>41.5</v>
       </c>
-      <c r="L265">
+      <c r="L265" s="33">
         <v>0.33</v>
       </c>
-      <c r="M265">
+      <c r="M265" s="33">
         <v>35.6</v>
       </c>
-      <c r="N265">
+      <c r="N265" s="33">
         <v>17.899999999999999</v>
       </c>
-      <c r="O265">
+      <c r="O265" s="33">
         <v>17.3</v>
       </c>
-      <c r="P265">
+      <c r="P265" s="33">
         <v>181</v>
       </c>
-      <c r="Q265">
+      <c r="Q265" s="33">
         <v>0</v>
       </c>
-      <c r="R265">
+      <c r="R265" s="33">
         <v>0</v>
       </c>
-      <c r="S265">
+      <c r="S265" s="33">
         <v>10</v>
       </c>
-      <c r="T265" t="s">
-        <v>18</v>
-      </c>
-      <c r="U265" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A266" s="16">
+      <c r="T265" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U265" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="29">
         <v>43072</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="33">
         <v>1427</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="33">
         <v>686.17</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="33">
         <v>14.096399999999999</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="33">
         <v>62.62</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="33">
         <v>669.17</v>
       </c>
-      <c r="G266">
+      <c r="G266" s="33">
         <v>315</v>
       </c>
-      <c r="H266">
+      <c r="H266" s="33">
         <v>4</v>
       </c>
-      <c r="I266">
+      <c r="I266" s="33">
         <v>0</v>
       </c>
-      <c r="J266">
+      <c r="J266" s="33">
         <v>163</v>
       </c>
-      <c r="K266">
+      <c r="K266" s="33">
         <v>41.5</v>
       </c>
-      <c r="L266">
+      <c r="L266" s="33">
         <v>0.33</v>
       </c>
-      <c r="M266">
+      <c r="M266" s="33">
         <v>34</v>
       </c>
-      <c r="N266">
+      <c r="N266" s="33">
         <v>18.600000000000001</v>
       </c>
-      <c r="O266">
+      <c r="O266" s="33">
         <v>15.9</v>
       </c>
-      <c r="P266">
+      <c r="P266" s="33">
         <v>187.2</v>
       </c>
-      <c r="Q266">
+      <c r="Q266" s="33">
         <v>0</v>
       </c>
-      <c r="R266">
+      <c r="R266" s="33">
         <v>0</v>
       </c>
-      <c r="S266">
+      <c r="S266" s="33">
         <v>10</v>
       </c>
-      <c r="T266" t="s">
-        <v>18</v>
-      </c>
-      <c r="U266" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A267" s="16">
+      <c r="T266" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U266" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="29">
         <v>43103</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="33">
         <v>1393</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="33">
         <v>652.16999999999996</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="33">
         <v>13.2303</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="33">
         <v>64.08</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="33">
         <v>652.16999999999996</v>
       </c>
-      <c r="G267">
+      <c r="G267" s="33">
         <v>315</v>
       </c>
-      <c r="H267">
+      <c r="H267" s="33">
         <v>4</v>
       </c>
-      <c r="I267">
+      <c r="I267" s="33">
         <v>0</v>
       </c>
-      <c r="J267">
+      <c r="J267" s="33">
         <v>163</v>
       </c>
-      <c r="K267">
+      <c r="K267" s="33">
         <v>41.5</v>
       </c>
-      <c r="L267">
+      <c r="L267" s="33">
         <v>0.33</v>
       </c>
-      <c r="M267">
+      <c r="M267" s="33">
         <v>34</v>
       </c>
-      <c r="N267">
+      <c r="N267" s="33">
         <v>18.600000000000001</v>
       </c>
-      <c r="O267">
+      <c r="O267" s="33">
         <v>15.9</v>
       </c>
-      <c r="P267">
+      <c r="P267" s="33">
         <v>187.2</v>
       </c>
-      <c r="Q267">
+      <c r="Q267" s="33">
         <v>0</v>
       </c>
-      <c r="R267">
+      <c r="R267" s="33">
         <v>0</v>
       </c>
-      <c r="S267">
+      <c r="S267" s="33">
         <v>10</v>
       </c>
-      <c r="T267" t="s">
-        <v>18</v>
-      </c>
-      <c r="U267" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A268" s="16">
+      <c r="T267" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U267" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="29">
         <v>43134</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="33">
         <v>1363</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="33">
         <v>622.16999999999996</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="33">
         <v>12.2029</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="33">
         <v>69.06</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="33">
         <v>622.16999999999996</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="33">
         <v>315</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="33">
         <v>4</v>
       </c>
-      <c r="I268">
+      <c r="I268" s="33">
         <v>0</v>
       </c>
-      <c r="J268">
+      <c r="J268" s="33">
         <v>163</v>
       </c>
-      <c r="K268">
+      <c r="K268" s="33">
         <v>41.5</v>
       </c>
-      <c r="L268">
+      <c r="L268" s="33">
         <v>0.33</v>
       </c>
-      <c r="M268">
+      <c r="M268" s="33">
         <v>34</v>
       </c>
-      <c r="N268">
+      <c r="N268" s="33">
         <v>18.600000000000001</v>
       </c>
-      <c r="O268">
+      <c r="O268" s="33">
         <v>15.9</v>
       </c>
-      <c r="P268">
+      <c r="P268" s="33">
         <v>187.2</v>
       </c>
-      <c r="Q268">
+      <c r="Q268" s="33">
         <v>0</v>
       </c>
-      <c r="R268">
+      <c r="R268" s="33">
         <v>0</v>
       </c>
-      <c r="S268">
+      <c r="S268" s="33">
         <v>10</v>
       </c>
-      <c r="T268" t="s">
-        <v>18</v>
-      </c>
-      <c r="U268" t="s">
+      <c r="T268" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U268" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="29">
+        <v>43162</v>
+      </c>
+      <c r="B269" s="30">
+        <v>1327</v>
+      </c>
+      <c r="C269" s="31">
+        <v>586.16999999999996</v>
+      </c>
+      <c r="D269" s="33">
+        <v>11.816700000000001</v>
+      </c>
+      <c r="E269" s="31">
+        <v>64.06</v>
+      </c>
+      <c r="F269">
+        <v>586.16999999999996</v>
+      </c>
+      <c r="G269" s="1">
+        <v>315</v>
+      </c>
+      <c r="H269" s="2">
+        <v>4</v>
+      </c>
+      <c r="I269" s="2">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2">
+        <v>163</v>
+      </c>
+      <c r="K269">
+        <v>41.5</v>
+      </c>
+      <c r="L269">
+        <v>0.33</v>
+      </c>
+      <c r="M269">
+        <v>34</v>
+      </c>
+      <c r="N269">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O269">
+        <v>15.9</v>
+      </c>
+      <c r="P269">
+        <v>187.2</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>0</v>
+      </c>
+      <c r="S269">
+        <v>10</v>
+      </c>
+      <c r="T269" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U269" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14638,7 +14720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A248" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
